--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.8072366053856888</v>
+        <v>3.883381337493402</v>
       </c>
       <c r="C2" t="n">
-        <v>3.743333655229955</v>
+        <v>3.8182563115121133</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3297544453689256</v>
+        <v>3.362906267136473</v>
       </c>
       <c r="E2" t="n">
-        <v>3.8072366053856888</v>
+        <v>3.432380044759021</v>
       </c>
       <c r="F2" t="n">
-        <v>3.743333655229955</v>
+        <v>3.755279571931866</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3297544453689256</v>
+        <v>3.698792212659384</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8072366053856888</v>
+        <v>3.721181997234455</v>
       </c>
       <c r="I2" t="n">
-        <v>3.743333655229955</v>
+        <v>3.5740654991702323</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3297544453689256</v>
+        <v>3.2979574332801693</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8072366053856888</v>
+        <v>3.723435891246162</v>
       </c>
       <c r="L2" t="n">
-        <v>3.743333655229955</v>
+        <v>3.7415658296070884</v>
       </c>
     </row>
     <row r="3">
@@ -448,34 +448,34 @@
         <v>3.901379003650568</v>
       </c>
       <c r="C10" t="n">
-        <v>4.4907545952749715</v>
+        <v>4.505193189986221</v>
       </c>
       <c r="D10" t="n">
-        <v>4.438367715780674</v>
+        <v>4.429640263798971</v>
       </c>
       <c r="E10" t="n">
-        <v>3.901379003650568</v>
+        <v>4.317022289513557</v>
       </c>
       <c r="F10" t="n">
-        <v>4.4907545952749715</v>
+        <v>3.8117160981887332</v>
       </c>
       <c r="G10" t="n">
-        <v>4.438367715780674</v>
+        <v>3.9120794421624754</v>
       </c>
       <c r="H10" t="n">
-        <v>3.901379003650568</v>
+        <v>4.377974723114524</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4907545952749715</v>
+        <v>3.9931247596797372</v>
       </c>
       <c r="J10" t="n">
-        <v>4.438367715780674</v>
+        <v>4.026945692029142</v>
       </c>
       <c r="K10" t="n">
-        <v>3.901379003650568</v>
+        <v>3.9510918671141013</v>
       </c>
       <c r="L10" t="n">
-        <v>4.4907545952749715</v>
+        <v>4.30399566532099</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.9883254850612757</v>
+        <v>3.9488371139220555</v>
       </c>
       <c r="C13" t="n">
-        <v>3.879538779936086</v>
+        <v>3.7922947167522794</v>
       </c>
       <c r="D13" t="n">
-        <v>4.242106416031943</v>
+        <v>4.13390129967266</v>
       </c>
       <c r="E13" t="n">
-        <v>3.9883254850612757</v>
+        <v>4.113870280798113</v>
       </c>
       <c r="F13" t="n">
-        <v>3.879538779936086</v>
+        <v>3.643776734280707</v>
       </c>
       <c r="G13" t="n">
-        <v>4.242106416031943</v>
+        <v>4.111380046546295</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9883254850612757</v>
+        <v>4.149053046241216</v>
       </c>
       <c r="I13" t="n">
-        <v>3.879538779936086</v>
+        <v>4.086642499816028</v>
       </c>
       <c r="J13" t="n">
-        <v>4.242106416031943</v>
+        <v>3.715536013929408</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9883254850612757</v>
+        <v>4.290587387546874</v>
       </c>
       <c r="L13" t="n">
-        <v>3.879538779936086</v>
+        <v>4.218633440508198</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5051808140582414</v>
+        <v>4.461012374704729</v>
       </c>
       <c r="C19" t="n">
-        <v>4.57853066026587</v>
+        <v>4.511390830179704</v>
       </c>
       <c r="D19" t="n">
-        <v>4.759059681849093</v>
+        <v>4.645158814551675</v>
       </c>
       <c r="E19" t="n">
-        <v>4.5051808140582414</v>
+        <v>5.047171926287007</v>
       </c>
       <c r="F19" t="n">
-        <v>4.57853066026587</v>
+        <v>4.370718357827169</v>
       </c>
       <c r="G19" t="n">
-        <v>4.759059681849093</v>
+        <v>4.286305341850683</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5051808140582414</v>
+        <v>4.839293251524258</v>
       </c>
       <c r="I19" t="n">
-        <v>4.57853066026587</v>
+        <v>4.962529916073392</v>
       </c>
       <c r="J19" t="n">
-        <v>4.759059681849093</v>
+        <v>4.8628564579076015</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5051808140582414</v>
+        <v>4.880680001168131</v>
       </c>
       <c r="L19" t="n">
-        <v>4.57853066026587</v>
+        <v>4.836363899603321</v>
       </c>
     </row>
     <row r="20">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0770295291967886</v>
+        <v>2.0977998244887566</v>
       </c>
       <c r="C24" t="n">
-        <v>1.8519437105746284</v>
+        <v>1.8634651566946323</v>
       </c>
       <c r="D24" t="n">
-        <v>2.1193535691915484</v>
+        <v>2.129837085722863</v>
       </c>
       <c r="E24" t="n">
-        <v>2.0770295291967886</v>
+        <v>2.0383778004940667</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8519437105746284</v>
+        <v>1.912530614269843</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1193535691915484</v>
+        <v>1.9521519085678194</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0770295291967886</v>
+        <v>2.1041299378779907</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8519437105746284</v>
+        <v>1.9316029409339575</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1193535691915484</v>
+        <v>2.1207684369484303</v>
       </c>
       <c r="K24" t="n">
-        <v>2.0770295291967886</v>
+        <v>1.9467020155471662</v>
       </c>
       <c r="L24" t="n">
-        <v>1.8519437105746284</v>
+        <v>2.1402966913748886</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.469672608515715</v>
+        <v>4.425418424272985</v>
       </c>
       <c r="C26" t="n">
-        <v>4.344929764640831</v>
+        <v>4.337549102954287</v>
       </c>
       <c r="D26" t="n">
-        <v>3.9762877462286164</v>
+        <v>3.9939094788292353</v>
       </c>
       <c r="E26" t="n">
-        <v>4.469672608515715</v>
+        <v>4.350637662373804</v>
       </c>
       <c r="F26" t="n">
-        <v>4.344929764640831</v>
+        <v>4.070585324525254</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9762877462286164</v>
+        <v>4.025129320102662</v>
       </c>
       <c r="H26" t="n">
-        <v>4.469672608515715</v>
+        <v>4.385040519059655</v>
       </c>
       <c r="I26" t="n">
-        <v>4.344929764640831</v>
+        <v>3.853023307777808</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9762877462286164</v>
+        <v>3.954474279890108</v>
       </c>
       <c r="K26" t="n">
-        <v>4.469672608515715</v>
+        <v>4.036397877906405</v>
       </c>
       <c r="L26" t="n">
-        <v>4.344929764640831</v>
+        <v>4.2146842119074455</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.400393831999127</v>
+        <v>2.4251401601640667</v>
       </c>
       <c r="C31" t="n">
-        <v>2.409143749234998</v>
+        <v>2.4369413294651303</v>
       </c>
       <c r="D31" t="n">
-        <v>2.244326159970417</v>
+        <v>2.2621860777188565</v>
       </c>
       <c r="E31" t="n">
-        <v>2.400393831999127</v>
+        <v>2.488404686932738</v>
       </c>
       <c r="F31" t="n">
-        <v>2.409143749234998</v>
+        <v>2.4266090506640765</v>
       </c>
       <c r="G31" t="n">
-        <v>2.244326159970417</v>
+        <v>2.5308474688381466</v>
       </c>
       <c r="H31" t="n">
-        <v>2.400393831999127</v>
+        <v>2.4384245548917804</v>
       </c>
       <c r="I31" t="n">
-        <v>2.409143749234998</v>
+        <v>2.1916474521700873</v>
       </c>
       <c r="J31" t="n">
-        <v>2.244326159970417</v>
+        <v>2.410548461668594</v>
       </c>
       <c r="K31" t="n">
-        <v>2.400393831999127</v>
+        <v>2.1493194968435794</v>
       </c>
       <c r="L31" t="n">
-        <v>2.409143749234998</v>
+        <v>2.3292625255997264</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2.6569616831344436</v>
+        <v>2.683531299965788</v>
       </c>
       <c r="C32" t="n">
-        <v>2.3986899596231193</v>
+        <v>2.4119485364392257</v>
       </c>
       <c r="D32" t="n">
-        <v>2.6709024886746207</v>
+        <v>2.670528119138924</v>
       </c>
       <c r="E32" t="n">
-        <v>2.6569616831344436</v>
+        <v>2.681898982964494</v>
       </c>
       <c r="F32" t="n">
-        <v>2.3986899596231193</v>
+        <v>2.785244425316153</v>
       </c>
       <c r="G32" t="n">
-        <v>2.6709024886746207</v>
+        <v>2.7385353592216974</v>
       </c>
       <c r="H32" t="n">
-        <v>2.6569616831344436</v>
+        <v>2.3653658391175614</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3986899596231193</v>
+        <v>2.693367090232258</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6709024886746207</v>
+        <v>2.6689115779893977</v>
       </c>
       <c r="K32" t="n">
-        <v>2.6569616831344436</v>
+        <v>2.5633964687341484</v>
       </c>
       <c r="L32" t="n">
-        <v>2.3986899596231193</v>
+        <v>2.6528531440494545</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5532954183925332</v>
+        <v>1.5693087732213222</v>
       </c>
       <c r="C34" t="n">
-        <v>1.5681996111466396</v>
+        <v>1.5769499605973836</v>
       </c>
       <c r="D34" t="n">
-        <v>1.561909949001434</v>
+        <v>1.5759907460613336</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5532954183925332</v>
+        <v>1.462975034009622</v>
       </c>
       <c r="F34" t="n">
-        <v>1.5681996111466396</v>
+        <v>1.6092725383431354</v>
       </c>
       <c r="G34" t="n">
-        <v>1.561909949001434</v>
+        <v>1.5827298630242161</v>
       </c>
       <c r="H34" t="n">
-        <v>1.5532954183925332</v>
+        <v>1.558922253313299</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5681996111466396</v>
+        <v>1.6367206474589604</v>
       </c>
       <c r="J34" t="n">
-        <v>1.561909949001434</v>
+        <v>1.5063539450489445</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5532954183925332</v>
+        <v>1.568358829204615</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5681996111466396</v>
+        <v>1.3899832533506837</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2.6167727029772294</v>
+        <v>2.5908640623536923</v>
       </c>
       <c r="C38" t="n">
-        <v>2.8626317267635497</v>
+        <v>2.8707855340997357</v>
       </c>
       <c r="D38" t="n">
-        <v>2.826402649887173</v>
+        <v>2.822274973310358</v>
       </c>
       <c r="E38" t="n">
-        <v>2.6167727029772294</v>
+        <v>2.49947067464808</v>
       </c>
       <c r="F38" t="n">
-        <v>2.8626317267635497</v>
+        <v>2.8137843757122503</v>
       </c>
       <c r="G38" t="n">
-        <v>2.826402649887173</v>
+        <v>2.7189009495904615</v>
       </c>
       <c r="H38" t="n">
-        <v>2.6167727029772294</v>
+        <v>2.558265662793208</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8626317267635497</v>
+        <v>2.8463235744940105</v>
       </c>
       <c r="J38" t="n">
-        <v>2.826402649887173</v>
+        <v>2.8325315758199565</v>
       </c>
       <c r="K38" t="n">
-        <v>2.6167727029772294</v>
+        <v>2.904664369905995</v>
       </c>
       <c r="L38" t="n">
-        <v>2.8626317267635497</v>
+        <v>2.954206969229858</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.6642017575581733</v>
+        <v>2.7441278102849185</v>
       </c>
       <c r="C45" t="n">
-        <v>2.737782455170643</v>
+        <v>2.8338250637113176</v>
       </c>
       <c r="D45" t="n">
-        <v>2.8966141473517983</v>
+        <v>2.9904728233432176</v>
       </c>
       <c r="E45" t="n">
-        <v>2.6642017575581733</v>
+        <v>2.8058443456358293</v>
       </c>
       <c r="F45" t="n">
-        <v>2.737782455170643</v>
+        <v>2.973868744660567</v>
       </c>
       <c r="G45" t="n">
-        <v>2.8966141473517983</v>
+        <v>3.1132405601804924</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6642017575581733</v>
+        <v>3.2312408336811282</v>
       </c>
       <c r="I45" t="n">
-        <v>2.737782455170643</v>
+        <v>3.0962798072218667</v>
       </c>
       <c r="J45" t="n">
-        <v>2.8966141473517983</v>
+        <v>3.124651338657119</v>
       </c>
       <c r="K45" t="n">
-        <v>2.6642017575581733</v>
+        <v>2.7981697149596525</v>
       </c>
       <c r="L45" t="n">
-        <v>2.737782455170643</v>
+        <v>3.0981552023305317</v>
       </c>
     </row>
     <row r="46">
@@ -2006,34 +2006,34 @@
         <v>2.2617099181403186</v>
       </c>
       <c r="C51" t="n">
-        <v>2.233170880018159</v>
+        <v>2.2507573271480164</v>
       </c>
       <c r="D51" t="n">
-        <v>2.0937739716078747</v>
+        <v>2.0760754354502104</v>
       </c>
       <c r="E51" t="n">
-        <v>2.2617099181403186</v>
+        <v>2.161773897633283</v>
       </c>
       <c r="F51" t="n">
-        <v>2.233170880018159</v>
+        <v>2.263086490328468</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0937739716078747</v>
+        <v>2.034054213659711</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2617099181403186</v>
+        <v>2.3094727364724434</v>
       </c>
       <c r="I51" t="n">
-        <v>2.233170880018159</v>
+        <v>2.2521205951809256</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0937739716078747</v>
+        <v>2.3488636153698015</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2617099181403186</v>
+        <v>2.237214863564387</v>
       </c>
       <c r="L51" t="n">
-        <v>2.233170880018159</v>
+        <v>2.2713812488334413</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.7962285507848728</v>
+        <v>1.742875227494233</v>
       </c>
       <c r="C59" t="n">
-        <v>1.7422149580440722</v>
+        <v>1.6884119696229962</v>
       </c>
       <c r="D59" t="n">
-        <v>1.6305749481700587</v>
+        <v>1.5841712859220396</v>
       </c>
       <c r="E59" t="n">
-        <v>1.7962285507848728</v>
+        <v>1.616990063446228</v>
       </c>
       <c r="F59" t="n">
-        <v>1.7422149580440722</v>
+        <v>1.7481502747685687</v>
       </c>
       <c r="G59" t="n">
-        <v>1.6305749481700587</v>
+        <v>1.7492091172113173</v>
       </c>
       <c r="H59" t="n">
-        <v>1.7962285507848728</v>
+        <v>1.679037356694393</v>
       </c>
       <c r="I59" t="n">
-        <v>1.7422149580440722</v>
+        <v>1.549326315522461</v>
       </c>
       <c r="J59" t="n">
-        <v>1.6305749481700587</v>
+        <v>1.7937541955936123</v>
       </c>
       <c r="K59" t="n">
-        <v>1.7962285507848728</v>
+        <v>1.7577262649215735</v>
       </c>
       <c r="L59" t="n">
-        <v>1.7422149580440722</v>
+        <v>1.5798382125047041</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.095978956640813</v>
       </c>
       <c r="C62" t="n">
-        <v>2.050551948187112</v>
+        <v>2.049876413720537</v>
       </c>
       <c r="D62" t="n">
-        <v>2.117921605317921</v>
+        <v>2.139400692462352</v>
       </c>
       <c r="E62" t="n">
-        <v>2.095978956640813</v>
+        <v>2.3455921660121364</v>
       </c>
       <c r="F62" t="n">
-        <v>2.050551948187112</v>
+        <v>2.233897300070381</v>
       </c>
       <c r="G62" t="n">
-        <v>2.117921605317921</v>
+        <v>2.3241907776984596</v>
       </c>
       <c r="H62" t="n">
-        <v>2.095978956640813</v>
+        <v>2.116880684981211</v>
       </c>
       <c r="I62" t="n">
-        <v>2.050551948187112</v>
+        <v>2.305956327665855</v>
       </c>
       <c r="J62" t="n">
-        <v>2.117921605317921</v>
+        <v>2.1334280502458016</v>
       </c>
       <c r="K62" t="n">
-        <v>2.095978956640813</v>
+        <v>2.042207181272471</v>
       </c>
       <c r="L62" t="n">
-        <v>2.050551948187112</v>
+        <v>2.157520969298842</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.055764482769664</v>
+        <v>3.0255093888808555</v>
       </c>
       <c r="C65" t="n">
-        <v>2.8840336626057264</v>
+        <v>2.8320175079949896</v>
       </c>
       <c r="D65" t="n">
-        <v>2.9388990676565427</v>
+        <v>2.9485896576462816</v>
       </c>
       <c r="E65" t="n">
-        <v>3.055764482769664</v>
+        <v>2.664699185979566</v>
       </c>
       <c r="F65" t="n">
-        <v>2.8840336626057264</v>
+        <v>2.7197488079350913</v>
       </c>
       <c r="G65" t="n">
-        <v>2.9388990676565427</v>
+        <v>2.6034581040510614</v>
       </c>
       <c r="H65" t="n">
-        <v>3.055764482769664</v>
+        <v>2.672007742714409</v>
       </c>
       <c r="I65" t="n">
-        <v>2.8840336626057264</v>
+        <v>2.990221065424914</v>
       </c>
       <c r="J65" t="n">
-        <v>2.9388990676565427</v>
+        <v>2.8478295849798334</v>
       </c>
       <c r="K65" t="n">
-        <v>3.055764482769664</v>
+        <v>2.9396922819108005</v>
       </c>
       <c r="L65" t="n">
-        <v>2.8840336626057264</v>
+        <v>2.727362885450766</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.12237223333478</v>
+        <v>6.244819678001476</v>
       </c>
       <c r="C69" t="n">
-        <v>6.019610653687169</v>
+        <v>6.140092892647757</v>
       </c>
       <c r="D69" t="n">
-        <v>5.3545388094114985</v>
+        <v>5.407849862574568</v>
       </c>
       <c r="E69" t="n">
-        <v>6.12237223333478</v>
+        <v>5.519569824097179</v>
       </c>
       <c r="F69" t="n">
-        <v>6.019610653687169</v>
+        <v>6.03882074129088</v>
       </c>
       <c r="G69" t="n">
-        <v>5.3545388094114985</v>
+        <v>5.947984085787245</v>
       </c>
       <c r="H69" t="n">
-        <v>6.12237223333478</v>
+        <v>5.983988834007739</v>
       </c>
       <c r="I69" t="n">
-        <v>6.019610653687169</v>
+        <v>5.747412530465238</v>
       </c>
       <c r="J69" t="n">
-        <v>5.3545388094114985</v>
+        <v>5.303406409696748</v>
       </c>
       <c r="K69" t="n">
-        <v>6.12237223333478</v>
+        <v>5.9876132943563904</v>
       </c>
       <c r="L69" t="n">
-        <v>6.019610653687169</v>
+        <v>6.016767834175636</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7.546829103050147</v>
+        <v>7.775520894051666</v>
       </c>
       <c r="C76" t="n">
-        <v>7.420158582146916</v>
+        <v>7.645123965129403</v>
       </c>
       <c r="D76" t="n">
-        <v>6.600348325810218</v>
+        <v>6.733396922006856</v>
       </c>
       <c r="E76" t="n">
-        <v>7.546829103050147</v>
+        <v>6.872501161983839</v>
       </c>
       <c r="F76" t="n">
-        <v>7.420158582146916</v>
+        <v>7.51902845405566</v>
       </c>
       <c r="G76" t="n">
-        <v>6.600348325810218</v>
+        <v>7.405926339145543</v>
       </c>
       <c r="H76" t="n">
-        <v>7.546829103050147</v>
+        <v>7.450756404144812</v>
       </c>
       <c r="I76" t="n">
-        <v>7.420158582146916</v>
+        <v>7.156191615074565</v>
       </c>
       <c r="J76" t="n">
-        <v>6.600348325810218</v>
+        <v>6.603352774701984</v>
       </c>
       <c r="K76" t="n">
-        <v>7.546829103050147</v>
+        <v>7.4552692753923</v>
       </c>
       <c r="L76" t="n">
-        <v>7.420158582146916</v>
+        <v>7.4915700407001555</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.223145995536712</v>
+        <v>4.351120116613583</v>
       </c>
       <c r="C79" t="n">
-        <v>4.152262171906889</v>
+        <v>4.27815102447053</v>
       </c>
       <c r="D79" t="n">
-        <v>3.6935028235934406</v>
+        <v>3.7679557678124262</v>
       </c>
       <c r="E79" t="n">
-        <v>4.223145995536712</v>
+        <v>3.8457974024909625</v>
       </c>
       <c r="F79" t="n">
-        <v>4.152262171906889</v>
+        <v>4.207588971802475</v>
       </c>
       <c r="G79" t="n">
-        <v>3.6935028235934406</v>
+        <v>4.144297921064841</v>
       </c>
       <c r="H79" t="n">
-        <v>4.223145995536712</v>
+        <v>4.169384471574485</v>
       </c>
       <c r="I79" t="n">
-        <v>4.152262171906889</v>
+        <v>4.004548340743677</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6935028235934406</v>
+        <v>3.6951840894778005</v>
       </c>
       <c r="K79" t="n">
-        <v>4.223145995536712</v>
+        <v>4.171909838702448</v>
       </c>
       <c r="L79" t="n">
-        <v>4.152262171906889</v>
+        <v>4.192223460430391</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.8736984106549235</v>
+        <v>3.796991511434033</v>
       </c>
       <c r="C90" t="n">
-        <v>4.458892335781902</v>
+        <v>4.384649705589135</v>
       </c>
       <c r="D90" t="n">
-        <v>4.406877145346329</v>
+        <v>4.311118316014177</v>
       </c>
       <c r="E90" t="n">
-        <v>3.8736984106549235</v>
+        <v>4.201513611627218</v>
       </c>
       <c r="F90" t="n">
-        <v>4.458892335781902</v>
+        <v>3.709727677130692</v>
       </c>
       <c r="G90" t="n">
-        <v>4.406877145346329</v>
+        <v>3.807405642991187</v>
       </c>
       <c r="H90" t="n">
-        <v>3.8736984106549235</v>
+        <v>4.260835167612309</v>
       </c>
       <c r="I90" t="n">
-        <v>4.458892335781902</v>
+        <v>3.8862824663827555</v>
       </c>
       <c r="J90" t="n">
-        <v>4.406877145346329</v>
+        <v>3.9191984668326767</v>
       </c>
       <c r="K90" t="n">
-        <v>3.8736984106549235</v>
+        <v>3.845374229545627</v>
       </c>
       <c r="L90" t="n">
-        <v>4.458892335781902</v>
+        <v>4.1888355351225925</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5.274088318476252</v>
+        <v>5.169650926031178</v>
       </c>
       <c r="C93" t="n">
-        <v>6.070837088609253</v>
+        <v>5.969754828938339</v>
       </c>
       <c r="D93" t="n">
-        <v>6.000017763205654</v>
+        <v>5.869640932169323</v>
       </c>
       <c r="E93" t="n">
-        <v>5.274088318476252</v>
+        <v>5.72041277091978</v>
       </c>
       <c r="F93" t="n">
-        <v>6.070837088609253</v>
+        <v>5.050840135841942</v>
       </c>
       <c r="G93" t="n">
-        <v>6.000017763205654</v>
+        <v>5.183829895008625</v>
       </c>
       <c r="H93" t="n">
-        <v>5.274088318476252</v>
+        <v>5.801179803426555</v>
       </c>
       <c r="I93" t="n">
-        <v>6.070837088609253</v>
+        <v>5.291221666062286</v>
       </c>
       <c r="J93" t="n">
-        <v>6.000017763205654</v>
+        <v>5.336037207970861</v>
       </c>
       <c r="K93" t="n">
-        <v>5.274088318476252</v>
+        <v>5.235524595418193</v>
       </c>
       <c r="L93" t="n">
-        <v>6.070837088609253</v>
+        <v>5.703151412882749</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0878896098537143</v>
+        <v>3.0570107137551776</v>
       </c>
       <c r="C94" t="n">
-        <v>3.5543725544677742</v>
+        <v>3.530142505108506</v>
       </c>
       <c r="D94" t="n">
-        <v>3.5129090358678807</v>
+        <v>3.4709413599252623</v>
       </c>
       <c r="E94" t="n">
-        <v>3.0878896098537143</v>
+        <v>3.3826970869054467</v>
       </c>
       <c r="F94" t="n">
-        <v>3.5543725544677742</v>
+        <v>2.986753386187985</v>
       </c>
       <c r="G94" t="n">
-        <v>3.5129090358678807</v>
+        <v>3.065395276019488</v>
       </c>
       <c r="H94" t="n">
-        <v>3.0878896098537143</v>
+        <v>3.4304576972878924</v>
       </c>
       <c r="I94" t="n">
-        <v>3.5543725544677742</v>
+        <v>3.128900104368164</v>
       </c>
       <c r="J94" t="n">
-        <v>3.5129090358678807</v>
+        <v>3.1554012344671816</v>
       </c>
       <c r="K94" t="n">
-        <v>3.0878896098537143</v>
+        <v>3.095964313514972</v>
       </c>
       <c r="L94" t="n">
-        <v>3.5543725544677742</v>
+        <v>3.372489791053524</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5.087282753508586</v>
+        <v>4.986544481161882</v>
       </c>
       <c r="C97" t="n">
-        <v>5.855811081518807</v>
+        <v>5.7583091048249315</v>
       </c>
       <c r="D97" t="n">
-        <v>5.787500141127705</v>
+        <v>5.661741192104293</v>
       </c>
       <c r="E97" t="n">
-        <v>5.087282753508586</v>
+        <v>5.517798617535893</v>
       </c>
       <c r="F97" t="n">
-        <v>5.855811081518807</v>
+        <v>4.87194190961544</v>
       </c>
       <c r="G97" t="n">
-        <v>5.787500141127705</v>
+        <v>5.000221238164377</v>
       </c>
       <c r="H97" t="n">
-        <v>5.087282753508586</v>
+        <v>5.595704922230178</v>
       </c>
       <c r="I97" t="n">
-        <v>5.855811081518807</v>
+        <v>5.103809246510032</v>
       </c>
       <c r="J97" t="n">
-        <v>5.787500141127705</v>
+        <v>5.147037444384902</v>
       </c>
       <c r="K97" t="n">
-        <v>5.087282753508586</v>
+        <v>5.050084938193839</v>
       </c>
       <c r="L97" t="n">
-        <v>5.855811081518807</v>
+        <v>5.50114864814947</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.444679729619123</v>
+        <v>2.4693734642617406</v>
       </c>
       <c r="C100" t="n">
-        <v>2.377997947034491</v>
+        <v>2.3714809378163975</v>
       </c>
       <c r="D100" t="n">
-        <v>2.600237018017898</v>
+        <v>2.5851018613299743</v>
       </c>
       <c r="E100" t="n">
-        <v>2.444679729619123</v>
+        <v>2.5725756251131036</v>
       </c>
       <c r="F100" t="n">
-        <v>2.377997947034491</v>
+        <v>2.2786064144312754</v>
       </c>
       <c r="G100" t="n">
-        <v>2.600237018017898</v>
+        <v>2.571018377193316</v>
       </c>
       <c r="H100" t="n">
-        <v>2.444679729619123</v>
+        <v>2.594576883933894</v>
       </c>
       <c r="I100" t="n">
-        <v>2.377997947034491</v>
+        <v>2.5555489517132703</v>
       </c>
       <c r="J100" t="n">
-        <v>2.600237018017898</v>
+        <v>2.3234805016288202</v>
       </c>
       <c r="K100" t="n">
-        <v>2.444679729619123</v>
+        <v>2.6830842435992888</v>
       </c>
       <c r="L100" t="n">
-        <v>2.377997947034491</v>
+        <v>2.638088422718309</v>
       </c>
     </row>
     <row r="101">
@@ -3906,34 +3906,34 @@
         <v>2.6872183535331726</v>
       </c>
       <c r="C101" t="n">
-        <v>2.613921018165791</v>
+        <v>2.5806898767576665</v>
       </c>
       <c r="D101" t="n">
-        <v>2.858208604463165</v>
+        <v>2.8131561580522257</v>
       </c>
       <c r="E101" t="n">
-        <v>2.6872183535331726</v>
+        <v>2.799524873700213</v>
       </c>
       <c r="F101" t="n">
-        <v>2.613921018165791</v>
+        <v>2.4796220846929455</v>
       </c>
       <c r="G101" t="n">
-        <v>2.858208604463165</v>
+        <v>2.797830247410744</v>
       </c>
       <c r="H101" t="n">
-        <v>2.6872183535331726</v>
+        <v>2.823467054726985</v>
       </c>
       <c r="I101" t="n">
-        <v>2.613921018165791</v>
+        <v>2.7809961294977534</v>
       </c>
       <c r="J101" t="n">
-        <v>2.858208604463165</v>
+        <v>2.528454905025913</v>
       </c>
       <c r="K101" t="n">
-        <v>2.6872183535331726</v>
+        <v>2.919782417614678</v>
       </c>
       <c r="L101" t="n">
-        <v>2.613921018165791</v>
+        <v>2.870817124412336</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.6580222285370536</v>
+        <v>2.684870937916216</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5855212550144233</v>
+        <v>2.578435518933987</v>
       </c>
       <c r="D104" t="n">
-        <v>2.8271547023598362</v>
+        <v>2.8106987296524575</v>
       </c>
       <c r="E104" t="n">
-        <v>2.6580222285370536</v>
+        <v>2.7970793528887232</v>
       </c>
       <c r="F104" t="n">
-        <v>2.5855212550144233</v>
+        <v>2.4774560144894933</v>
       </c>
       <c r="G104" t="n">
-        <v>2.8271547023598362</v>
+        <v>2.7953862069375424</v>
       </c>
       <c r="H104" t="n">
-        <v>2.6580222285370536</v>
+        <v>2.8210006192586823</v>
       </c>
       <c r="I104" t="n">
-        <v>2.5855212550144233</v>
+        <v>2.778566794443348</v>
       </c>
       <c r="J104" t="n">
-        <v>2.8271547023598362</v>
+        <v>2.526246176984507</v>
       </c>
       <c r="K104" t="n">
-        <v>2.6580222285370536</v>
+        <v>2.917231846003624</v>
       </c>
       <c r="L104" t="n">
-        <v>2.5855212550144233</v>
+        <v>2.8683093263607145</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4.489164859358035</v>
+        <v>4.445153439168251</v>
       </c>
       <c r="C106" t="n">
-        <v>4.562253946261516</v>
+        <v>4.495352798821314</v>
       </c>
       <c r="D106" t="n">
-        <v>4.742141185694127</v>
+        <v>4.628645236913022</v>
       </c>
       <c r="E106" t="n">
-        <v>4.489164859358035</v>
+        <v>5.029229188742862</v>
       </c>
       <c r="F106" t="n">
-        <v>4.562253946261516</v>
+        <v>4.355180418260375</v>
       </c>
       <c r="G106" t="n">
-        <v>4.742141185694127</v>
+        <v>4.2710674912471935</v>
       </c>
       <c r="H106" t="n">
-        <v>4.489164859358035</v>
+        <v>4.822089524371827</v>
       </c>
       <c r="I106" t="n">
-        <v>4.562253946261516</v>
+        <v>4.944888081568941</v>
       </c>
       <c r="J106" t="n">
-        <v>4.742141185694127</v>
+        <v>4.845568963363449</v>
       </c>
       <c r="K106" t="n">
-        <v>4.489164859358035</v>
+        <v>4.863329143781678</v>
       </c>
       <c r="L106" t="n">
-        <v>4.562253946261516</v>
+        <v>4.819170586320967</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4.285741343238344</v>
+        <v>4.243724271245812</v>
       </c>
       <c r="C107" t="n">
-        <v>4.355518446841215</v>
+        <v>4.291648880345597</v>
       </c>
       <c r="D107" t="n">
-        <v>4.527254215811749</v>
+        <v>4.418901260368985</v>
       </c>
       <c r="E107" t="n">
-        <v>4.285741343238344</v>
+        <v>4.801333017183648</v>
       </c>
       <c r="F107" t="n">
-        <v>4.355518446841215</v>
+        <v>4.15782831786439</v>
       </c>
       <c r="G107" t="n">
-        <v>4.527254215811749</v>
+        <v>4.077526912125254</v>
       </c>
       <c r="H107" t="n">
-        <v>4.285741343238344</v>
+        <v>4.60357974876249</v>
       </c>
       <c r="I107" t="n">
-        <v>4.355518446841215</v>
+        <v>4.720813771115803</v>
       </c>
       <c r="J107" t="n">
-        <v>4.527254215811749</v>
+        <v>4.625995232611935</v>
       </c>
       <c r="K107" t="n">
-        <v>4.285741343238344</v>
+        <v>4.6429506222815995</v>
       </c>
       <c r="L107" t="n">
-        <v>4.355518446841215</v>
+        <v>4.600793080445587</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4.063356503232519</v>
+        <v>4.0231252507252675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.12951291002286</v>
+        <v>4.0685586230833355</v>
       </c>
       <c r="D111" t="n">
-        <v>4.292337401236036</v>
+        <v>4.189196117549178</v>
       </c>
       <c r="E111" t="n">
-        <v>4.063356503232519</v>
+        <v>4.551748149486123</v>
       </c>
       <c r="F111" t="n">
-        <v>4.12951291002286</v>
+        <v>3.9416943761217036</v>
       </c>
       <c r="G111" t="n">
-        <v>4.292337401236036</v>
+        <v>3.8655672310838356</v>
       </c>
       <c r="H111" t="n">
-        <v>4.063356503232519</v>
+        <v>4.3642745728003645</v>
       </c>
       <c r="I111" t="n">
-        <v>4.12951291002286</v>
+        <v>4.47541448798511</v>
       </c>
       <c r="J111" t="n">
-        <v>4.292337401236036</v>
+        <v>4.385524845748813</v>
       </c>
       <c r="K111" t="n">
-        <v>4.063356503232519</v>
+        <v>4.401598853378881</v>
       </c>
       <c r="L111" t="n">
-        <v>4.12951291002286</v>
+        <v>4.361632762222074</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3668926190989512</v>
+        <v>1.3809842955845073</v>
       </c>
       <c r="C116" t="n">
-        <v>1.332881112373381</v>
+        <v>1.3529555417994703</v>
       </c>
       <c r="D116" t="n">
-        <v>1.4750090570627576</v>
+        <v>1.5140810024608382</v>
       </c>
       <c r="E116" t="n">
-        <v>1.3668926190989512</v>
+        <v>1.323196325592929</v>
       </c>
       <c r="F116" t="n">
-        <v>1.332881112373381</v>
+        <v>1.4884960475286502</v>
       </c>
       <c r="G116" t="n">
-        <v>1.4750090570627576</v>
+        <v>1.3926809440108643</v>
       </c>
       <c r="H116" t="n">
-        <v>1.3668926190989512</v>
+        <v>1.4419819065287673</v>
       </c>
       <c r="I116" t="n">
-        <v>1.332881112373381</v>
+        <v>1.377128951827136</v>
       </c>
       <c r="J116" t="n">
-        <v>1.4750090570627576</v>
+        <v>1.366447618664904</v>
       </c>
       <c r="K116" t="n">
-        <v>1.3668926190989512</v>
+        <v>1.500266394814396</v>
       </c>
       <c r="L116" t="n">
-        <v>1.332881112373381</v>
+        <v>1.3182458319302501</v>
       </c>
     </row>
     <row r="117">
@@ -4514,34 +4514,34 @@
         <v>1.0572358465790885</v>
       </c>
       <c r="C117" t="n">
-        <v>1.030929329443791</v>
+        <v>1.0357779608296072</v>
       </c>
       <c r="D117" t="n">
-        <v>1.140859514029374</v>
+        <v>1.1591302779793593</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0572358465790885</v>
+        <v>1.0129952903530135</v>
       </c>
       <c r="F117" t="n">
-        <v>1.030929329443791</v>
+        <v>1.1395432837072983</v>
       </c>
       <c r="G117" t="n">
-        <v>1.140859514029374</v>
+        <v>1.0661904132897428</v>
       </c>
       <c r="H117" t="n">
-        <v>1.0572358465790885</v>
+        <v>1.1039335976340066</v>
       </c>
       <c r="I117" t="n">
-        <v>1.030929329443791</v>
+        <v>1.0542843230648746</v>
       </c>
       <c r="J117" t="n">
-        <v>1.140859514029374</v>
+        <v>1.046107048099133</v>
       </c>
       <c r="K117" t="n">
-        <v>1.0572358465790885</v>
+        <v>1.1485542718242256</v>
       </c>
       <c r="L117" t="n">
-        <v>1.030929329443791</v>
+        <v>1.0092053563362535</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1.399767108506722</v>
+        <v>1.4139061702088103</v>
       </c>
       <c r="C120" t="n">
-        <v>1.3649376070813712</v>
+        <v>1.3852092269874874</v>
       </c>
       <c r="D120" t="n">
-        <v>1.5104838039047885</v>
+        <v>1.5501758263436523</v>
       </c>
       <c r="E120" t="n">
-        <v>1.399767108506722</v>
+        <v>1.3547405681116835</v>
       </c>
       <c r="F120" t="n">
-        <v>1.3649376070813712</v>
+        <v>1.5239809407401024</v>
       </c>
       <c r="G120" t="n">
-        <v>1.5104838039047885</v>
+        <v>1.4258816600341955</v>
       </c>
       <c r="H120" t="n">
-        <v>1.399767108506722</v>
+        <v>1.476357929260554</v>
       </c>
       <c r="I120" t="n">
-        <v>1.3649376070813712</v>
+        <v>1.4099589172644773</v>
       </c>
       <c r="J120" t="n">
-        <v>1.5104838039047885</v>
+        <v>1.3990229472375746</v>
       </c>
       <c r="K120" t="n">
-        <v>1.399767108506722</v>
+        <v>1.536031886363472</v>
       </c>
       <c r="L120" t="n">
-        <v>1.3649376070813712</v>
+        <v>1.3496720575155663</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.512445562611212</v>
+        <v>1.5430000184215396</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3485431997432915</v>
+        <v>1.370639246672854</v>
       </c>
       <c r="D126" t="n">
-        <v>1.5432649638676827</v>
+        <v>1.5665644663242124</v>
       </c>
       <c r="E126" t="n">
-        <v>1.512445562611212</v>
+        <v>1.4992931866027333</v>
       </c>
       <c r="F126" t="n">
-        <v>1.3485431997432915</v>
+        <v>1.406728486961003</v>
       </c>
       <c r="G126" t="n">
-        <v>1.5432649638676827</v>
+        <v>1.435871237912735</v>
       </c>
       <c r="H126" t="n">
-        <v>1.512445562611212</v>
+        <v>1.5476560227562617</v>
       </c>
       <c r="I126" t="n">
-        <v>1.3485431997432915</v>
+        <v>1.4207568037005385</v>
       </c>
       <c r="J126" t="n">
-        <v>1.5432649638676827</v>
+        <v>1.5598941801211819</v>
       </c>
       <c r="K126" t="n">
-        <v>1.512445562611212</v>
+        <v>1.4318626642952248</v>
       </c>
       <c r="L126" t="n">
-        <v>1.3485431997432915</v>
+        <v>1.5742578465625732</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.904074521862626</v>
+        <v>1.9231152670812524</v>
       </c>
       <c r="C127" t="n">
-        <v>1.856696664596115</v>
+        <v>1.8840833066935698</v>
       </c>
       <c r="D127" t="n">
-        <v>2.054680174453777</v>
+        <v>2.1084615521986905</v>
       </c>
       <c r="E127" t="n">
-        <v>1.904074521862626</v>
+        <v>1.8426415587995808</v>
       </c>
       <c r="F127" t="n">
-        <v>1.856696664596115</v>
+        <v>2.0728327491811647</v>
       </c>
       <c r="G127" t="n">
-        <v>2.054680174453777</v>
+        <v>1.9394036515576942</v>
       </c>
       <c r="H127" t="n">
-        <v>1.904074521862626</v>
+        <v>2.008058620338386</v>
       </c>
       <c r="I127" t="n">
-        <v>1.856696664596115</v>
+        <v>1.917746436701824</v>
       </c>
       <c r="J127" t="n">
-        <v>2.054680174453777</v>
+        <v>1.9028719483077505</v>
       </c>
       <c r="K127" t="n">
-        <v>1.904074521862626</v>
+        <v>2.0892237643697085</v>
       </c>
       <c r="L127" t="n">
-        <v>1.856696664596115</v>
+        <v>1.8357476571290643</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.753344088949105</v>
+        <v>1.771419801206312</v>
       </c>
       <c r="C128" t="n">
-        <v>1.7044104987058233</v>
+        <v>1.736247204904738</v>
       </c>
       <c r="D128" t="n">
-        <v>1.5598011815290187</v>
+        <v>1.5986941022838905</v>
       </c>
       <c r="E128" t="n">
-        <v>1.753344088949105</v>
+        <v>1.741486332847494</v>
       </c>
       <c r="F128" t="n">
-        <v>1.7044104987058233</v>
+        <v>1.6293861404864658</v>
       </c>
       <c r="G128" t="n">
-        <v>1.5598011815290187</v>
+        <v>1.611190874277005</v>
       </c>
       <c r="H128" t="n">
-        <v>1.753344088949105</v>
+        <v>1.7552572118263314</v>
       </c>
       <c r="I128" t="n">
-        <v>1.7044104987058233</v>
+        <v>1.5422997618645125</v>
       </c>
       <c r="J128" t="n">
-        <v>1.5598011815290187</v>
+        <v>1.582908862207579</v>
       </c>
       <c r="K128" t="n">
-        <v>1.753344088949105</v>
+        <v>1.6157014864973323</v>
       </c>
       <c r="L128" t="n">
-        <v>1.7044104987058233</v>
+        <v>1.6870664766645183</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>3.11914645543443</v>
+        <v>3.150337919988774</v>
       </c>
       <c r="C132" t="n">
-        <v>3.032095068589709</v>
+        <v>3.087786082305889</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7748394380847055</v>
+        <v>2.8431581545253226</v>
       </c>
       <c r="E132" t="n">
-        <v>3.11914645543443</v>
+        <v>3.0971034803695767</v>
       </c>
       <c r="F132" t="n">
-        <v>3.032095068589709</v>
+        <v>2.897741654001546</v>
       </c>
       <c r="G132" t="n">
-        <v>2.7748394380847055</v>
+        <v>2.8653827309134563</v>
       </c>
       <c r="H132" t="n">
-        <v>3.11914645543443</v>
+        <v>3.121593960948525</v>
       </c>
       <c r="I132" t="n">
-        <v>3.032095068589709</v>
+        <v>2.7428650286525413</v>
       </c>
       <c r="J132" t="n">
-        <v>2.7748394380847055</v>
+        <v>2.815085283061051</v>
       </c>
       <c r="K132" t="n">
-        <v>3.11914645543443</v>
+        <v>2.8734045181320393</v>
       </c>
       <c r="L132" t="n">
-        <v>3.032095068589709</v>
+        <v>3.0003218273606085</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.0137649388308025</v>
+        <v>4.054308019021013</v>
       </c>
       <c r="C133" t="n">
-        <v>3.9042843398982656</v>
+        <v>3.893584474885806</v>
       </c>
       <c r="D133" t="n">
-        <v>4.2691646063577515</v>
+        <v>4.244315150405841</v>
       </c>
       <c r="E133" t="n">
-        <v>4.0137649388308025</v>
+        <v>4.223749115872303</v>
       </c>
       <c r="F133" t="n">
-        <v>3.9042843398982656</v>
+        <v>3.741099672415627</v>
       </c>
       <c r="G133" t="n">
-        <v>4.2691646063577515</v>
+        <v>4.2211923690617565</v>
       </c>
       <c r="H133" t="n">
-        <v>4.0137649388308025</v>
+        <v>4.259871590401426</v>
       </c>
       <c r="I133" t="n">
-        <v>3.9042843398982656</v>
+        <v>4.195794098333943</v>
       </c>
       <c r="J133" t="n">
-        <v>4.2691646063577515</v>
+        <v>3.8147755963713603</v>
       </c>
       <c r="K133" t="n">
-        <v>4.0137649388308025</v>
+        <v>4.405186223131986</v>
       </c>
       <c r="L133" t="n">
-        <v>3.9042843398982656</v>
+        <v>4.331310432345221</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.4352152256263953</v>
+        <v>2.459813359218581</v>
       </c>
       <c r="C138" t="n">
-        <v>2.367251484364162</v>
+        <v>2.4109722983914996</v>
       </c>
       <c r="D138" t="n">
-        <v>2.166403964943453</v>
+        <v>2.219964520789426</v>
       </c>
       <c r="E138" t="n">
-        <v>2.4352152256263953</v>
+        <v>2.4182474100818343</v>
       </c>
       <c r="F138" t="n">
-        <v>2.367251484364162</v>
+        <v>2.262583828500071</v>
       </c>
       <c r="G138" t="n">
-        <v>2.166403964943453</v>
+        <v>2.2373176782255335</v>
       </c>
       <c r="H138" t="n">
-        <v>2.4352152256263953</v>
+        <v>2.4373698067363483</v>
       </c>
       <c r="I138" t="n">
-        <v>2.367251484364162</v>
+        <v>2.1416547085961555</v>
       </c>
       <c r="J138" t="n">
-        <v>2.166403964943453</v>
+        <v>2.1980449597730356</v>
       </c>
       <c r="K138" t="n">
-        <v>2.4352152256263953</v>
+        <v>2.2435811648311703</v>
       </c>
       <c r="L138" t="n">
-        <v>2.367251484364162</v>
+        <v>2.34267938879491</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>4.3803030677915435</v>
+        <v>4.4687940388580385</v>
       </c>
       <c r="C153" t="n">
-        <v>3.954512801412599</v>
+        <v>4.016536435334068</v>
       </c>
       <c r="D153" t="n">
-        <v>4.403286068887398</v>
+        <v>4.447140281003221</v>
       </c>
       <c r="E153" t="n">
-        <v>4.3803030677915435</v>
+        <v>4.4660757964865025</v>
       </c>
       <c r="F153" t="n">
-        <v>3.954512801412599</v>
+        <v>4.638173471192264</v>
       </c>
       <c r="G153" t="n">
-        <v>4.403286068887398</v>
+        <v>4.560390441001339</v>
       </c>
       <c r="H153" t="n">
-        <v>4.3803030677915435</v>
+        <v>3.938963842792428</v>
       </c>
       <c r="I153" t="n">
-        <v>3.954512801412599</v>
+        <v>4.48517324818972</v>
       </c>
       <c r="J153" t="n">
-        <v>4.403286068887398</v>
+        <v>4.4444483096248115</v>
       </c>
       <c r="K153" t="n">
-        <v>4.3803030677915435</v>
+        <v>4.268737561903955</v>
       </c>
       <c r="L153" t="n">
-        <v>3.954512801412599</v>
+        <v>4.417706741950483</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.920886036325638</v>
+        <v>2.9798938350392867</v>
       </c>
       <c r="C154" t="n">
-        <v>2.636959370927878</v>
+        <v>2.678318145295682</v>
       </c>
       <c r="D154" t="n">
-        <v>2.936211625887546</v>
+        <v>2.9654546152014682</v>
       </c>
       <c r="E154" t="n">
-        <v>2.920886036325638</v>
+        <v>2.9780812490004926</v>
       </c>
       <c r="F154" t="n">
-        <v>2.636959370927878</v>
+        <v>3.092839905457022</v>
       </c>
       <c r="G154" t="n">
-        <v>2.936211625887546</v>
+        <v>3.040972406055362</v>
       </c>
       <c r="H154" t="n">
-        <v>2.920886036325638</v>
+        <v>2.6265909705203785</v>
       </c>
       <c r="I154" t="n">
-        <v>2.636959370927878</v>
+        <v>2.990815865566066</v>
       </c>
       <c r="J154" t="n">
-        <v>2.936211625887546</v>
+        <v>2.9636595472603484</v>
       </c>
       <c r="K154" t="n">
-        <v>2.920886036325638</v>
+        <v>2.8464916112734557</v>
       </c>
       <c r="L154" t="n">
-        <v>2.636959370927878</v>
+        <v>2.9458276597401123</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.413384877710379</v>
+        <v>4.502544168169173</v>
       </c>
       <c r="C156" t="n">
-        <v>3.9843788720459012</v>
+        <v>4.046870933388055</v>
       </c>
       <c r="D156" t="n">
-        <v>4.436541455671087</v>
+        <v>4.480726872428895</v>
       </c>
       <c r="E156" t="n">
-        <v>4.413384877710379</v>
+        <v>4.499805396538347</v>
       </c>
       <c r="F156" t="n">
-        <v>3.9843788720459012</v>
+        <v>4.6732028220773225</v>
       </c>
       <c r="G156" t="n">
-        <v>4.436541455671087</v>
+        <v>4.59483234316884</v>
       </c>
       <c r="H156" t="n">
-        <v>4.413384877710379</v>
+        <v>3.9687124814385943</v>
       </c>
       <c r="I156" t="n">
-        <v>3.9843788720459012</v>
+        <v>4.519047079875176</v>
       </c>
       <c r="J156" t="n">
-        <v>4.436541455671087</v>
+        <v>4.478014570200299</v>
       </c>
       <c r="K156" t="n">
-        <v>4.413384877710379</v>
+        <v>4.300976784266141</v>
       </c>
       <c r="L156" t="n">
-        <v>3.9843788720459012</v>
+        <v>4.451071039455141</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.7219923701644655</v>
+        <v>2.7769821150162732</v>
       </c>
       <c r="C157" t="n">
-        <v>2.4573992955674324</v>
+        <v>2.495941801803019</v>
       </c>
       <c r="D157" t="n">
-        <v>2.7362743850520657</v>
+        <v>2.7635261137410194</v>
       </c>
       <c r="E157" t="n">
-        <v>2.7219923701644655</v>
+        <v>2.775292954499052</v>
       </c>
       <c r="F157" t="n">
-        <v>2.4573992955674324</v>
+        <v>2.882237280090731</v>
       </c>
       <c r="G157" t="n">
-        <v>2.7362743850520657</v>
+        <v>2.833901625814937</v>
       </c>
       <c r="H157" t="n">
-        <v>2.7219923701644655</v>
+        <v>2.447736916943607</v>
       </c>
       <c r="I157" t="n">
-        <v>2.4573992955674324</v>
+        <v>2.787160425087554</v>
       </c>
       <c r="J157" t="n">
-        <v>2.7362743850520657</v>
+        <v>2.761853278451012</v>
       </c>
       <c r="K157" t="n">
-        <v>2.7219923701644655</v>
+        <v>2.6526637298627205</v>
       </c>
       <c r="L157" t="n">
-        <v>2.4573992955674324</v>
+        <v>2.7452356284735506</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>4.2670668153335205</v>
+        <v>4.22481862904309</v>
       </c>
       <c r="C159" t="n">
-        <v>4.308010209331423</v>
+        <v>4.245389871188207</v>
       </c>
       <c r="D159" t="n">
-        <v>4.2907318421247265</v>
+        <v>4.242807519320745</v>
       </c>
       <c r="E159" t="n">
-        <v>4.2670668153335205</v>
+        <v>3.938551980960033</v>
       </c>
       <c r="F159" t="n">
-        <v>4.308010209331423</v>
+        <v>4.332407181566607</v>
       </c>
       <c r="G159" t="n">
-        <v>4.2907318421247265</v>
+        <v>4.260950250294996</v>
       </c>
       <c r="H159" t="n">
-        <v>4.2670668153335205</v>
+        <v>4.196856532897875</v>
       </c>
       <c r="I159" t="n">
-        <v>4.308010209331423</v>
+        <v>4.40630167875119</v>
       </c>
       <c r="J159" t="n">
-        <v>4.2907318421247265</v>
+        <v>4.055334627303327</v>
       </c>
       <c r="K159" t="n">
-        <v>4.2670668153335205</v>
+        <v>4.222261234827995</v>
       </c>
       <c r="L159" t="n">
-        <v>4.308010209331423</v>
+        <v>3.7420469719031457</v>
       </c>
     </row>
     <row r="160">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>3.5853139473295004</v>
+        <v>3.549815789435149</v>
       </c>
       <c r="C164" t="n">
-        <v>3.619715780697608</v>
+        <v>3.5671003468533145</v>
       </c>
       <c r="D164" t="n">
-        <v>3.605197992808597</v>
+        <v>3.5649305795241375</v>
       </c>
       <c r="E164" t="n">
-        <v>3.5853139473295004</v>
+        <v>3.30928620542693</v>
       </c>
       <c r="F164" t="n">
-        <v>3.619715780697608</v>
+        <v>3.640214828079077</v>
       </c>
       <c r="G164" t="n">
-        <v>3.605197992808597</v>
+        <v>3.5801746310517317</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5853139473295004</v>
+        <v>3.5263212210009836</v>
       </c>
       <c r="I164" t="n">
-        <v>3.619715780697608</v>
+        <v>3.7023031390553087</v>
       </c>
       <c r="J164" t="n">
-        <v>3.605197992808597</v>
+        <v>3.4074103897579717</v>
       </c>
       <c r="K164" t="n">
-        <v>3.5853139473295004</v>
+        <v>3.547666992253148</v>
       </c>
       <c r="L164" t="n">
-        <v>3.619715780697608</v>
+        <v>3.1441769675870015</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>8.285427147035188</v>
+        <v>8.451135689975892</v>
       </c>
       <c r="C165" t="n">
-        <v>8.364927544568912</v>
+        <v>8.492285470343887</v>
       </c>
       <c r="D165" t="n">
-        <v>8.3313778817897</v>
+        <v>8.487119850716772</v>
       </c>
       <c r="E165" t="n">
-        <v>8.285427147035188</v>
+        <v>7.878500862569716</v>
       </c>
       <c r="F165" t="n">
-        <v>8.364927544568912</v>
+        <v>8.666350953848719</v>
       </c>
       <c r="G165" t="n">
-        <v>8.3313778817897</v>
+        <v>8.523411747414087</v>
       </c>
       <c r="H165" t="n">
-        <v>8.285427147035188</v>
+        <v>8.395201580266457</v>
       </c>
       <c r="I165" t="n">
-        <v>8.364927544568912</v>
+        <v>8.814166156649721</v>
       </c>
       <c r="J165" t="n">
-        <v>8.3313778817897</v>
+        <v>8.112107574985009</v>
       </c>
       <c r="K165" t="n">
-        <v>8.285427147035188</v>
+        <v>8.446019994505335</v>
       </c>
       <c r="L165" t="n">
-        <v>8.364927544568912</v>
+        <v>7.485421149304998</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8264846964131302</v>
+        <v>0.8350939120007669</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8294973989929838</v>
+        <v>0.8391576295539585</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7727487049199645</v>
+        <v>0.7789808821557374</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8264846964131302</v>
+        <v>0.8568789708678605</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8294973989929838</v>
+        <v>0.8355997225654935</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7727487049199645</v>
+        <v>0.8714940885257138</v>
       </c>
       <c r="H167" t="n">
-        <v>0.8264846964131302</v>
+        <v>0.8396683763323372</v>
       </c>
       <c r="I167" t="n">
-        <v>0.8294973989929838</v>
+        <v>0.7546909966784815</v>
       </c>
       <c r="J167" t="n">
-        <v>0.7727487049199645</v>
+        <v>0.8300692792890247</v>
       </c>
       <c r="K167" t="n">
-        <v>0.8264846964131302</v>
+        <v>0.7401154194061906</v>
       </c>
       <c r="L167" t="n">
-        <v>0.8294973989929838</v>
+        <v>0.8020785711817446</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.9157167936228334</v>
+        <v>3.0031882974315187</v>
       </c>
       <c r="C168" t="n">
-        <v>2.9962439065212934</v>
+        <v>3.1013534560630847</v>
       </c>
       <c r="D168" t="n">
-        <v>3.170070168341862</v>
+        <v>3.272789610305675</v>
       </c>
       <c r="E168" t="n">
-        <v>2.9157167936228334</v>
+        <v>3.0707312070690365</v>
       </c>
       <c r="F168" t="n">
-        <v>2.9962439065212934</v>
+        <v>3.2546180169117833</v>
       </c>
       <c r="G168" t="n">
-        <v>3.170070168341862</v>
+        <v>3.4071472846056836</v>
       </c>
       <c r="H168" t="n">
-        <v>2.9157167936228334</v>
+        <v>3.5362874212795776</v>
       </c>
       <c r="I168" t="n">
-        <v>2.9962439065212934</v>
+        <v>3.3885853449576597</v>
       </c>
       <c r="J168" t="n">
-        <v>3.170070168341862</v>
+        <v>3.4196353022035337</v>
       </c>
       <c r="K168" t="n">
-        <v>2.9157167936228334</v>
+        <v>3.0623320498040507</v>
       </c>
       <c r="L168" t="n">
-        <v>2.9962439065212934</v>
+        <v>3.390637787494153</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.6708813889655814</v>
+        <v>1.6881069702951235</v>
       </c>
       <c r="C171" t="n">
-        <v>1.7917359673618172</v>
+        <v>1.8108040240164345</v>
       </c>
       <c r="D171" t="n">
-        <v>1.8661500536393623</v>
+        <v>1.8885896677463374</v>
       </c>
       <c r="E171" t="n">
-        <v>1.6708813889655814</v>
+        <v>1.8196210860790092</v>
       </c>
       <c r="F171" t="n">
-        <v>1.7917359673618172</v>
+        <v>1.8352593283028584</v>
       </c>
       <c r="G171" t="n">
-        <v>1.8661500536393623</v>
+        <v>1.6563088333557348</v>
       </c>
       <c r="H171" t="n">
-        <v>1.6708813889655814</v>
+        <v>1.6739291402454362</v>
       </c>
       <c r="I171" t="n">
-        <v>1.7917359673618172</v>
+        <v>1.8185142614875625</v>
       </c>
       <c r="J171" t="n">
-        <v>1.8661500536393623</v>
+        <v>1.5978821186675112</v>
       </c>
       <c r="K171" t="n">
-        <v>1.6708813889655814</v>
+        <v>1.7478660262559567</v>
       </c>
       <c r="L171" t="n">
-        <v>1.7917359673618172</v>
+        <v>1.6399547149927003</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.6016773987605581</v>
+        <v>1.5856606247729526</v>
       </c>
       <c r="C175" t="n">
-        <v>1.7175264638302359</v>
+        <v>1.7009115480171835</v>
       </c>
       <c r="D175" t="n">
-        <v>1.788858493097705</v>
+        <v>1.7739766052709671</v>
       </c>
       <c r="E175" t="n">
-        <v>1.6016773987605581</v>
+        <v>1.7091935280011652</v>
       </c>
       <c r="F175" t="n">
-        <v>1.7175264638302359</v>
+        <v>1.723882730386654</v>
       </c>
       <c r="G175" t="n">
-        <v>1.788858493097705</v>
+        <v>1.555792225096176</v>
       </c>
       <c r="H175" t="n">
-        <v>1.6016773987605581</v>
+        <v>1.572343206356878</v>
       </c>
       <c r="I175" t="n">
-        <v>1.7175264638302359</v>
+        <v>1.7081538734033996</v>
       </c>
       <c r="J175" t="n">
-        <v>1.788858493097705</v>
+        <v>1.5009112592888</v>
       </c>
       <c r="K175" t="n">
-        <v>1.6016773987605581</v>
+        <v>1.6417930759020007</v>
       </c>
       <c r="L175" t="n">
-        <v>1.7175264638302359</v>
+        <v>1.5404305910306484</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.9981331846866819</v>
+        <v>1.9781518528398152</v>
       </c>
       <c r="C176" t="n">
-        <v>2.1426578321030587</v>
+        <v>2.1219303031558905</v>
       </c>
       <c r="D176" t="n">
-        <v>2.2316463480930255</v>
+        <v>2.213080815520486</v>
       </c>
       <c r="E176" t="n">
-        <v>1.9981331846866819</v>
+        <v>2.132262283274802</v>
       </c>
       <c r="F176" t="n">
-        <v>2.1426578321030587</v>
+        <v>2.1505874358715342</v>
       </c>
       <c r="G176" t="n">
-        <v>2.2316463480930255</v>
+        <v>1.9408902665716716</v>
       </c>
       <c r="H176" t="n">
-        <v>1.9981331846866819</v>
+        <v>1.9615380355429564</v>
       </c>
       <c r="I176" t="n">
-        <v>2.1426578321030587</v>
+        <v>2.130965287791183</v>
       </c>
       <c r="J176" t="n">
-        <v>2.2316463480930255</v>
+        <v>1.8724248695621166</v>
       </c>
       <c r="K176" t="n">
-        <v>1.9981331846866819</v>
+        <v>2.0481785095345706</v>
       </c>
       <c r="L176" t="n">
-        <v>2.1426578321030587</v>
+        <v>1.9217262383965243</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>3.599498183776123</v>
+        <v>3.6354931656138842</v>
       </c>
       <c r="C177" t="n">
-        <v>3.2845942596208477</v>
+        <v>3.332196142800137</v>
       </c>
       <c r="D177" t="n">
-        <v>3.1183096159676986</v>
+        <v>3.1808136344962037</v>
       </c>
       <c r="E177" t="n">
-        <v>3.599498183776123</v>
+        <v>3.5808076476264605</v>
       </c>
       <c r="F177" t="n">
-        <v>3.2845942596208477</v>
+        <v>3.2971203936294105</v>
       </c>
       <c r="G177" t="n">
-        <v>3.1183096159676986</v>
+        <v>3.5916127388319743</v>
       </c>
       <c r="H177" t="n">
-        <v>3.599498183776123</v>
+        <v>3.322893530425356</v>
       </c>
       <c r="I177" t="n">
-        <v>3.2845942596208477</v>
+        <v>3.4793781234775185</v>
       </c>
       <c r="J177" t="n">
-        <v>3.1183096159676986</v>
+        <v>3.653347031112734</v>
       </c>
       <c r="K177" t="n">
-        <v>3.599498183776123</v>
+        <v>3.3604191478658816</v>
       </c>
       <c r="L177" t="n">
-        <v>3.2845942596208477</v>
+        <v>3.620013572896767</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.614090219945974</v>
+        <v>2.588461884456308</v>
       </c>
       <c r="C178" t="n">
-        <v>2.8596972108909866</v>
+        <v>2.8681238207129356</v>
       </c>
       <c r="D178" t="n">
-        <v>2.8235052728474352</v>
+        <v>2.8196582375812476</v>
       </c>
       <c r="E178" t="n">
-        <v>2.614090219945974</v>
+        <v>2.497153234186018</v>
       </c>
       <c r="F178" t="n">
-        <v>2.8596972108909866</v>
+        <v>2.811175512231701</v>
       </c>
       <c r="G178" t="n">
-        <v>2.8235052728474352</v>
+        <v>2.7163800594128613</v>
       </c>
       <c r="H178" t="n">
-        <v>2.614090219945974</v>
+        <v>2.5558937092352827</v>
       </c>
       <c r="I178" t="n">
-        <v>2.8596972108909866</v>
+        <v>2.8436845415633356</v>
       </c>
       <c r="J178" t="n">
-        <v>2.8235052728474352</v>
+        <v>2.8299053304511053</v>
       </c>
       <c r="K178" t="n">
-        <v>2.614090219945974</v>
+        <v>2.9019712449944666</v>
       </c>
       <c r="L178" t="n">
-        <v>2.8596972108909866</v>
+        <v>2.9514679097828957</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.391844422168307</v>
+        <v>3.3582618041270367</v>
       </c>
       <c r="C179" t="n">
-        <v>3.7105253521247334</v>
+        <v>3.7210942662307285</v>
       </c>
       <c r="D179" t="n">
-        <v>3.6635654491176304</v>
+        <v>3.6582151805376903</v>
       </c>
       <c r="E179" t="n">
-        <v>3.391844422168307</v>
+        <v>3.2397982662126994</v>
       </c>
       <c r="F179" t="n">
-        <v>3.7105253521247334</v>
+        <v>3.64720972099921</v>
       </c>
       <c r="G179" t="n">
-        <v>3.6635654491176304</v>
+        <v>3.524222417103366</v>
       </c>
       <c r="H179" t="n">
-        <v>3.391844422168307</v>
+        <v>3.3160079623642256</v>
       </c>
       <c r="I179" t="n">
-        <v>3.7105253521247334</v>
+        <v>3.689386827082657</v>
       </c>
       <c r="J179" t="n">
-        <v>3.6635654491176304</v>
+        <v>3.671509724604509</v>
       </c>
       <c r="K179" t="n">
-        <v>3.391844422168307</v>
+        <v>3.7650078014522923</v>
       </c>
       <c r="L179" t="n">
-        <v>3.7105253521247334</v>
+        <v>3.829224609043251</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.0332468027190067</v>
+        <v>1.044123084852891</v>
       </c>
       <c r="C184" t="n">
-        <v>1.1303255631164253</v>
+        <v>1.156931963883975</v>
       </c>
       <c r="D184" t="n">
-        <v>1.1160203168849174</v>
+        <v>1.1373821167440463</v>
       </c>
       <c r="E184" t="n">
-        <v>1.0332468027190067</v>
+        <v>1.0072913778973167</v>
       </c>
       <c r="F184" t="n">
-        <v>1.1303255631164253</v>
+        <v>1.133960389959845</v>
       </c>
       <c r="G184" t="n">
-        <v>1.1160203168849174</v>
+        <v>1.095722190965455</v>
       </c>
       <c r="H184" t="n">
-        <v>1.0332468027190067</v>
+        <v>1.03098586858403</v>
       </c>
       <c r="I184" t="n">
-        <v>1.1303255631164253</v>
+        <v>1.1470737482036535</v>
       </c>
       <c r="J184" t="n">
-        <v>1.1160203168849174</v>
+        <v>1.141515546825555</v>
       </c>
       <c r="K184" t="n">
-        <v>1.0332468027190067</v>
+        <v>1.1705851983655713</v>
       </c>
       <c r="L184" t="n">
-        <v>1.1303255631164253</v>
+        <v>1.1905509589738945</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.368930201052515</v>
+        <v>2.322020692120782</v>
       </c>
       <c r="C187" t="n">
-        <v>2.591503168886539</v>
+        <v>2.572895857285848</v>
       </c>
       <c r="D187" t="n">
-        <v>2.558705458076175</v>
+        <v>2.5294190390397424</v>
       </c>
       <c r="E187" t="n">
-        <v>2.368930201052515</v>
+        <v>2.2401108225683606</v>
       </c>
       <c r="F187" t="n">
-        <v>2.591503168886539</v>
+        <v>2.5218094760380594</v>
       </c>
       <c r="G187" t="n">
-        <v>2.558705458076175</v>
+        <v>2.4367717150858486</v>
       </c>
       <c r="H187" t="n">
-        <v>2.368930201052515</v>
+        <v>2.292804895194447</v>
       </c>
       <c r="I187" t="n">
-        <v>2.591503168886539</v>
+        <v>2.550972215208419</v>
       </c>
       <c r="J187" t="n">
-        <v>2.558705458076175</v>
+        <v>2.5386113558440866</v>
       </c>
       <c r="K187" t="n">
-        <v>2.368930201052515</v>
+        <v>2.6032592248241784</v>
       </c>
       <c r="L187" t="n">
-        <v>2.591503168886539</v>
+        <v>2.6476609911858415</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>1.027327022220241</v>
+        <v>1.0377040628487284</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9159965184702383</v>
+        <v>0.9217873609796491</v>
       </c>
       <c r="D195" t="n">
-        <v>1.0482610673866386</v>
+        <v>1.053551712256021</v>
       </c>
       <c r="E195" t="n">
-        <v>1.027327022220241</v>
+        <v>1.0083101831266668</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9159965184702383</v>
+        <v>0.9460582299524485</v>
       </c>
       <c r="G195" t="n">
-        <v>1.0482610673866386</v>
+        <v>0.9656574202986271</v>
       </c>
       <c r="H195" t="n">
-        <v>1.027327022220241</v>
+        <v>1.0408353360548848</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9159965184702383</v>
+        <v>0.9554926052614239</v>
       </c>
       <c r="J195" t="n">
-        <v>1.0482610673866386</v>
+        <v>1.04906578677928</v>
       </c>
       <c r="K195" t="n">
-        <v>1.027327022220241</v>
+        <v>0.9629615595860822</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9159965184702383</v>
+        <v>1.0587256927064905</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.368758826369822</v>
+        <v>2.392929834802167</v>
       </c>
       <c r="C200" t="n">
-        <v>2.43417989533561</v>
+        <v>2.471147486698474</v>
       </c>
       <c r="D200" t="n">
-        <v>2.5753981689494654</v>
+        <v>2.607747209267217</v>
       </c>
       <c r="E200" t="n">
-        <v>2.368758826369822</v>
+        <v>2.446747786789791</v>
       </c>
       <c r="F200" t="n">
-        <v>2.43417989533561</v>
+        <v>2.5932681477926747</v>
       </c>
       <c r="G200" t="n">
-        <v>2.5753981689494654</v>
+        <v>2.7148029298965537</v>
       </c>
       <c r="H200" t="n">
-        <v>2.368758826369822</v>
+        <v>2.817701334962158</v>
       </c>
       <c r="I200" t="n">
-        <v>2.43417989533561</v>
+        <v>2.700012841904555</v>
       </c>
       <c r="J200" t="n">
-        <v>2.5753981689494654</v>
+        <v>2.7247533382385773</v>
       </c>
       <c r="K200" t="n">
-        <v>2.368758826369822</v>
+        <v>2.44005536792822</v>
       </c>
       <c r="L200" t="n">
-        <v>2.43417989533561</v>
+        <v>2.7016482208729644</v>
       </c>
     </row>
     <row r="201">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>1.6235949934303877</v>
+        <v>1.6075197954756313</v>
       </c>
       <c r="C208" t="n">
-        <v>1.6891658577993172</v>
+        <v>1.6593737071567103</v>
       </c>
       <c r="D208" t="n">
-        <v>1.6931994076918049</v>
+        <v>1.654381608744761</v>
       </c>
       <c r="E208" t="n">
-        <v>1.6235949934303877</v>
+        <v>1.6796470583656147</v>
       </c>
       <c r="F208" t="n">
-        <v>1.6891658577993172</v>
+        <v>1.6724952769737733</v>
       </c>
       <c r="G208" t="n">
-        <v>1.6931994076918049</v>
+        <v>1.6878957859245713</v>
       </c>
       <c r="H208" t="n">
-        <v>1.6235949934303877</v>
+        <v>1.4695789597196607</v>
       </c>
       <c r="I208" t="n">
-        <v>1.6891658577993172</v>
+        <v>1.552559138324036</v>
       </c>
       <c r="J208" t="n">
-        <v>1.6931994076918049</v>
+        <v>1.5395197279119108</v>
       </c>
       <c r="K208" t="n">
-        <v>1.6235949934303877</v>
+        <v>1.5082733049519839</v>
       </c>
       <c r="L208" t="n">
-        <v>1.6891658577993172</v>
+        <v>1.5233142569535758</v>
       </c>
     </row>
     <row r="209">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.6169366578965674</v>
+        <v>1.6009273840560072</v>
       </c>
       <c r="C213" t="n">
-        <v>1.6822386172627235</v>
+        <v>1.6525686437246627</v>
       </c>
       <c r="D213" t="n">
-        <v>1.6862556256355063</v>
+        <v>1.6475970178236405</v>
       </c>
       <c r="E213" t="n">
-        <v>1.6169366578965674</v>
+        <v>1.6727588542640712</v>
       </c>
       <c r="F213" t="n">
-        <v>1.6822386172627235</v>
+        <v>1.6656364022064323</v>
       </c>
       <c r="G213" t="n">
-        <v>1.6862556256355063</v>
+        <v>1.6809737539311973</v>
       </c>
       <c r="H213" t="n">
-        <v>1.6169366578965674</v>
+        <v>1.4635522413281596</v>
       </c>
       <c r="I213" t="n">
-        <v>1.6822386172627235</v>
+        <v>1.5461921196273232</v>
       </c>
       <c r="J213" t="n">
-        <v>1.6862556256355063</v>
+        <v>1.5332061836161652</v>
       </c>
       <c r="K213" t="n">
-        <v>1.6169366578965674</v>
+        <v>1.5020879017068949</v>
       </c>
       <c r="L213" t="n">
-        <v>1.6822386172627235</v>
+        <v>1.517067171019405</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.375566111898239</v>
+        <v>1.361946645443801</v>
       </c>
       <c r="C214" t="n">
-        <v>1.4311200273258813</v>
+        <v>1.4058790817758144</v>
       </c>
       <c r="D214" t="n">
-        <v>1.4345373909942885</v>
+        <v>1.4016496024841656</v>
       </c>
       <c r="E214" t="n">
-        <v>1.375566111898239</v>
+        <v>1.423055369587998</v>
       </c>
       <c r="F214" t="n">
-        <v>1.4311200273258813</v>
+        <v>1.416996131808793</v>
       </c>
       <c r="G214" t="n">
-        <v>1.4345373909942885</v>
+        <v>1.4300439782880088</v>
       </c>
       <c r="H214" t="n">
-        <v>1.375566111898239</v>
+        <v>1.2450783747971106</v>
       </c>
       <c r="I214" t="n">
-        <v>1.4311200273258813</v>
+        <v>1.315382066363856</v>
       </c>
       <c r="J214" t="n">
-        <v>1.4345373909942885</v>
+        <v>1.3043346246344654</v>
       </c>
       <c r="K214" t="n">
-        <v>1.375566111898239</v>
+        <v>1.277861569029076</v>
       </c>
       <c r="L214" t="n">
-        <v>1.4311200273258813</v>
+        <v>1.2906047863633225</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.6500496477457074</v>
+        <v>0.6567511905059724</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6418470964240219</v>
+        <v>0.6535707971603776</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6017823160195332</v>
+        <v>0.6028469888540058</v>
       </c>
       <c r="E221" t="n">
-        <v>0.6500496477457074</v>
+        <v>0.6277319516035799</v>
       </c>
       <c r="F221" t="n">
-        <v>0.6418470964240219</v>
+        <v>0.6571509170209129</v>
       </c>
       <c r="G221" t="n">
-        <v>0.6017823160195332</v>
+        <v>0.5906449433060436</v>
       </c>
       <c r="H221" t="n">
-        <v>0.6500496477457074</v>
+        <v>0.6706204703592156</v>
       </c>
       <c r="I221" t="n">
-        <v>0.6418470964240219</v>
+        <v>0.6539666604390459</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6017823160195332</v>
+        <v>0.6820587217474342</v>
       </c>
       <c r="K221" t="n">
-        <v>0.6500496477457074</v>
+        <v>0.6496383613472803</v>
       </c>
       <c r="L221" t="n">
-        <v>0.6418470964240219</v>
+        <v>0.6595595338286687</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>0.6329545741839067</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6249677344139848</v>
+        <v>0.6298894186959547</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5859565817910468</v>
+        <v>0.5810035286485978</v>
       </c>
       <c r="E222" t="n">
-        <v>0.6329545741839067</v>
+        <v>0.6049868136862757</v>
       </c>
       <c r="F222" t="n">
-        <v>0.6249677344139848</v>
+        <v>0.6333398170730123</v>
       </c>
       <c r="G222" t="n">
-        <v>0.5859565817910468</v>
+        <v>0.5692436100437562</v>
       </c>
       <c r="H222" t="n">
-        <v>0.6329545741839067</v>
+        <v>0.646321316796103</v>
       </c>
       <c r="I222" t="n">
-        <v>0.6249677344139848</v>
+        <v>0.630270938328666</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5859565817910468</v>
+        <v>0.6573451164351424</v>
       </c>
       <c r="K222" t="n">
-        <v>0.6329545741839067</v>
+        <v>0.6260994701255272</v>
       </c>
       <c r="L222" t="n">
-        <v>0.6249677344139848</v>
+        <v>0.6356611604492622</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>1.2955624851672054</v>
       </c>
       <c r="C224" t="n">
-        <v>1.2792146295658875</v>
+        <v>1.2892885744896263</v>
       </c>
       <c r="D224" t="n">
-        <v>1.1993646878752444</v>
+        <v>1.1892265356284262</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2955624851672054</v>
+        <v>1.2383167004415168</v>
       </c>
       <c r="F224" t="n">
-        <v>1.2792146295658875</v>
+        <v>1.296351019218715</v>
       </c>
       <c r="G224" t="n">
-        <v>1.1993646878752444</v>
+        <v>1.1651557571010782</v>
       </c>
       <c r="H224" t="n">
-        <v>1.2955624851672054</v>
+        <v>1.3229221899289185</v>
       </c>
       <c r="I224" t="n">
-        <v>1.2792146295658875</v>
+        <v>1.2900694875972263</v>
       </c>
       <c r="J224" t="n">
-        <v>1.1993646878752444</v>
+        <v>1.3454862440314639</v>
       </c>
       <c r="K224" t="n">
-        <v>1.2955624851672054</v>
+        <v>1.281531121761064</v>
       </c>
       <c r="L224" t="n">
-        <v>1.2792146295658875</v>
+        <v>1.3011024587629167</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.058717985776213</v>
+        <v>3.120510268317146</v>
       </c>
       <c r="C230" t="n">
-        <v>2.7911244915089695</v>
+        <v>2.8601765444108045</v>
       </c>
       <c r="D230" t="n">
-        <v>2.649822064244872</v>
+        <v>2.730238005102269</v>
       </c>
       <c r="E230" t="n">
-        <v>3.058717985776213</v>
+        <v>3.0735711839524575</v>
       </c>
       <c r="F230" t="n">
-        <v>2.7911244915089695</v>
+        <v>2.8300694226339194</v>
       </c>
       <c r="G230" t="n">
-        <v>2.649822064244872</v>
+        <v>3.0828456885439737</v>
       </c>
       <c r="H230" t="n">
-        <v>3.058717985776213</v>
+        <v>2.852191686204428</v>
       </c>
       <c r="I230" t="n">
-        <v>2.7911244915089695</v>
+        <v>2.9865095784979334</v>
       </c>
       <c r="J230" t="n">
-        <v>2.649822064244872</v>
+        <v>3.1358350586771646</v>
       </c>
       <c r="K230" t="n">
-        <v>3.058717985776213</v>
+        <v>2.884401642106883</v>
       </c>
       <c r="L230" t="n">
-        <v>2.7911244915089695</v>
+        <v>3.1072234250134607</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.046285525832533</v>
+        <v>3.1078266475665237</v>
       </c>
       <c r="C238" t="n">
-        <v>2.779779691628799</v>
+        <v>2.8485510756733805</v>
       </c>
       <c r="D238" t="n">
-        <v>2.6390516019712007</v>
+        <v>2.7191406843316095</v>
       </c>
       <c r="E238" t="n">
-        <v>3.046285525832533</v>
+        <v>3.0610783517246323</v>
       </c>
       <c r="F238" t="n">
-        <v>2.779779691628799</v>
+        <v>2.81856632725267</v>
       </c>
       <c r="G238" t="n">
-        <v>2.6390516019712007</v>
+        <v>3.070315159180496</v>
       </c>
       <c r="H238" t="n">
-        <v>3.046285525832533</v>
+        <v>2.840598672708144</v>
       </c>
       <c r="I238" t="n">
-        <v>2.779779691628799</v>
+        <v>2.9743706167241606</v>
       </c>
       <c r="J238" t="n">
-        <v>2.6390516019712007</v>
+        <v>3.123089148809605</v>
       </c>
       <c r="K238" t="n">
-        <v>3.046285525832533</v>
+        <v>2.8726777080784</v>
       </c>
       <c r="L238" t="n">
-        <v>2.779779691628799</v>
+        <v>3.0945938099436234</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>3.7170932580062095</v>
+        <v>3.6806511672414426</v>
       </c>
       <c r="C242" t="n">
-        <v>3.6053181938976953</v>
+        <v>3.5656341823803146</v>
       </c>
       <c r="D242" t="n">
-        <v>3.374291731343631</v>
+        <v>3.345495879829772</v>
       </c>
       <c r="E242" t="n">
-        <v>3.7170932580062095</v>
+        <v>3.4148034641572567</v>
       </c>
       <c r="F242" t="n">
-        <v>3.6053181938976953</v>
+        <v>3.6917911551196636</v>
       </c>
       <c r="G242" t="n">
-        <v>3.374291731343631</v>
+        <v>3.694027247303056</v>
       </c>
       <c r="H242" t="n">
-        <v>3.7170932580062095</v>
+        <v>3.545836620584851</v>
       </c>
       <c r="I242" t="n">
-        <v>3.6053181938976953</v>
+        <v>3.27190932644345</v>
       </c>
       <c r="J242" t="n">
-        <v>3.374291731343631</v>
+        <v>3.788098751766618</v>
       </c>
       <c r="K242" t="n">
-        <v>3.7170932580062095</v>
+        <v>3.7120139907983964</v>
       </c>
       <c r="L242" t="n">
-        <v>3.6053181938976953</v>
+        <v>3.3363451778864155</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8032124381125119</v>
+        <v>0.81149297871161</v>
       </c>
       <c r="C243" t="n">
-        <v>0.7790593928346169</v>
+        <v>0.7861345648314547</v>
       </c>
       <c r="D243" t="n">
-        <v>0.7291377698414687</v>
+        <v>0.7375994880887314</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8032124381125119</v>
+        <v>0.7528801043432104</v>
       </c>
       <c r="F243" t="n">
-        <v>0.7790593928346169</v>
+        <v>0.8139490718145279</v>
       </c>
       <c r="G243" t="n">
-        <v>0.7291377698414687</v>
+        <v>0.8144420750968614</v>
       </c>
       <c r="H243" t="n">
-        <v>0.8032124381125119</v>
+        <v>0.7817696897964025</v>
       </c>
       <c r="I243" t="n">
-        <v>0.7790593928346169</v>
+        <v>0.72137546448876</v>
       </c>
       <c r="J243" t="n">
-        <v>0.7291377698414687</v>
+        <v>0.835182526147601</v>
       </c>
       <c r="K243" t="n">
-        <v>0.8032124381125119</v>
+        <v>0.8184077092722117</v>
       </c>
       <c r="L243" t="n">
-        <v>0.7790593928346169</v>
+        <v>0.7355819835657799</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1.1394946704739337</v>
+        <v>1.071801917772512</v>
       </c>
       <c r="C245" t="n">
-        <v>1.1052294312122606</v>
+        <v>1.038309087469074</v>
       </c>
       <c r="D245" t="n">
-        <v>1.03440704270969</v>
+        <v>0.974205035189191</v>
       </c>
       <c r="E245" t="n">
-        <v>1.1394946704739337</v>
+        <v>0.9943873340333523</v>
       </c>
       <c r="F245" t="n">
-        <v>1.1052294312122606</v>
+        <v>1.075045871037659</v>
       </c>
       <c r="G245" t="n">
-        <v>1.03440704270969</v>
+        <v>1.0756970188323227</v>
       </c>
       <c r="H245" t="n">
-        <v>1.1394946704739337</v>
+        <v>1.0325440573873177</v>
       </c>
       <c r="I245" t="n">
-        <v>1.1052294312122606</v>
+        <v>0.9527767048590335</v>
       </c>
       <c r="J245" t="n">
-        <v>1.03440704270969</v>
+        <v>1.1030905463116893</v>
       </c>
       <c r="K245" t="n">
-        <v>1.1394946704739337</v>
+        <v>1.0809347404464675</v>
       </c>
       <c r="L245" t="n">
-        <v>1.1052294312122606</v>
+        <v>0.971540359987383</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.280261071600391</v>
+        <v>1.2422335150182013</v>
       </c>
       <c r="C250" t="n">
-        <v>1.2417629082719503</v>
+        <v>1.2034148530753153</v>
       </c>
       <c r="D250" t="n">
-        <v>1.1621915426947085</v>
+        <v>1.1291173538172004</v>
       </c>
       <c r="E250" t="n">
-        <v>1.280261071600391</v>
+        <v>1.1525089223697504</v>
       </c>
       <c r="F250" t="n">
-        <v>1.2417629082719503</v>
+        <v>1.2459933025314511</v>
       </c>
       <c r="G250" t="n">
-        <v>1.1621915426947085</v>
+        <v>1.2467479919944469</v>
       </c>
       <c r="H250" t="n">
-        <v>1.280261071600391</v>
+        <v>1.1967331020316812</v>
       </c>
       <c r="I250" t="n">
-        <v>1.2417629082719503</v>
+        <v>1.1042816172266894</v>
       </c>
       <c r="J250" t="n">
-        <v>1.1621915426947085</v>
+        <v>1.2784974760783743</v>
       </c>
       <c r="K250" t="n">
-        <v>1.280261071600391</v>
+        <v>1.2528185850989528</v>
       </c>
       <c r="L250" t="n">
-        <v>1.2417629082719503</v>
+        <v>1.1260289577363245</v>
       </c>
     </row>
     <row r="251">
@@ -9682,34 +9682,34 @@
         <v>1.6039453407464714</v>
       </c>
       <c r="C253" t="n">
-        <v>1.5691823779206713</v>
+        <v>1.5686654259938673</v>
       </c>
       <c r="D253" t="n">
-        <v>1.6207369258899076</v>
+        <v>1.6371737711357262</v>
       </c>
       <c r="E253" t="n">
-        <v>1.6039453407464714</v>
+        <v>1.7949615448411764</v>
       </c>
       <c r="F253" t="n">
-        <v>1.5691823779206713</v>
+        <v>1.7094871848792301</v>
       </c>
       <c r="G253" t="n">
-        <v>1.6207369258899076</v>
+        <v>1.7785841585308466</v>
       </c>
       <c r="H253" t="n">
-        <v>1.6039453407464714</v>
+        <v>1.6199403628715316</v>
       </c>
       <c r="I253" t="n">
-        <v>1.5691823779206713</v>
+        <v>1.7646302678783643</v>
       </c>
       <c r="J253" t="n">
-        <v>1.6207369258899076</v>
+        <v>1.6326032139625115</v>
       </c>
       <c r="K253" t="n">
-        <v>1.6039453407464714</v>
+        <v>1.5627965552147962</v>
       </c>
       <c r="L253" t="n">
-        <v>1.5691823779206713</v>
+        <v>1.651040290889104</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.343454972184322</v>
+        <v>1.3571636963902844</v>
       </c>
       <c r="C254" t="n">
-        <v>1.3143377235663334</v>
+        <v>1.3273119188404991</v>
       </c>
       <c r="D254" t="n">
-        <v>1.3575195029253178</v>
+        <v>1.385279629188431</v>
       </c>
       <c r="E254" t="n">
-        <v>1.343454972184322</v>
+        <v>1.5187903123564876</v>
       </c>
       <c r="F254" t="n">
-        <v>1.3143377235663334</v>
+        <v>1.446466963570449</v>
       </c>
       <c r="G254" t="n">
-        <v>1.3575195029253178</v>
+        <v>1.5049327365541885</v>
       </c>
       <c r="H254" t="n">
-        <v>1.343454972184322</v>
+        <v>1.370697738230506</v>
       </c>
       <c r="I254" t="n">
-        <v>1.3143377235663334</v>
+        <v>1.4931257794616635</v>
       </c>
       <c r="J254" t="n">
-        <v>1.3575195029253178</v>
+        <v>1.3814122939930333</v>
       </c>
       <c r="K254" t="n">
-        <v>1.343454972184322</v>
+        <v>1.3223460274489296</v>
       </c>
       <c r="L254" t="n">
-        <v>1.3143377235663334</v>
+        <v>1.3970126581929014</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>1.7233503826420966</v>
       </c>
       <c r="C260" t="n">
-        <v>1.685999505548159</v>
+        <v>1.6854440693507815</v>
       </c>
       <c r="D260" t="n">
-        <v>1.7413920103378635</v>
+        <v>1.7590524896722948</v>
       </c>
       <c r="E260" t="n">
-        <v>1.7233503826420966</v>
+        <v>1.9285867083788872</v>
       </c>
       <c r="F260" t="n">
-        <v>1.685999505548159</v>
+        <v>1.836749245340431</v>
       </c>
       <c r="G260" t="n">
-        <v>1.7413920103378635</v>
+        <v>1.9109901143755974</v>
       </c>
       <c r="H260" t="n">
-        <v>1.7233503826420966</v>
+        <v>1.7405361475178265</v>
       </c>
       <c r="I260" t="n">
-        <v>1.685999505548159</v>
+        <v>1.8959974321535773</v>
       </c>
       <c r="J260" t="n">
-        <v>1.7413920103378635</v>
+        <v>1.7541416792766729</v>
       </c>
       <c r="K260" t="n">
-        <v>1.7233503826420966</v>
+        <v>1.6791382929344343</v>
       </c>
       <c r="L260" t="n">
-        <v>1.685999505548159</v>
+        <v>1.7739512967050683</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>0.22330415136743156</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2107546877956895</v>
+        <v>0.20902307181881086</v>
       </c>
       <c r="D265" t="n">
-        <v>0.21476405199354756</v>
+        <v>0.21762692710566814</v>
       </c>
       <c r="E265" t="n">
-        <v>0.22330415136743156</v>
+        <v>0.1966737874162602</v>
       </c>
       <c r="F265" t="n">
-        <v>0.2107546877956895</v>
+        <v>0.20073684177631418</v>
       </c>
       <c r="G265" t="n">
-        <v>0.21476405199354756</v>
+        <v>0.19215375919254127</v>
       </c>
       <c r="H265" t="n">
-        <v>0.22330415136743156</v>
+        <v>0.1972132109808979</v>
       </c>
       <c r="I265" t="n">
-        <v>0.2107546877956895</v>
+        <v>0.2206996216470914</v>
       </c>
       <c r="J265" t="n">
-        <v>0.21476405199354756</v>
+        <v>0.2101901157702967</v>
       </c>
       <c r="K265" t="n">
-        <v>0.22330415136743156</v>
+        <v>0.21697023737754811</v>
       </c>
       <c r="L265" t="n">
-        <v>0.2107546877956895</v>
+        <v>0.2012988149515858</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6364742873479453</v>
+        <v>0.6429033205534801</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6007050872031581</v>
+        <v>0.6017874102281526</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6121328067727381</v>
+        <v>0.6265583206640296</v>
       </c>
       <c r="E266" t="n">
-        <v>0.6364742873479453</v>
+        <v>0.566233230423428</v>
       </c>
       <c r="F266" t="n">
-        <v>0.6007050872031581</v>
+        <v>0.5779309580459202</v>
       </c>
       <c r="G266" t="n">
-        <v>0.6121328067727381</v>
+        <v>0.5532198532146774</v>
       </c>
       <c r="H266" t="n">
-        <v>0.6364742873479453</v>
+        <v>0.5677862566379731</v>
       </c>
       <c r="I266" t="n">
-        <v>0.6007050872031581</v>
+        <v>0.6354047550524218</v>
       </c>
       <c r="J266" t="n">
-        <v>0.6121328067727381</v>
+        <v>0.6051473855221522</v>
       </c>
       <c r="K266" t="n">
-        <v>0.6364742873479453</v>
+        <v>0.6246676795622121</v>
       </c>
       <c r="L266" t="n">
-        <v>0.6007050872031581</v>
+        <v>0.5795489056668296</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>3.0227961508580314</v>
+        <v>3.1134800353837724</v>
       </c>
       <c r="C268" t="n">
-        <v>3.106280612531939</v>
+        <v>3.21525029795141</v>
       </c>
       <c r="D268" t="n">
-        <v>3.286490623428225</v>
+        <v>3.392982424849274</v>
       </c>
       <c r="E268" t="n">
-        <v>3.0227961508580314</v>
+        <v>3.1835034504550137</v>
       </c>
       <c r="F268" t="n">
-        <v>3.106280612531939</v>
+        <v>3.3741434818195004</v>
       </c>
       <c r="G268" t="n">
-        <v>3.286490623428225</v>
+        <v>3.532274368977932</v>
       </c>
       <c r="H268" t="n">
-        <v>3.0227961508580314</v>
+        <v>3.6661571620231688</v>
       </c>
       <c r="I268" t="n">
-        <v>3.106280612531939</v>
+        <v>3.513030744273631</v>
       </c>
       <c r="J268" t="n">
-        <v>3.286490623428225</v>
+        <v>3.5452210075572315</v>
       </c>
       <c r="K268" t="n">
-        <v>3.0227961508580314</v>
+        <v>3.174795835124684</v>
       </c>
       <c r="L268" t="n">
-        <v>3.106280612531939</v>
+        <v>3.515158562521528</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6661013287734884</v>
+        <v>0.6731129217079461</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6286671193808588</v>
+        <v>0.6300650019928374</v>
       </c>
       <c r="D269" t="n">
-        <v>0.6406267842745748</v>
+        <v>0.6559998811011061</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6661013287734884</v>
+        <v>0.5928401548312383</v>
       </c>
       <c r="F269" t="n">
-        <v>0.6286671193808588</v>
+        <v>0.6050875509257876</v>
       </c>
       <c r="G269" t="n">
-        <v>0.6406267842745748</v>
+        <v>0.5792152876478978</v>
       </c>
       <c r="H269" t="n">
-        <v>0.6661013287734884</v>
+        <v>0.594466156718834</v>
       </c>
       <c r="I269" t="n">
-        <v>0.6286671193808588</v>
+        <v>0.6652620035812666</v>
       </c>
       <c r="J269" t="n">
-        <v>0.6406267842745748</v>
+        <v>0.6335828603001541</v>
       </c>
       <c r="K269" t="n">
-        <v>0.6661013287734884</v>
+        <v>0.6540204000263313</v>
       </c>
       <c r="L269" t="n">
-        <v>0.6286671193808588</v>
+        <v>0.6067815248336267</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.438994515477154</v>
+        <v>3.4052788829724756</v>
       </c>
       <c r="C272" t="n">
-        <v>3.245726561741764</v>
+        <v>3.1874994179908813</v>
       </c>
       <c r="D272" t="n">
-        <v>3.307472755901392</v>
+        <v>3.318703994981828</v>
       </c>
       <c r="E272" t="n">
-        <v>3.438994515477154</v>
+        <v>2.999178882352329</v>
       </c>
       <c r="F272" t="n">
-        <v>3.245726561741764</v>
+        <v>3.0611384703310365</v>
       </c>
       <c r="G272" t="n">
-        <v>3.307472755901392</v>
+        <v>2.930250666882912</v>
       </c>
       <c r="H272" t="n">
-        <v>3.438994515477154</v>
+        <v>3.0074048273801757</v>
       </c>
       <c r="I272" t="n">
-        <v>3.245726561741764</v>
+        <v>3.3655610810308763</v>
       </c>
       <c r="J272" t="n">
-        <v>3.307472755901392</v>
+        <v>3.205296266366335</v>
       </c>
       <c r="K272" t="n">
-        <v>3.438994515477154</v>
+        <v>3.308689798424629</v>
       </c>
       <c r="L272" t="n">
-        <v>3.245726561741764</v>
+        <v>3.069708285871101</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.9596090082312577</v>
+        <v>0.9697101556863236</v>
       </c>
       <c r="C274" t="n">
-        <v>1.029017371314897</v>
+        <v>1.0401918142304767</v>
       </c>
       <c r="D274" t="n">
-        <v>1.071754353127495</v>
+        <v>1.0848747223747979</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9596090082312577</v>
+        <v>1.0452566559590197</v>
       </c>
       <c r="F274" t="n">
-        <v>1.029017371314897</v>
+        <v>1.0542398321252187</v>
       </c>
       <c r="G274" t="n">
-        <v>1.071754353127495</v>
+        <v>0.951444147154507</v>
       </c>
       <c r="H274" t="n">
-        <v>0.9596090082312577</v>
+        <v>0.9615658934880739</v>
       </c>
       <c r="I274" t="n">
-        <v>1.029017371314897</v>
+        <v>1.0446208555827547</v>
       </c>
       <c r="J274" t="n">
-        <v>1.071754353127495</v>
+        <v>0.9178817132604911</v>
       </c>
       <c r="K274" t="n">
-        <v>0.9596090082312577</v>
+        <v>1.0040379349557358</v>
       </c>
       <c r="L274" t="n">
-        <v>1.029017371314897</v>
+        <v>0.9420497456485656</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.164816508186269</v>
       </c>
       <c r="C275" t="n">
-        <v>5.078127120030237</v>
+        <v>5.078201576493434</v>
       </c>
       <c r="D275" t="n">
-        <v>4.5170743271696026</v>
+        <v>4.4725954766009455</v>
       </c>
       <c r="E275" t="n">
-        <v>5.164816508186269</v>
+        <v>4.564994157638694</v>
       </c>
       <c r="F275" t="n">
-        <v>5.078127120030237</v>
+        <v>4.994443821086968</v>
       </c>
       <c r="G275" t="n">
-        <v>4.5170743271696026</v>
+        <v>4.919316806683928</v>
       </c>
       <c r="H275" t="n">
-        <v>5.164816508186269</v>
+        <v>4.949094755058861</v>
       </c>
       <c r="I275" t="n">
-        <v>5.078127120030237</v>
+        <v>4.753432868729899</v>
       </c>
       <c r="J275" t="n">
-        <v>4.5170743271696026</v>
+        <v>4.386214876774247</v>
       </c>
       <c r="K275" t="n">
-        <v>5.164816508186269</v>
+        <v>4.952092387273596</v>
       </c>
       <c r="L275" t="n">
-        <v>5.078127120030237</v>
+        <v>4.976204828674819</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.23652924118053645</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2587523590949822</v>
+        <v>0.2620842729030738</v>
       </c>
       <c r="D280" t="n">
-        <v>0.25547762451352957</v>
+        <v>0.2576555704097712</v>
       </c>
       <c r="E280" t="n">
-        <v>0.23652924118053645</v>
+        <v>0.2281856121352948</v>
       </c>
       <c r="F280" t="n">
-        <v>0.2587523590949822</v>
+        <v>0.2568804334057768</v>
       </c>
       <c r="G280" t="n">
-        <v>0.25547762451352957</v>
+        <v>0.24821818627853542</v>
       </c>
       <c r="H280" t="n">
-        <v>0.23652924118053645</v>
+        <v>0.2335532167631316</v>
       </c>
       <c r="I280" t="n">
-        <v>0.2587523590949822</v>
+        <v>0.2598510531724814</v>
       </c>
       <c r="J280" t="n">
-        <v>0.25547762451352957</v>
+        <v>0.2585919323146416</v>
       </c>
       <c r="K280" t="n">
-        <v>0.23652924118053645</v>
+        <v>0.2651771929222178</v>
       </c>
       <c r="L280" t="n">
-        <v>0.2587523590949822</v>
+        <v>0.2697001139023093</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>7.702439827610219</v>
+        <v>7.62617804713883</v>
       </c>
       <c r="C282" t="n">
-        <v>7.573157442668595</v>
+        <v>7.498285625484863</v>
       </c>
       <c r="D282" t="n">
-        <v>6.736443230213588</v>
+        <v>6.604069938075026</v>
       </c>
       <c r="E282" t="n">
-        <v>7.702439827610219</v>
+        <v>6.740502431232873</v>
       </c>
       <c r="F282" t="n">
-        <v>7.573157442668595</v>
+        <v>7.37461200522246</v>
       </c>
       <c r="G282" t="n">
-        <v>6.736443230213588</v>
+        <v>7.263682219608694</v>
       </c>
       <c r="H282" t="n">
-        <v>7.702439827610219</v>
+        <v>7.307651242675789</v>
       </c>
       <c r="I282" t="n">
-        <v>7.573157442668595</v>
+        <v>7.01874409954328</v>
       </c>
       <c r="J282" t="n">
-        <v>6.736443230213588</v>
+        <v>6.476523522233742</v>
       </c>
       <c r="K282" t="n">
-        <v>7.702439827610219</v>
+        <v>7.312077436123932</v>
       </c>
       <c r="L282" t="n">
-        <v>7.573157442668595</v>
+        <v>7.347680980022436</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.9792351993742419</v>
+        <v>1.9594428473804992</v>
       </c>
       <c r="C284" t="n">
-        <v>2.2782353517571607</v>
+        <v>2.2627046908095005</v>
       </c>
       <c r="D284" t="n">
-        <v>2.251658606513115</v>
+        <v>2.2247587130724624</v>
       </c>
       <c r="E284" t="n">
-        <v>1.9792351993742419</v>
+        <v>2.1681970501339083</v>
       </c>
       <c r="F284" t="n">
-        <v>2.2782353517571607</v>
+        <v>1.9144102220913002</v>
       </c>
       <c r="G284" t="n">
-        <v>2.251658606513115</v>
+        <v>1.9648170747207228</v>
       </c>
       <c r="H284" t="n">
-        <v>1.9792351993742419</v>
+        <v>2.1988100231206635</v>
       </c>
       <c r="I284" t="n">
-        <v>2.2782353517571607</v>
+        <v>2.0055215711498793</v>
       </c>
       <c r="J284" t="n">
-        <v>2.251658606513115</v>
+        <v>2.0225079198029507</v>
       </c>
       <c r="K284" t="n">
-        <v>1.9792351993742419</v>
+        <v>1.9844108175893094</v>
       </c>
       <c r="L284" t="n">
-        <v>2.2782353517571607</v>
+        <v>2.1616545107969825</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>4.282922665026902</v>
       </c>
       <c r="C299" t="n">
-        <v>4.929937496761996</v>
+        <v>4.945788144566806</v>
       </c>
       <c r="D299" t="n">
-        <v>4.872427330913917</v>
+        <v>4.8628463591945845</v>
       </c>
       <c r="E299" t="n">
-        <v>4.282922665026902</v>
+        <v>4.739214670475008</v>
       </c>
       <c r="F299" t="n">
-        <v>4.929937496761996</v>
+        <v>4.184490984932422</v>
       </c>
       <c r="G299" t="n">
-        <v>4.872427330913917</v>
+        <v>4.294669575692462</v>
       </c>
       <c r="H299" t="n">
-        <v>4.282922665026902</v>
+        <v>4.806128077020197</v>
       </c>
       <c r="I299" t="n">
-        <v>4.929937496761996</v>
+        <v>4.383640892492032</v>
       </c>
       <c r="J299" t="n">
-        <v>4.872427330913917</v>
+        <v>4.4207694148878485</v>
       </c>
       <c r="K299" t="n">
-        <v>4.282922665026902</v>
+        <v>4.3374973037564715</v>
       </c>
       <c r="L299" t="n">
-        <v>4.929937496761996</v>
+        <v>4.724914079850276</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>2.168397738578852</v>
+        <v>2.039582031336544</v>
       </c>
       <c r="C302" t="n">
-        <v>2.495974397718118</v>
+        <v>2.3552469702117307</v>
       </c>
       <c r="D302" t="n">
-        <v>2.466857618517649</v>
+        <v>2.3157490412686004</v>
       </c>
       <c r="E302" t="n">
-        <v>2.168397738578852</v>
+        <v>2.2568740648709924</v>
       </c>
       <c r="F302" t="n">
-        <v>2.495974397718118</v>
+        <v>1.99270761829278</v>
       </c>
       <c r="G302" t="n">
-        <v>2.466857618517649</v>
+        <v>2.045176059011345</v>
       </c>
       <c r="H302" t="n">
-        <v>2.168397738578852</v>
+        <v>2.288739076761004</v>
       </c>
       <c r="I302" t="n">
-        <v>2.495974397718118</v>
+        <v>2.0875453272053606</v>
       </c>
       <c r="J302" t="n">
-        <v>2.466857618517649</v>
+        <v>2.105226399933324</v>
       </c>
       <c r="K302" t="n">
-        <v>2.168397738578852</v>
+        <v>2.0655711656789486</v>
       </c>
       <c r="L302" t="n">
-        <v>2.495974397718118</v>
+        <v>2.250063942448312</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.328454367324698</v>
       </c>
       <c r="C305" t="n">
-        <v>2.680210546108741</v>
+        <v>2.688827911630517</v>
       </c>
       <c r="D305" t="n">
-        <v>2.648944560867402</v>
+        <v>2.6437357683703393</v>
       </c>
       <c r="E305" t="n">
-        <v>2.328454367324698</v>
+        <v>2.5765221462590895</v>
       </c>
       <c r="F305" t="n">
-        <v>2.680210546108741</v>
+        <v>2.274940985616775</v>
       </c>
       <c r="G305" t="n">
-        <v>2.648944560867402</v>
+        <v>2.3348406945085034</v>
       </c>
       <c r="H305" t="n">
-        <v>2.328454367324698</v>
+        <v>2.612900298723754</v>
       </c>
       <c r="I305" t="n">
-        <v>2.680210546108741</v>
+        <v>2.3832108537131607</v>
       </c>
       <c r="J305" t="n">
-        <v>2.648944560867402</v>
+        <v>2.40339615167121</v>
       </c>
       <c r="K305" t="n">
-        <v>2.328454367324698</v>
+        <v>2.358124423460123</v>
       </c>
       <c r="L305" t="n">
-        <v>2.680210546108741</v>
+        <v>2.5687474850522958</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.532407423636895</v>
       </c>
       <c r="C310" t="n">
-        <v>2.91497449085683</v>
+        <v>2.924346665259634</v>
       </c>
       <c r="D310" t="n">
-        <v>2.8809698677714044</v>
+        <v>2.875304828776931</v>
       </c>
       <c r="E310" t="n">
-        <v>2.532407423636895</v>
+        <v>2.802203857595082</v>
       </c>
       <c r="F310" t="n">
-        <v>2.91497449085683</v>
+        <v>2.4742067189107106</v>
       </c>
       <c r="G310" t="n">
-        <v>2.8809698677714044</v>
+        <v>2.5393531394718267</v>
       </c>
       <c r="H310" t="n">
-        <v>2.532407423636895</v>
+        <v>2.841768430838387</v>
       </c>
       <c r="I310" t="n">
-        <v>2.91497449085683</v>
+        <v>2.5919601185783625</v>
       </c>
       <c r="J310" t="n">
-        <v>2.8809698677714044</v>
+        <v>2.6139134791915746</v>
       </c>
       <c r="K310" t="n">
-        <v>2.532407423636895</v>
+        <v>2.5646763276237934</v>
       </c>
       <c r="L310" t="n">
-        <v>2.91497449085683</v>
+        <v>2.793748201331151</v>
       </c>
     </row>
     <row r="311">
@@ -11924,34 +11924,34 @@
         <v>0.8081693670253371</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7861255085310634</v>
+        <v>0.7761313856187878</v>
       </c>
       <c r="D312" t="n">
-        <v>0.859593949876933</v>
+        <v>0.846044620306822</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8081693670253371</v>
+        <v>0.8419450701411185</v>
       </c>
       <c r="F312" t="n">
-        <v>0.7861255085310634</v>
+        <v>0.745735681662613</v>
       </c>
       <c r="G312" t="n">
-        <v>0.859593949876933</v>
+        <v>0.8414354185700418</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8081693670253371</v>
+        <v>0.849145578153492</v>
       </c>
       <c r="I312" t="n">
-        <v>0.7861255085310634</v>
+        <v>0.8363726299803896</v>
       </c>
       <c r="J312" t="n">
-        <v>0.859593949876933</v>
+        <v>0.760421942437316</v>
       </c>
       <c r="K312" t="n">
-        <v>0.8081693670253371</v>
+        <v>0.8781120094661611</v>
       </c>
       <c r="L312" t="n">
-        <v>0.7861255085310634</v>
+        <v>0.8633859080455166</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>2.49969431104578</v>
+        <v>2.474697367935322</v>
       </c>
       <c r="C314" t="n">
-        <v>2.4681523035299184</v>
+        <v>2.462713360665721</v>
       </c>
       <c r="D314" t="n">
-        <v>2.314087604013957</v>
+        <v>2.271581503240801</v>
       </c>
       <c r="E314" t="n">
-        <v>2.49969431104578</v>
+        <v>2.3653502739834855</v>
       </c>
       <c r="F314" t="n">
-        <v>2.4681523035299184</v>
+        <v>2.4762035732817567</v>
       </c>
       <c r="G314" t="n">
-        <v>2.314087604013957</v>
+        <v>2.2256031016216045</v>
       </c>
       <c r="H314" t="n">
-        <v>2.49969431104578</v>
+        <v>2.5269580578954525</v>
       </c>
       <c r="I314" t="n">
-        <v>2.4681523035299184</v>
+        <v>2.464205008991517</v>
       </c>
       <c r="J314" t="n">
-        <v>2.314087604013957</v>
+        <v>2.5700584146415126</v>
       </c>
       <c r="K314" t="n">
-        <v>2.49969431104578</v>
+        <v>2.447895589952966</v>
       </c>
       <c r="L314" t="n">
-        <v>2.4681523035299184</v>
+        <v>2.485279457361884</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>4.6647061086971835</v>
+        <v>4.711824352219377</v>
       </c>
       <c r="C315" t="n">
-        <v>4.537470252485535</v>
+        <v>4.525035113296642</v>
       </c>
       <c r="D315" t="n">
-        <v>4.961525779860893</v>
+        <v>4.932646308655375</v>
       </c>
       <c r="E315" t="n">
-        <v>4.6647061086971835</v>
+        <v>4.908744932171625</v>
       </c>
       <c r="F315" t="n">
-        <v>4.537470252485535</v>
+        <v>4.34782075211551</v>
       </c>
       <c r="G315" t="n">
-        <v>4.961525779860893</v>
+        <v>4.905773539315465</v>
       </c>
       <c r="H315" t="n">
-        <v>4.6647061086971835</v>
+        <v>4.950725648572607</v>
       </c>
       <c r="I315" t="n">
-        <v>4.537470252485535</v>
+        <v>4.876256248088918</v>
       </c>
       <c r="J315" t="n">
-        <v>4.961525779860893</v>
+        <v>4.433445231320894</v>
       </c>
       <c r="K315" t="n">
-        <v>4.6647061086971835</v>
+        <v>5.119607001943237</v>
       </c>
       <c r="L315" t="n">
-        <v>4.537470252485535</v>
+        <v>5.033750242063263</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>2.3034240367670344</v>
       </c>
       <c r="C316" t="n">
-        <v>2.240595184807827</v>
+        <v>2.212110186635633</v>
       </c>
       <c r="D316" t="n">
-        <v>2.4499930915396466</v>
+        <v>2.411375132622511</v>
       </c>
       <c r="E316" t="n">
-        <v>2.3034240367670344</v>
+        <v>2.399690697679906</v>
       </c>
       <c r="F316" t="n">
-        <v>2.240595184807827</v>
+        <v>2.125477114455711</v>
       </c>
       <c r="G316" t="n">
-        <v>2.4499930915396466</v>
+        <v>2.3982381015693712</v>
       </c>
       <c r="H316" t="n">
-        <v>2.3034240367670344</v>
+        <v>2.420213404812054</v>
       </c>
       <c r="I316" t="n">
-        <v>2.240595184807827</v>
+        <v>2.3838082686577398</v>
       </c>
       <c r="J316" t="n">
-        <v>2.4499930915396466</v>
+        <v>2.1673355261438383</v>
       </c>
       <c r="K316" t="n">
-        <v>2.3034240367670344</v>
+        <v>2.502772799992485</v>
       </c>
       <c r="L316" t="n">
-        <v>2.240595184807827</v>
+        <v>2.4608008354956934</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.1031679103486596</v>
+        <v>3.134513040756222</v>
       </c>
       <c r="C319" t="n">
-        <v>3.0185250160609427</v>
+        <v>3.0102526139004415</v>
       </c>
       <c r="D319" t="n">
-        <v>3.300625425838894</v>
+        <v>3.2814135299070775</v>
       </c>
       <c r="E319" t="n">
-        <v>3.1031679103486596</v>
+        <v>3.2655132817908568</v>
       </c>
       <c r="F319" t="n">
-        <v>3.0185250160609427</v>
+        <v>2.8923618173409515</v>
       </c>
       <c r="G319" t="n">
-        <v>3.300625425838894</v>
+        <v>3.2635365804198777</v>
       </c>
       <c r="H319" t="n">
-        <v>3.1031679103486596</v>
+        <v>3.293440702930226</v>
       </c>
       <c r="I319" t="n">
-        <v>3.0185250160609427</v>
+        <v>3.2439003785241445</v>
       </c>
       <c r="J319" t="n">
-        <v>3.300625425838894</v>
+        <v>2.9493229913182497</v>
       </c>
       <c r="K319" t="n">
-        <v>3.1031679103486596</v>
+        <v>3.4057880157564053</v>
       </c>
       <c r="L319" t="n">
-        <v>3.0185250160609427</v>
+        <v>3.3486723184460643</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.2719206030549157</v>
+        <v>1.2847682859140563</v>
       </c>
       <c r="C323" t="n">
-        <v>1.3232886681748681</v>
+        <v>1.3262111729104973</v>
       </c>
       <c r="D323" t="n">
-        <v>1.3264485419318481</v>
+        <v>1.3222213684067605</v>
       </c>
       <c r="E323" t="n">
-        <v>1.2719206030549157</v>
+        <v>1.3424141203054258</v>
       </c>
       <c r="F323" t="n">
-        <v>1.3232886681748681</v>
+        <v>1.3366982454864103</v>
       </c>
       <c r="G323" t="n">
-        <v>1.3264485419318481</v>
+        <v>1.3490067007493618</v>
       </c>
       <c r="H323" t="n">
-        <v>1.2719206030549157</v>
+        <v>1.1745226692749688</v>
       </c>
       <c r="I323" t="n">
-        <v>1.3232886681748681</v>
+        <v>1.240842413598143</v>
       </c>
       <c r="J323" t="n">
-        <v>1.3264485419318481</v>
+        <v>1.2304210047845994</v>
       </c>
       <c r="K323" t="n">
-        <v>1.2719206030549157</v>
+        <v>1.2054481158782495</v>
       </c>
       <c r="L323" t="n">
-        <v>1.3232886681748681</v>
+        <v>1.2174692046237747</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.1340325072991135</v>
+        <v>1.1454873811102158</v>
       </c>
       <c r="C327" t="n">
-        <v>1.1023831109344808</v>
+        <v>1.1227430462005008</v>
       </c>
       <c r="D327" t="n">
-        <v>1.008852315940832</v>
+        <v>1.0337944281612086</v>
       </c>
       <c r="E327" t="n">
-        <v>1.1340325072991135</v>
+        <v>1.1261309246369742</v>
       </c>
       <c r="F327" t="n">
-        <v>1.1023831109344808</v>
+        <v>1.053641413295766</v>
       </c>
       <c r="G327" t="n">
-        <v>1.008852315940832</v>
+        <v>1.0418754570697573</v>
       </c>
       <c r="H327" t="n">
-        <v>1.1340325072991135</v>
+        <v>1.1350358539407521</v>
       </c>
       <c r="I327" t="n">
-        <v>1.1023831109344808</v>
+        <v>0.997327067193221</v>
       </c>
       <c r="J327" t="n">
-        <v>1.008852315940832</v>
+        <v>1.0235869136562354</v>
       </c>
       <c r="K327" t="n">
-        <v>1.1340325072991135</v>
+        <v>1.0447922413215467</v>
       </c>
       <c r="L327" t="n">
-        <v>1.1023831109344808</v>
+        <v>1.0909403625257341</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.664536190000562</v>
       </c>
       <c r="C329" t="n">
-        <v>3.3083225179446916</v>
+        <v>3.2936722967655028</v>
       </c>
       <c r="D329" t="n">
-        <v>3.6837636356743255</v>
+        <v>3.646779502487444</v>
       </c>
       <c r="E329" t="n">
-        <v>3.664536190000562</v>
+        <v>3.662307155174372</v>
       </c>
       <c r="F329" t="n">
-        <v>3.3083225179446916</v>
+        <v>3.8034320653157594</v>
       </c>
       <c r="G329" t="n">
-        <v>3.6837636356743255</v>
+        <v>3.7396478034715077</v>
       </c>
       <c r="H329" t="n">
-        <v>3.664536190000562</v>
+        <v>3.230060599683655</v>
       </c>
       <c r="I329" t="n">
-        <v>3.3083225179446916</v>
+        <v>3.6779676000941186</v>
       </c>
       <c r="J329" t="n">
-        <v>3.6837636356743255</v>
+        <v>3.644572010610923</v>
       </c>
       <c r="K329" t="n">
-        <v>3.664536190000562</v>
+        <v>3.5004842794699993</v>
       </c>
       <c r="L329" t="n">
-        <v>3.3083225179446916</v>
+        <v>3.6226431766418887</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>4.870986519356004</v>
+        <v>4.822758930055449</v>
       </c>
       <c r="C331" t="n">
-        <v>4.950292129235034</v>
+        <v>4.877222609062935</v>
       </c>
       <c r="D331" t="n">
-        <v>5.145479507228925</v>
+        <v>5.021837931101386</v>
       </c>
       <c r="E331" t="n">
-        <v>4.870986519356004</v>
+        <v>5.456450561995349</v>
       </c>
       <c r="F331" t="n">
-        <v>4.950292129235034</v>
+        <v>4.725142909374571</v>
       </c>
       <c r="G331" t="n">
-        <v>5.145479507228925</v>
+        <v>4.633884783994353</v>
       </c>
       <c r="H331" t="n">
-        <v>4.870986519356004</v>
+        <v>5.231714862815295</v>
       </c>
       <c r="I331" t="n">
-        <v>4.950292129235034</v>
+        <v>5.364944873078139</v>
       </c>
       <c r="J331" t="n">
-        <v>5.145479507228925</v>
+        <v>5.257188825777241</v>
       </c>
       <c r="K331" t="n">
-        <v>4.870986519356004</v>
+        <v>5.276457692394236</v>
       </c>
       <c r="L331" t="n">
-        <v>4.950292129235034</v>
+        <v>5.228547967736483</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>3.02414647719453</v>
       </c>
       <c r="C333" t="n">
-        <v>3.0733832754867048</v>
+        <v>3.058298327907841</v>
       </c>
       <c r="D333" t="n">
-        <v>3.194565138587222</v>
+        <v>3.1489804297988235</v>
       </c>
       <c r="E333" t="n">
-        <v>3.02414647719453</v>
+        <v>3.421507478262993</v>
       </c>
       <c r="F333" t="n">
-        <v>3.0733832754867048</v>
+        <v>2.9629356330820227</v>
       </c>
       <c r="G333" t="n">
-        <v>3.194565138587222</v>
+        <v>2.905711554004782</v>
       </c>
       <c r="H333" t="n">
-        <v>3.02414647719453</v>
+        <v>3.280585304289143</v>
       </c>
       <c r="I333" t="n">
-        <v>3.0733832754867048</v>
+        <v>3.364128162648091</v>
       </c>
       <c r="J333" t="n">
-        <v>3.194565138587222</v>
+        <v>3.296558940224263</v>
       </c>
       <c r="K333" t="n">
-        <v>3.02414647719453</v>
+        <v>3.308641624833723</v>
       </c>
       <c r="L333" t="n">
-        <v>3.0733832754867048</v>
+        <v>3.278599479425174</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>4.2997874383807195</v>
+        <v>4.386651831075279</v>
       </c>
       <c r="C338" t="n">
-        <v>4.369793229568181</v>
+        <v>4.436190528885028</v>
       </c>
       <c r="D338" t="n">
-        <v>4.542091845606963</v>
+        <v>4.5677287368738355</v>
       </c>
       <c r="E338" t="n">
-        <v>4.2997874383807195</v>
+        <v>4.963040698506039</v>
       </c>
       <c r="F338" t="n">
-        <v>4.369793229568181</v>
+        <v>4.297862923714916</v>
       </c>
       <c r="G338" t="n">
-        <v>4.542091845606963</v>
+        <v>4.214856986946058</v>
       </c>
       <c r="H338" t="n">
-        <v>4.2997874383807195</v>
+        <v>4.758627150034349</v>
       </c>
       <c r="I338" t="n">
-        <v>4.369793229568181</v>
+        <v>4.879809584601313</v>
       </c>
       <c r="J338" t="n">
-        <v>4.542091845606963</v>
+        <v>4.7817975817089176</v>
       </c>
       <c r="K338" t="n">
-        <v>4.2997874383807195</v>
+        <v>4.799324024613086</v>
       </c>
       <c r="L338" t="n">
-        <v>4.369793229568181</v>
+        <v>4.7557466274335365</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>0.9151117876923218</v>
+        <v>0.9244496630769374</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8923416517746496</v>
+        <v>0.9056868342193676</v>
       </c>
       <c r="D341" t="n">
-        <v>0.9874939378638582</v>
+        <v>1.0135464082187033</v>
       </c>
       <c r="E341" t="n">
-        <v>0.9151117876923218</v>
+        <v>0.8857656102897886</v>
       </c>
       <c r="F341" t="n">
-        <v>0.8923416517746496</v>
+        <v>0.9964194915386777</v>
       </c>
       <c r="G341" t="n">
-        <v>0.9874939378638582</v>
+        <v>0.9322795585590569</v>
       </c>
       <c r="H341" t="n">
-        <v>0.9151117876923218</v>
+        <v>0.9652822931555093</v>
       </c>
       <c r="I341" t="n">
-        <v>0.8923416517746496</v>
+        <v>0.9218688435491967</v>
       </c>
       <c r="J341" t="n">
-        <v>0.9874939378638582</v>
+        <v>0.9147186139089252</v>
       </c>
       <c r="K341" t="n">
-        <v>0.9151117876923218</v>
+        <v>1.0042987220392683</v>
       </c>
       <c r="L341" t="n">
-        <v>0.8923416517746496</v>
+        <v>0.882451682525975</v>
       </c>
     </row>
     <row r="342">
@@ -13178,34 +13178,34 @@
         <v>3.273348810326433</v>
       </c>
       <c r="C345" t="n">
-        <v>3.19190018479289</v>
+        <v>3.2069122200259255</v>
       </c>
       <c r="D345" t="n">
-        <v>3.5322592826200423</v>
+        <v>3.5888281018035344</v>
       </c>
       <c r="E345" t="n">
-        <v>3.273348810326433</v>
+        <v>3.1363739124742827</v>
       </c>
       <c r="F345" t="n">
-        <v>3.19190018479289</v>
+        <v>3.528184050993321</v>
       </c>
       <c r="G345" t="n">
-        <v>3.5322592826200423</v>
+        <v>3.3010733907823004</v>
       </c>
       <c r="H345" t="n">
-        <v>3.273348810326433</v>
+        <v>3.4179315241600023</v>
       </c>
       <c r="I345" t="n">
-        <v>3.19190018479289</v>
+        <v>3.2642104841760626</v>
       </c>
       <c r="J345" t="n">
-        <v>3.5322592826200423</v>
+        <v>3.238892506765976</v>
       </c>
       <c r="K345" t="n">
-        <v>3.273348810326433</v>
+        <v>3.5560833199481627</v>
       </c>
       <c r="L345" t="n">
-        <v>3.19190018479289</v>
+        <v>3.1246397511278636</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1.8794977405040196</v>
+        <v>1.8419077856939394</v>
       </c>
       <c r="C348" t="n">
-        <v>1.8327314114239892</v>
+        <v>1.8045240297851823</v>
       </c>
       <c r="D348" t="n">
-        <v>2.028159455422247</v>
+        <v>2.019427444266144</v>
       </c>
       <c r="E348" t="n">
-        <v>1.8794977405040196</v>
+        <v>1.764832244583688</v>
       </c>
       <c r="F348" t="n">
-        <v>1.8327314114239892</v>
+        <v>1.9853031404366932</v>
       </c>
       <c r="G348" t="n">
-        <v>2.028159455422247</v>
+        <v>1.857508359771368</v>
       </c>
       <c r="H348" t="n">
-        <v>1.8794977405040196</v>
+        <v>1.923264231865117</v>
       </c>
       <c r="I348" t="n">
-        <v>1.8327314114239892</v>
+        <v>1.8367656651745867</v>
       </c>
       <c r="J348" t="n">
-        <v>2.028159455422247</v>
+        <v>1.8225192825212788</v>
       </c>
       <c r="K348" t="n">
-        <v>1.8794977405040196</v>
+        <v>2.00100201143418</v>
       </c>
       <c r="L348" t="n">
-        <v>1.8327314114239892</v>
+        <v>1.75822945203241</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>2.7050673601489192</v>
+        <v>2.6780166865474304</v>
       </c>
       <c r="C351" t="n">
-        <v>2.6377589151201697</v>
+        <v>2.6236630848595213</v>
       </c>
       <c r="D351" t="n">
-        <v>2.919028752101016</v>
+        <v>2.9361189713300853</v>
       </c>
       <c r="E351" t="n">
-        <v>2.7050673601489192</v>
+        <v>2.565953755481551</v>
       </c>
       <c r="F351" t="n">
-        <v>2.6377589151201697</v>
+        <v>2.886504405507696</v>
       </c>
       <c r="G351" t="n">
-        <v>2.919028752101016</v>
+        <v>2.7006989283097846</v>
       </c>
       <c r="H351" t="n">
-        <v>2.7050673601489192</v>
+        <v>2.796303781100607</v>
       </c>
       <c r="I351" t="n">
-        <v>2.6377589151201697</v>
+        <v>2.670540370598271</v>
       </c>
       <c r="J351" t="n">
-        <v>2.919028752101016</v>
+        <v>2.649827036974935</v>
       </c>
       <c r="K351" t="n">
-        <v>2.7050673601489192</v>
+        <v>2.9093295647354074</v>
       </c>
       <c r="L351" t="n">
-        <v>2.6377589151201697</v>
+        <v>2.5563537153669094</v>
       </c>
     </row>
     <row r="352">
@@ -13482,34 +13482,34 @@
         <v>1.8705011137144043</v>
       </c>
       <c r="C353" t="n">
-        <v>1.8239586418915474</v>
+        <v>1.8325370214806485</v>
       </c>
       <c r="D353" t="n">
-        <v>2.0184512268370023</v>
+        <v>2.0507765442460197</v>
       </c>
       <c r="E353" t="n">
-        <v>1.8705011137144043</v>
+        <v>1.792229070669345</v>
       </c>
       <c r="F353" t="n">
-        <v>1.8239586418915474</v>
+        <v>2.016122503032079</v>
       </c>
       <c r="G353" t="n">
-        <v>2.0184512268370023</v>
+        <v>1.8863438673055783</v>
       </c>
       <c r="H353" t="n">
-        <v>1.8705011137144043</v>
+        <v>1.9531205175482942</v>
       </c>
       <c r="I353" t="n">
-        <v>1.8239586418915474</v>
+        <v>1.8652791681680483</v>
       </c>
       <c r="J353" t="n">
-        <v>2.0184512268370023</v>
+        <v>1.8508116281389613</v>
       </c>
       <c r="K353" t="n">
-        <v>1.8705011137144043</v>
+        <v>2.032065079480766</v>
       </c>
       <c r="L353" t="n">
-        <v>1.8239586418915474</v>
+        <v>1.7855237779740663</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.89126889262331</v>
+        <v>2.8340160432644326</v>
       </c>
       <c r="C356" t="n">
-        <v>2.8105772770034836</v>
+        <v>2.777744965040037</v>
       </c>
       <c r="D356" t="n">
-        <v>2.5721161426648207</v>
+        <v>2.5576798515289347</v>
       </c>
       <c r="E356" t="n">
-        <v>2.89126889262331</v>
+        <v>2.786126813674886</v>
       </c>
       <c r="F356" t="n">
-        <v>2.8105772770034836</v>
+        <v>2.6067826833971064</v>
       </c>
       <c r="G356" t="n">
-        <v>2.5721161426648207</v>
+        <v>2.5776728832729554</v>
       </c>
       <c r="H356" t="n">
-        <v>2.89126889262331</v>
+        <v>2.8081582327260346</v>
       </c>
       <c r="I356" t="n">
-        <v>2.8105772770034836</v>
+        <v>2.4674570452867353</v>
       </c>
       <c r="J356" t="n">
-        <v>2.5721161426648207</v>
+        <v>2.5324257454200483</v>
       </c>
       <c r="K356" t="n">
-        <v>2.89126889262331</v>
+        <v>2.584889211886109</v>
       </c>
       <c r="L356" t="n">
-        <v>2.8105772770034836</v>
+        <v>2.6990628972674537</v>
       </c>
     </row>
     <row r="357">
@@ -13634,34 +13634,34 @@
         <v>0.24687384725135714</v>
       </c>
       <c r="C357" t="n">
-        <v>0.23998391403213318</v>
+        <v>0.24197201982407238</v>
       </c>
       <c r="D357" t="n">
-        <v>0.21962267478375092</v>
+        <v>0.22280193737255846</v>
       </c>
       <c r="E357" t="n">
-        <v>0.24687384725135714</v>
+        <v>0.242702170672894</v>
       </c>
       <c r="F357" t="n">
-        <v>0.23998391403213318</v>
+        <v>0.22707933200588903</v>
       </c>
       <c r="G357" t="n">
-        <v>0.21962267478375092</v>
+        <v>0.22454354948396324</v>
       </c>
       <c r="H357" t="n">
-        <v>0.24687384725135714</v>
+        <v>0.24462134865161106</v>
       </c>
       <c r="I357" t="n">
-        <v>0.23998391403213318</v>
+        <v>0.21494254245495978</v>
       </c>
       <c r="J357" t="n">
-        <v>0.21962267478375092</v>
+        <v>0.22060202804289447</v>
       </c>
       <c r="K357" t="n">
-        <v>0.24687384725135714</v>
+        <v>0.22517217076929205</v>
       </c>
       <c r="L357" t="n">
-        <v>0.23998391403213318</v>
+        <v>0.2351179496691501</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1.7589253233227922</v>
+        <v>1.7770585740786973</v>
       </c>
       <c r="C362" t="n">
-        <v>1.709835967968934</v>
+        <v>1.7417740165798161</v>
       </c>
       <c r="D362" t="n">
-        <v>1.5647663312821887</v>
+        <v>1.603783055748824</v>
       </c>
       <c r="E362" t="n">
-        <v>1.7589253233227922</v>
+        <v>1.7470298216831743</v>
       </c>
       <c r="F362" t="n">
-        <v>1.709835967968934</v>
+        <v>1.634572792663075</v>
       </c>
       <c r="G362" t="n">
-        <v>1.5647663312821887</v>
+        <v>1.6163196073914936</v>
       </c>
       <c r="H362" t="n">
-        <v>1.7589253233227922</v>
+        <v>1.760844536041272</v>
       </c>
       <c r="I362" t="n">
-        <v>1.709835967968934</v>
+        <v>1.5472092012037169</v>
       </c>
       <c r="J362" t="n">
-        <v>1.5647663312821887</v>
+        <v>1.5879475681911048</v>
       </c>
       <c r="K362" t="n">
-        <v>1.7589253233227922</v>
+        <v>1.6208445777655507</v>
       </c>
       <c r="L362" t="n">
-        <v>1.709835967968934</v>
+        <v>1.6924367365408322</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>6.27403487658968</v>
+        <v>6.211915719395723</v>
       </c>
       <c r="C364" t="n">
-        <v>6.194866934190605</v>
+        <v>6.181833801459431</v>
       </c>
       <c r="D364" t="n">
-        <v>5.808176732215444</v>
+        <v>5.702059989518239</v>
       </c>
       <c r="E364" t="n">
-        <v>6.27403487658968</v>
+        <v>5.937435720107418</v>
       </c>
       <c r="F364" t="n">
-        <v>6.194866934190605</v>
+        <v>6.215696553686567</v>
       </c>
       <c r="G364" t="n">
-        <v>5.808176732215444</v>
+        <v>5.586646299152831</v>
       </c>
       <c r="H364" t="n">
-        <v>6.27403487658968</v>
+        <v>6.343099033232861</v>
       </c>
       <c r="I364" t="n">
-        <v>6.194866934190605</v>
+        <v>6.185578095126561</v>
       </c>
       <c r="J364" t="n">
-        <v>5.808176732215444</v>
+        <v>6.451288336317542</v>
       </c>
       <c r="K364" t="n">
-        <v>6.27403487658968</v>
+        <v>6.144638650242309</v>
       </c>
       <c r="L364" t="n">
-        <v>6.194866934190605</v>
+        <v>6.23847858259857</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>10.928589933149556</v>
+        <v>10.823507337638501</v>
       </c>
       <c r="C366" t="n">
-        <v>10.74515790352928</v>
+        <v>10.641995110197207</v>
       </c>
       <c r="D366" t="n">
-        <v>9.55798776993331</v>
+        <v>9.37287314710024</v>
       </c>
       <c r="E366" t="n">
-        <v>10.928589933149556</v>
+        <v>9.566505931656101</v>
       </c>
       <c r="F366" t="n">
-        <v>10.74515790352928</v>
+        <v>10.46647044658348</v>
       </c>
       <c r="G366" t="n">
-        <v>9.55798776993331</v>
+        <v>10.309032560773337</v>
       </c>
       <c r="H366" t="n">
-        <v>10.928589933149556</v>
+        <v>10.371435908931991</v>
       </c>
       <c r="I366" t="n">
-        <v>10.74515790352928</v>
+        <v>9.961402394862116</v>
       </c>
       <c r="J366" t="n">
-        <v>9.55798776993331</v>
+        <v>9.191851990865164</v>
       </c>
       <c r="K366" t="n">
-        <v>10.928589933149556</v>
+        <v>10.3777178154083</v>
       </c>
       <c r="L366" t="n">
-        <v>10.74515790352928</v>
+        <v>10.428248397863815</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>3.24529883432044</v>
       </c>
       <c r="C381" t="n">
-        <v>2.929837407620287</v>
+        <v>2.916863229375004</v>
       </c>
       <c r="D381" t="n">
-        <v>3.2623265845722433</v>
+        <v>3.229573581710039</v>
       </c>
       <c r="E381" t="n">
-        <v>3.24529883432044</v>
+        <v>3.2433248098469383</v>
       </c>
       <c r="F381" t="n">
-        <v>2.929837407620287</v>
+        <v>3.368304475111303</v>
       </c>
       <c r="G381" t="n">
-        <v>3.2623265845722433</v>
+        <v>3.3118173837364164</v>
       </c>
       <c r="H381" t="n">
-        <v>3.24529883432044</v>
+        <v>2.860528960674867</v>
       </c>
       <c r="I381" t="n">
-        <v>2.929837407620287</v>
+        <v>3.257193638262843</v>
       </c>
       <c r="J381" t="n">
-        <v>3.2623265845722433</v>
+        <v>3.2276186355880183</v>
       </c>
       <c r="K381" t="n">
-        <v>3.24529883432044</v>
+        <v>3.1000151077016027</v>
       </c>
       <c r="L381" t="n">
-        <v>2.929837407620287</v>
+        <v>3.2081985464886387</v>
       </c>
     </row>
     <row r="382">
@@ -14584,34 +14584,34 @@
         <v>3.4737768141216674</v>
       </c>
       <c r="C382" t="n">
-        <v>3.1361060337818962</v>
+        <v>3.1222184376400195</v>
       </c>
       <c r="D382" t="n">
-        <v>3.492003364908247</v>
+        <v>3.4569444603992543</v>
       </c>
       <c r="E382" t="n">
-        <v>3.4737768141216674</v>
+        <v>3.471663812886145</v>
       </c>
       <c r="F382" t="n">
-        <v>3.1361060337818962</v>
+        <v>3.6054423909451816</v>
       </c>
       <c r="G382" t="n">
-        <v>3.492003364908247</v>
+        <v>3.5449784526969985</v>
       </c>
       <c r="H382" t="n">
-        <v>3.4737768141216674</v>
+        <v>3.061918081203965</v>
       </c>
       <c r="I382" t="n">
-        <v>3.1361060337818962</v>
+        <v>3.486509045035711</v>
       </c>
       <c r="J382" t="n">
-        <v>3.492003364908247</v>
+        <v>3.4548518806837243</v>
       </c>
       <c r="K382" t="n">
-        <v>3.4737768141216674</v>
+        <v>3.31826471284444</v>
       </c>
       <c r="L382" t="n">
-        <v>3.1361060337818962</v>
+        <v>3.434064563803019</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.9507946468548307</v>
+        <v>2.9806006533887177</v>
       </c>
       <c r="C387" t="n">
-        <v>2.6639606951238743</v>
+        <v>2.6789534311533356</v>
       </c>
       <c r="D387" t="n">
-        <v>2.966277163829735</v>
+        <v>2.966158008628369</v>
       </c>
       <c r="E387" t="n">
-        <v>2.9507946468548307</v>
+        <v>2.9787876374120996</v>
       </c>
       <c r="F387" t="n">
-        <v>2.6639606951238743</v>
+        <v>3.093573514141776</v>
       </c>
       <c r="G387" t="n">
-        <v>2.966277163829735</v>
+        <v>3.0416937119862775</v>
       </c>
       <c r="H387" t="n">
-        <v>2.9507946468548307</v>
+        <v>2.627213986908608</v>
       </c>
       <c r="I387" t="n">
-        <v>2.6639606951238743</v>
+        <v>2.991525274575439</v>
       </c>
       <c r="J387" t="n">
-        <v>2.966277163829735</v>
+        <v>2.964362514904644</v>
       </c>
       <c r="K387" t="n">
-        <v>2.9507946468548307</v>
+        <v>2.8471667871735806</v>
       </c>
       <c r="L387" t="n">
-        <v>2.6639606951238743</v>
+        <v>2.9465263977352993</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.8825806731113505</v>
+        <v>0.8384516394557829</v>
       </c>
       <c r="C389" t="n">
-        <v>0.7967888331201379</v>
+        <v>0.7535973978340507</v>
       </c>
       <c r="D389" t="n">
-        <v>0.8872114834145118</v>
+        <v>0.8343888814463782</v>
       </c>
       <c r="E389" t="n">
-        <v>0.8825806731113505</v>
+        <v>0.8379416327844005</v>
       </c>
       <c r="F389" t="n">
-        <v>0.7967888331201379</v>
+        <v>0.8702312340166038</v>
       </c>
       <c r="G389" t="n">
-        <v>0.8872114834145118</v>
+        <v>0.855637294663318</v>
       </c>
       <c r="H389" t="n">
-        <v>0.8825806731113505</v>
+        <v>0.7390429415696054</v>
       </c>
       <c r="I389" t="n">
-        <v>0.7967888331201379</v>
+        <v>0.8415247671939875</v>
       </c>
       <c r="J389" t="n">
-        <v>0.8872114834145118</v>
+        <v>0.8338838038357369</v>
       </c>
       <c r="K389" t="n">
-        <v>0.8825806731113505</v>
+        <v>0.8009163045024712</v>
       </c>
       <c r="L389" t="n">
-        <v>0.7967888331201379</v>
+        <v>0.828866452160275</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.279992607409714</v>
+        <v>1.2933258637368985</v>
       </c>
       <c r="C394" t="n">
-        <v>1.2585084412627237</v>
+        <v>1.2716365488954917</v>
       </c>
       <c r="D394" t="n">
-        <v>1.1194631477678003</v>
+        <v>1.1199862374107878</v>
       </c>
       <c r="E394" t="n">
-        <v>1.279992607409714</v>
+        <v>1.1431238655863263</v>
       </c>
       <c r="F394" t="n">
-        <v>1.2585084412627237</v>
+        <v>1.2506627018703291</v>
       </c>
       <c r="G394" t="n">
-        <v>1.1194631477678003</v>
+        <v>1.2318500856546746</v>
       </c>
       <c r="H394" t="n">
-        <v>1.279992607409714</v>
+        <v>1.239306805702963</v>
       </c>
       <c r="I394" t="n">
-        <v>1.2585084412627237</v>
+        <v>1.1903109550787048</v>
       </c>
       <c r="J394" t="n">
-        <v>1.1194631477678003</v>
+        <v>1.0983556018008098</v>
       </c>
       <c r="K394" t="n">
-        <v>1.279992607409714</v>
+        <v>1.2400574452014121</v>
       </c>
       <c r="L394" t="n">
-        <v>1.2585084412627237</v>
+        <v>1.2460954610830244</v>
       </c>
     </row>
     <row r="395">
@@ -15078,34 +15078,34 @@
         <v>6.379548076296871</v>
       </c>
       <c r="C395" t="n">
-        <v>6.440761167565507</v>
+        <v>6.410611002253445</v>
       </c>
       <c r="D395" t="n">
-        <v>6.414928861898549</v>
+        <v>6.40671160695748</v>
       </c>
       <c r="E395" t="n">
-        <v>6.379548076296871</v>
+        <v>5.947280562720825</v>
       </c>
       <c r="F395" t="n">
-        <v>6.440761167565507</v>
+        <v>6.542008622783911</v>
       </c>
       <c r="G395" t="n">
-        <v>6.414928861898549</v>
+        <v>6.434107439689778</v>
       </c>
       <c r="H395" t="n">
-        <v>6.379548076296871</v>
+        <v>6.337324834937788</v>
       </c>
       <c r="I395" t="n">
-        <v>6.440761167565507</v>
+        <v>6.653590571917099</v>
       </c>
       <c r="J395" t="n">
-        <v>6.414928861898549</v>
+        <v>6.123624347446315</v>
       </c>
       <c r="K395" t="n">
-        <v>6.379548076296871</v>
+        <v>6.375686367480998</v>
       </c>
       <c r="L395" t="n">
-        <v>6.440761167565507</v>
+        <v>5.650554652667852</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.880590810992482</v>
+        <v>4.929396719102407</v>
       </c>
       <c r="C397" t="n">
-        <v>4.927421095392748</v>
+        <v>4.953398652070821</v>
       </c>
       <c r="D397" t="n">
-        <v>4.907658423780734</v>
+        <v>4.950385638272897</v>
       </c>
       <c r="E397" t="n">
-        <v>4.880590810992482</v>
+        <v>4.595389037412015</v>
       </c>
       <c r="F397" t="n">
-        <v>4.927421095392748</v>
+        <v>5.054927944082477</v>
       </c>
       <c r="G397" t="n">
-        <v>4.907658423780734</v>
+        <v>4.971554054338201</v>
       </c>
       <c r="H397" t="n">
-        <v>4.880590810992482</v>
+        <v>4.896771350512639</v>
       </c>
       <c r="I397" t="n">
-        <v>4.927421095392748</v>
+        <v>5.141145915542215</v>
       </c>
       <c r="J397" t="n">
-        <v>4.907658423780734</v>
+        <v>4.731647666309207</v>
       </c>
       <c r="K397" t="n">
-        <v>4.880590810992482</v>
+        <v>4.926412825174587</v>
       </c>
       <c r="L397" t="n">
-        <v>4.927421095392748</v>
+        <v>4.366112651374206</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6.050387165876956</v>
+        <v>6.112125810426721</v>
       </c>
       <c r="C398" t="n">
-        <v>6.10844188971727</v>
+        <v>6.141886619376806</v>
       </c>
       <c r="D398" t="n">
-        <v>6.083942434771066</v>
+        <v>6.138150681603711</v>
       </c>
       <c r="E398" t="n">
-        <v>6.050387165876956</v>
+        <v>5.697978382562086</v>
       </c>
       <c r="F398" t="n">
-        <v>6.10844188971727</v>
+        <v>6.267776224450384</v>
       </c>
       <c r="G398" t="n">
-        <v>6.083942434771066</v>
+        <v>6.164398117055033</v>
       </c>
       <c r="H398" t="n">
-        <v>6.050387165876956</v>
+        <v>6.071672511819318</v>
       </c>
       <c r="I398" t="n">
-        <v>6.10844188971727</v>
+        <v>6.374680805012862</v>
       </c>
       <c r="J398" t="n">
-        <v>6.083942434771066</v>
+        <v>5.8669300677345335</v>
       </c>
       <c r="K398" t="n">
-        <v>6.050387165876956</v>
+        <v>6.108425979366031</v>
       </c>
       <c r="L398" t="n">
-        <v>6.10844188971727</v>
+        <v>5.4136908324461706</v>
       </c>
     </row>
     <row r="399">
@@ -15268,34 +15268,34 @@
         <v>5.565513323304857</v>
       </c>
       <c r="C400" t="n">
-        <v>5.618915581731606</v>
+        <v>5.592612598395279</v>
       </c>
       <c r="D400" t="n">
-        <v>5.596379496159131</v>
+        <v>5.5892107686397905</v>
       </c>
       <c r="E400" t="n">
-        <v>5.565513323304857</v>
+        <v>5.188403443848343</v>
       </c>
       <c r="F400" t="n">
-        <v>5.618915581731606</v>
+        <v>5.707243791540447</v>
       </c>
       <c r="G400" t="n">
-        <v>5.596379496159131</v>
+        <v>5.613110874141172</v>
       </c>
       <c r="H400" t="n">
-        <v>5.565513323304857</v>
+        <v>5.528677796786888</v>
       </c>
       <c r="I400" t="n">
-        <v>5.618915581731606</v>
+        <v>5.804587806682905</v>
       </c>
       <c r="J400" t="n">
-        <v>5.596379496159131</v>
+        <v>5.342245639507666</v>
       </c>
       <c r="K400" t="n">
-        <v>5.565513323304857</v>
+        <v>5.562144371208498</v>
       </c>
       <c r="L400" t="n">
-        <v>5.618915581731606</v>
+        <v>4.929539965429636</v>
       </c>
     </row>
     <row r="401">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>2.8783172724062838</v>
+        <v>2.9073911842487714</v>
       </c>
       <c r="C403" t="n">
-        <v>2.905935325564396</v>
+        <v>2.9215476849919306</v>
       </c>
       <c r="D403" t="n">
-        <v>2.894280335164128</v>
+        <v>2.919770589283614</v>
       </c>
       <c r="E403" t="n">
-        <v>2.8783172724062838</v>
+        <v>2.7103912176088696</v>
       </c>
       <c r="F403" t="n">
-        <v>2.905935325564396</v>
+        <v>2.9814303410974548</v>
       </c>
       <c r="G403" t="n">
-        <v>2.894280335164128</v>
+        <v>2.932255862788641</v>
       </c>
       <c r="H403" t="n">
-        <v>2.8783172724062838</v>
+        <v>2.8881485234474655</v>
       </c>
       <c r="I403" t="n">
-        <v>2.905935325564396</v>
+        <v>3.03228227784145</v>
       </c>
       <c r="J403" t="n">
-        <v>2.894280335164128</v>
+        <v>2.790757469101336</v>
       </c>
       <c r="K403" t="n">
-        <v>2.8783172724062838</v>
+        <v>2.905631263634783</v>
       </c>
       <c r="L403" t="n">
-        <v>2.905935325564396</v>
+        <v>2.575162470257384</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>3.4356848405013483</v>
+        <v>3.4016681589122255</v>
       </c>
       <c r="C406" t="n">
-        <v>3.684187364763818</v>
+        <v>3.6489123609565777</v>
       </c>
       <c r="D406" t="n">
-        <v>3.8371984341502565</v>
+        <v>3.805656543732058</v>
       </c>
       <c r="E406" t="n">
-        <v>3.4356848405013483</v>
+        <v>3.6666794336606077</v>
       </c>
       <c r="F406" t="n">
-        <v>3.684187364763818</v>
+        <v>3.6981917202456955</v>
       </c>
       <c r="G406" t="n">
-        <v>3.8371984341502565</v>
+        <v>3.3375924149914837</v>
       </c>
       <c r="H406" t="n">
-        <v>3.4356848405013483</v>
+        <v>3.3730987175846665</v>
       </c>
       <c r="I406" t="n">
-        <v>3.684187364763818</v>
+        <v>3.66444909515927</v>
       </c>
       <c r="J406" t="n">
-        <v>3.8371984341502565</v>
+        <v>3.2198579950275446</v>
       </c>
       <c r="K406" t="n">
-        <v>3.4356848405013483</v>
+        <v>3.522087351206113</v>
       </c>
       <c r="L406" t="n">
-        <v>3.684187364763818</v>
+        <v>3.3046375817483686</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.866102303361212</v>
+        <v>6.936164571762856</v>
       </c>
       <c r="C407" t="n">
-        <v>7.362726363320285</v>
+        <v>7.440307361323555</v>
       </c>
       <c r="D407" t="n">
-        <v>7.6685139150681</v>
+        <v>7.759916269837685</v>
       </c>
       <c r="E407" t="n">
-        <v>6.866102303361212</v>
+        <v>7.476535274946098</v>
       </c>
       <c r="F407" t="n">
-        <v>7.362726363320285</v>
+        <v>7.540790339101627</v>
       </c>
       <c r="G407" t="n">
-        <v>7.6685139150681</v>
+        <v>6.805511055861259</v>
       </c>
       <c r="H407" t="n">
-        <v>6.866102303361212</v>
+        <v>6.877910110271046</v>
       </c>
       <c r="I407" t="n">
-        <v>7.362726363320285</v>
+        <v>7.4719875077409155</v>
       </c>
       <c r="J407" t="n">
-        <v>7.6685139150681</v>
+        <v>6.565444925221384</v>
       </c>
       <c r="K407" t="n">
-        <v>6.866102303361212</v>
+        <v>7.18170508198601</v>
       </c>
       <c r="L407" t="n">
-        <v>7.362726363320285</v>
+        <v>6.738314569863535</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>2.972252034939979</v>
       </c>
       <c r="C410" t="n">
-        <v>3.1872345399473554</v>
+        <v>3.1882848895052027</v>
       </c>
       <c r="D410" t="n">
-        <v>3.3196062455796507</v>
+        <v>3.32524216883265</v>
       </c>
       <c r="E410" t="n">
-        <v>2.972252034939979</v>
+        <v>3.2038091016071752</v>
       </c>
       <c r="F410" t="n">
-        <v>3.1872345399473554</v>
+        <v>3.2313433740736848</v>
       </c>
       <c r="G410" t="n">
-        <v>3.3196062455796507</v>
+        <v>2.916265015818273</v>
       </c>
       <c r="H410" t="n">
-        <v>2.972252034939979</v>
+        <v>2.947289111998639</v>
       </c>
       <c r="I410" t="n">
-        <v>3.1872345399473554</v>
+        <v>3.20186031417715</v>
       </c>
       <c r="J410" t="n">
-        <v>3.3196062455796507</v>
+        <v>2.813393026849132</v>
       </c>
       <c r="K410" t="n">
-        <v>2.972252034939979</v>
+        <v>3.077469878839188</v>
       </c>
       <c r="L410" t="n">
-        <v>3.1872345399473554</v>
+        <v>2.8874702993462</v>
       </c>
     </row>
     <row r="411">
@@ -15686,34 +15686,34 @@
         <v>0.7709830211125486</v>
       </c>
       <c r="C411" t="n">
-        <v>0.8267480973067945</v>
+        <v>0.8270205512123899</v>
       </c>
       <c r="D411" t="n">
-        <v>0.8610844645860483</v>
+        <v>0.8625463867532387</v>
       </c>
       <c r="E411" t="n">
-        <v>0.7709830211125486</v>
+        <v>0.8310474317750313</v>
       </c>
       <c r="F411" t="n">
-        <v>0.8267480973067945</v>
+        <v>0.8381896445890245</v>
       </c>
       <c r="G411" t="n">
-        <v>0.8610844645860483</v>
+        <v>0.7564603491997642</v>
       </c>
       <c r="H411" t="n">
-        <v>0.7709830211125486</v>
+        <v>0.7645077997925293</v>
       </c>
       <c r="I411" t="n">
-        <v>0.8267480973067945</v>
+        <v>0.8305419288760023</v>
       </c>
       <c r="J411" t="n">
-        <v>0.8610844645860483</v>
+        <v>0.7297760182914378</v>
       </c>
       <c r="K411" t="n">
-        <v>0.7709830211125486</v>
+        <v>0.7982758516702367</v>
       </c>
       <c r="L411" t="n">
-        <v>0.8267480973067945</v>
+        <v>0.7489911853345382</v>
       </c>
     </row>
     <row r="412">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.200135256571288</v>
+        <v>3.1050817340988734</v>
       </c>
       <c r="C414" t="n">
-        <v>3.431600517838747</v>
+        <v>3.3307690791793725</v>
       </c>
       <c r="D414" t="n">
-        <v>3.574121191451454</v>
+        <v>3.4738469680637594</v>
       </c>
       <c r="E414" t="n">
-        <v>3.200135256571288</v>
+        <v>3.346987067044283</v>
       </c>
       <c r="F414" t="n">
-        <v>3.431600517838747</v>
+        <v>3.375751843884342</v>
       </c>
       <c r="G414" t="n">
-        <v>3.574121191451454</v>
+        <v>3.046592659694063</v>
       </c>
       <c r="H414" t="n">
-        <v>3.200135256571288</v>
+        <v>3.0790032201829307</v>
       </c>
       <c r="I414" t="n">
-        <v>3.431600517838747</v>
+        <v>3.3449511884641763</v>
       </c>
       <c r="J414" t="n">
-        <v>3.574121191451454</v>
+        <v>2.9391233299927038</v>
       </c>
       <c r="K414" t="n">
-        <v>3.200135256571288</v>
+        <v>3.215001754794325</v>
       </c>
       <c r="L414" t="n">
-        <v>3.431600517838747</v>
+        <v>3.0165111097094246</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.9939100384889015</v>
+        <v>6.923970938104012</v>
       </c>
       <c r="C416" t="n">
-        <v>7.499778411088381</v>
+        <v>7.427227455082211</v>
       </c>
       <c r="D416" t="n">
-        <v>7.811257986154869</v>
+        <v>7.746274497754752</v>
       </c>
       <c r="E416" t="n">
-        <v>6.9939100384889015</v>
+        <v>7.46339168078294</v>
       </c>
       <c r="F416" t="n">
-        <v>7.499778411088381</v>
+        <v>7.527533785866502</v>
       </c>
       <c r="G416" t="n">
-        <v>7.811257986154869</v>
+        <v>6.793547108377339</v>
       </c>
       <c r="H416" t="n">
-        <v>6.9939100384889015</v>
+        <v>6.865818886748967</v>
       </c>
       <c r="I416" t="n">
-        <v>7.499778411088381</v>
+        <v>7.458851908458313</v>
       </c>
       <c r="J416" t="n">
-        <v>7.811257986154869</v>
+        <v>6.553903009023002</v>
       </c>
       <c r="K416" t="n">
-        <v>6.9939100384889015</v>
+        <v>7.169079793195703</v>
       </c>
       <c r="L416" t="n">
-        <v>7.499778411088381</v>
+        <v>6.726468752410261</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.7396803033642806</v>
+        <v>0.7100930912297093</v>
       </c>
       <c r="C420" t="n">
-        <v>0.809177007106338</v>
+        <v>0.7868127872037015</v>
       </c>
       <c r="D420" t="n">
-        <v>0.7989361732180768</v>
+        <v>0.7735172173709399</v>
       </c>
       <c r="E420" t="n">
-        <v>0.7396803033642806</v>
+        <v>0.6850443771204572</v>
       </c>
       <c r="F420" t="n">
-        <v>0.809177007106338</v>
+        <v>0.7711901502034906</v>
       </c>
       <c r="G420" t="n">
-        <v>0.7989361732180768</v>
+        <v>0.7451849010897726</v>
       </c>
       <c r="H420" t="n">
-        <v>0.7396803033642806</v>
+        <v>0.7011586594123886</v>
       </c>
       <c r="I420" t="n">
-        <v>0.809177007106338</v>
+        <v>0.7801083565211495</v>
       </c>
       <c r="J420" t="n">
-        <v>0.7989361732180768</v>
+        <v>0.776328303713671</v>
       </c>
       <c r="K420" t="n">
-        <v>0.7396803033642806</v>
+        <v>0.7960981555850422</v>
       </c>
       <c r="L420" t="n">
-        <v>0.809177007106338</v>
+        <v>0.8096765821851151</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.280012724476986</v>
+        <v>1.3058715673957133</v>
       </c>
       <c r="C423" t="n">
-        <v>1.4002763906776947</v>
+        <v>1.4469602089683016</v>
       </c>
       <c r="D423" t="n">
-        <v>1.3825546835744926</v>
+        <v>1.4225094618319505</v>
       </c>
       <c r="E423" t="n">
-        <v>1.280012724476986</v>
+        <v>1.259806616251843</v>
       </c>
       <c r="F423" t="n">
-        <v>1.4002763906776947</v>
+        <v>1.4182299513185759</v>
       </c>
       <c r="G423" t="n">
-        <v>1.3825546835744926</v>
+        <v>1.3704059183289898</v>
       </c>
       <c r="H423" t="n">
-        <v>1.280012724476986</v>
+        <v>1.2894410167747097</v>
       </c>
       <c r="I423" t="n">
-        <v>1.4002763906776947</v>
+        <v>1.434630663008689</v>
       </c>
       <c r="J423" t="n">
-        <v>1.3825546835744926</v>
+        <v>1.427679090678937</v>
       </c>
       <c r="K423" t="n">
-        <v>1.280012724476986</v>
+        <v>1.4640361370568138</v>
       </c>
       <c r="L423" t="n">
-        <v>1.4002763906776947</v>
+        <v>1.4890070619200566</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>5.347853466646113</v>
+        <v>5.295423530698602</v>
       </c>
       <c r="C425" t="n">
-        <v>5.434923052864579</v>
+        <v>5.3552250367592285</v>
       </c>
       <c r="D425" t="n">
-        <v>5.649219169657816</v>
+        <v>5.514013686643739</v>
       </c>
       <c r="E425" t="n">
-        <v>5.347853466646113</v>
+        <v>5.991221439664946</v>
       </c>
       <c r="F425" t="n">
-        <v>5.434923052864579</v>
+        <v>5.188240447242937</v>
       </c>
       <c r="G425" t="n">
-        <v>5.649219169657816</v>
+        <v>5.0880383779472425</v>
       </c>
       <c r="H425" t="n">
-        <v>5.347853466646113</v>
+        <v>5.744460047091591</v>
       </c>
       <c r="I425" t="n">
-        <v>5.434923052864579</v>
+        <v>5.890747543848758</v>
       </c>
       <c r="J425" t="n">
-        <v>5.649219169657816</v>
+        <v>5.772430639203954</v>
       </c>
       <c r="K425" t="n">
-        <v>5.347853466646113</v>
+        <v>5.793587991494079</v>
       </c>
       <c r="L425" t="n">
-        <v>5.434923052864579</v>
+        <v>5.740982773820667</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>2.371635706656924</v>
       </c>
       <c r="C428" t="n">
-        <v>2.5944628704193877</v>
+        <v>2.6278713645207232</v>
       </c>
       <c r="D428" t="n">
-        <v>2.5616277020299147</v>
+        <v>2.583465569639489</v>
       </c>
       <c r="E428" t="n">
-        <v>2.371635706656924</v>
+        <v>2.2879756548678465</v>
       </c>
       <c r="F428" t="n">
-        <v>2.5944628704193877</v>
+        <v>2.5756934117995156</v>
       </c>
       <c r="G428" t="n">
-        <v>2.5616277020299147</v>
+        <v>2.4888386344184323</v>
       </c>
       <c r="H428" t="n">
-        <v>2.371635706656924</v>
+        <v>2.3417956507848765</v>
       </c>
       <c r="I428" t="n">
-        <v>2.5944628704193877</v>
+        <v>2.605479276221412</v>
       </c>
       <c r="J428" t="n">
-        <v>2.5616277020299147</v>
+        <v>2.592854300254191</v>
       </c>
       <c r="K428" t="n">
-        <v>2.371635706656924</v>
+        <v>2.65888351134293</v>
       </c>
       <c r="L428" t="n">
-        <v>2.5944628704193877</v>
+        <v>2.704234017864808</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>9.816938347850742</v>
+        <v>9.719740938466082</v>
       </c>
       <c r="C429" t="n">
-        <v>9.652164947364627</v>
+        <v>9.556739078453647</v>
       </c>
       <c r="D429" t="n">
-        <v>8.5857532619403</v>
+        <v>8.417040428486137</v>
       </c>
       <c r="E429" t="n">
-        <v>9.816938347850742</v>
+        <v>8.590926807860775</v>
       </c>
       <c r="F429" t="n">
-        <v>9.652164947364627</v>
+        <v>9.399114178740772</v>
       </c>
       <c r="G429" t="n">
-        <v>8.5857532619403</v>
+        <v>9.25773159209504</v>
       </c>
       <c r="H429" t="n">
-        <v>9.816938347850742</v>
+        <v>9.313771132594614</v>
       </c>
       <c r="I429" t="n">
-        <v>9.652164947364627</v>
+        <v>8.94555227261483</v>
       </c>
       <c r="J429" t="n">
-        <v>8.5857532619403</v>
+        <v>8.254479560913389</v>
       </c>
       <c r="K429" t="n">
-        <v>9.816938347850742</v>
+        <v>9.31941241888423</v>
       </c>
       <c r="L429" t="n">
-        <v>9.652164947364627</v>
+        <v>9.364789962005531</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>1.9886916857097516</v>
+        <v>1.9690016690195562</v>
       </c>
       <c r="C446" t="n">
-        <v>2.04361595004353</v>
+        <v>2.0333623890418178</v>
       </c>
       <c r="D446" t="n">
-        <v>2.162175764356308</v>
+        <v>2.1457622922122757</v>
       </c>
       <c r="E446" t="n">
-        <v>1.9886916857097516</v>
+        <v>2.0132853064859284</v>
       </c>
       <c r="F446" t="n">
-        <v>2.04361595004353</v>
+        <v>2.1338483213993507</v>
       </c>
       <c r="G446" t="n">
-        <v>2.162175764356308</v>
+        <v>2.233852168284502</v>
       </c>
       <c r="H446" t="n">
-        <v>1.9886916857097516</v>
+        <v>2.318521233113298</v>
       </c>
       <c r="I446" t="n">
-        <v>2.04361595004353</v>
+        <v>2.2216822719851397</v>
       </c>
       <c r="J446" t="n">
-        <v>2.162175764356308</v>
+        <v>2.242039775939321</v>
       </c>
       <c r="K446" t="n">
-        <v>1.9886916857097516</v>
+        <v>2.0077785073660537</v>
       </c>
       <c r="L446" t="n">
-        <v>2.04361595004353</v>
+        <v>2.2230279294596906</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.0351398397430622</v>
+        <v>1.045595797720265</v>
       </c>
       <c r="C447" t="n">
-        <v>1.0637286323593405</v>
+        <v>1.0797731676292688</v>
       </c>
       <c r="D447" t="n">
-        <v>1.1254405548607391</v>
+        <v>1.1394607079032777</v>
       </c>
       <c r="E447" t="n">
-        <v>1.0351398397430622</v>
+        <v>1.0691116666863196</v>
       </c>
       <c r="F447" t="n">
-        <v>1.0637286323593405</v>
+        <v>1.1331340510943175</v>
       </c>
       <c r="G447" t="n">
-        <v>1.1254405548607391</v>
+        <v>1.1862389334843062</v>
       </c>
       <c r="H447" t="n">
-        <v>1.0351398397430622</v>
+        <v>1.2312006111582396</v>
       </c>
       <c r="I447" t="n">
-        <v>1.0637286323593405</v>
+        <v>1.1797763729748272</v>
       </c>
       <c r="J447" t="n">
-        <v>1.1254405548607391</v>
+        <v>1.1905867856430725</v>
       </c>
       <c r="K447" t="n">
-        <v>1.0351398397430622</v>
+        <v>1.0661873999834388</v>
       </c>
       <c r="L447" t="n">
-        <v>1.0637286323593405</v>
+        <v>1.180490955304898</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.6347661429879627</v>
       </c>
       <c r="C449" t="n">
-        <v>1.6799155889310313</v>
+        <v>1.6882017127420055</v>
       </c>
       <c r="D449" t="n">
-        <v>1.7773754273515339</v>
+        <v>1.781521875476903</v>
       </c>
       <c r="E449" t="n">
-        <v>1.6347661429879627</v>
+        <v>1.6715326893842521</v>
       </c>
       <c r="F449" t="n">
-        <v>1.6799155889310313</v>
+        <v>1.7716302860384772</v>
       </c>
       <c r="G449" t="n">
-        <v>1.7773754273515339</v>
+        <v>1.854658607257627</v>
       </c>
       <c r="H449" t="n">
-        <v>1.6347661429879627</v>
+        <v>1.9249552061475053</v>
       </c>
       <c r="I449" t="n">
-        <v>1.6799155889310313</v>
+        <v>1.8445545353581967</v>
       </c>
       <c r="J449" t="n">
-        <v>1.7773754273515339</v>
+        <v>1.8614563789389642</v>
       </c>
       <c r="K449" t="n">
-        <v>1.6347661429879627</v>
+        <v>1.6669606624027364</v>
       </c>
       <c r="L449" t="n">
-        <v>1.6799155889310313</v>
+        <v>1.845671769189974</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.3094063822512383</v>
+        <v>2.2865409725259784</v>
       </c>
       <c r="C450" t="n">
-        <v>2.3731882381841314</v>
+        <v>2.361281093709041</v>
       </c>
       <c r="D450" t="n">
-        <v>2.510868097671618</v>
+        <v>2.4918076381762067</v>
       </c>
       <c r="E450" t="n">
-        <v>2.3094063822512383</v>
+        <v>2.337966196319601</v>
       </c>
       <c r="F450" t="n">
-        <v>2.3731882381841314</v>
+        <v>2.4779723109452263</v>
       </c>
       <c r="G450" t="n">
-        <v>2.510868097671618</v>
+        <v>2.594103697175576</v>
       </c>
       <c r="H450" t="n">
-        <v>2.3094063822512383</v>
+        <v>2.692427273474473</v>
       </c>
       <c r="I450" t="n">
-        <v>2.3731882381841314</v>
+        <v>2.5799711715623603</v>
       </c>
       <c r="J450" t="n">
-        <v>2.510868097671618</v>
+        <v>2.6036117136817443</v>
       </c>
       <c r="K450" t="n">
-        <v>2.3094063822512383</v>
+        <v>2.331571320168311</v>
       </c>
       <c r="L450" t="n">
-        <v>2.3731882381841314</v>
+        <v>2.5815338421273264</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.637180236035561</v>
+        <v>2.6638184202379405</v>
       </c>
       <c r="C452" t="n">
-        <v>2.7100146454217193</v>
+        <v>2.7508906021627264</v>
       </c>
       <c r="D452" t="n">
-        <v>2.867235395797671</v>
+        <v>2.902953922986378</v>
       </c>
       <c r="E452" t="n">
-        <v>2.637180236035561</v>
+        <v>2.7237287651879276</v>
       </c>
       <c r="F452" t="n">
-        <v>2.7100146454217193</v>
+        <v>2.8868357777308433</v>
       </c>
       <c r="G452" t="n">
-        <v>2.867235395797671</v>
+        <v>3.0221287506209924</v>
       </c>
       <c r="H452" t="n">
-        <v>2.637180236035561</v>
+        <v>3.1366756390589154</v>
       </c>
       <c r="I452" t="n">
-        <v>2.7100146454217193</v>
+        <v>3.0056643694857703</v>
       </c>
       <c r="J452" t="n">
-        <v>2.867235395797671</v>
+        <v>3.0332055823127844</v>
       </c>
       <c r="K452" t="n">
-        <v>2.637180236035561</v>
+        <v>2.7162787395414907</v>
       </c>
       <c r="L452" t="n">
-        <v>2.7100146454217193</v>
+        <v>3.007484879455081</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>1.4588837927812657</v>
+        <v>1.4737703620953602</v>
       </c>
       <c r="C453" t="n">
-        <v>1.4991756689140843</v>
+        <v>1.5219434658282573</v>
       </c>
       <c r="D453" t="n">
-        <v>1.5861499308466662</v>
+        <v>1.6060732299627354</v>
       </c>
       <c r="E453" t="n">
-        <v>1.4588837927812657</v>
+        <v>1.5069160487905942</v>
       </c>
       <c r="F453" t="n">
-        <v>1.4991756689140843</v>
+        <v>1.5971557885226266</v>
       </c>
       <c r="G453" t="n">
-        <v>1.5861499308466662</v>
+        <v>1.6720072769463243</v>
       </c>
       <c r="H453" t="n">
-        <v>1.4588837927812657</v>
+        <v>1.735380894294828</v>
       </c>
       <c r="I453" t="n">
-        <v>1.4991756689140843</v>
+        <v>1.662898278839327</v>
       </c>
       <c r="J453" t="n">
-        <v>1.5861499308466662</v>
+        <v>1.6781355873931842</v>
       </c>
       <c r="K453" t="n">
-        <v>1.4588837927812657</v>
+        <v>1.5027942862443364</v>
       </c>
       <c r="L453" t="n">
-        <v>1.4991756689140843</v>
+        <v>1.6639054847420587</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5.253916530374151</v>
+        <v>5.202907632021004</v>
       </c>
       <c r="C456" t="n">
-        <v>5.4661023584980475</v>
+        <v>5.370738294881241</v>
       </c>
       <c r="D456" t="n">
-        <v>5.479154834356855</v>
+        <v>5.354580841019439</v>
       </c>
       <c r="E456" t="n">
-        <v>5.253916530374151</v>
+        <v>5.4363551376898505</v>
       </c>
       <c r="F456" t="n">
-        <v>5.4661023584980475</v>
+        <v>5.413207641720665</v>
       </c>
       <c r="G456" t="n">
-        <v>5.479154834356855</v>
+        <v>5.463053015807276</v>
       </c>
       <c r="H456" t="n">
-        <v>5.253916530374151</v>
+        <v>4.756447545406802</v>
       </c>
       <c r="I456" t="n">
-        <v>5.4661023584980475</v>
+        <v>5.025021659257405</v>
       </c>
       <c r="J456" t="n">
-        <v>5.479154834356855</v>
+        <v>4.982818230011156</v>
       </c>
       <c r="K456" t="n">
-        <v>5.253916530374151</v>
+        <v>4.881685881315282</v>
       </c>
       <c r="L456" t="n">
-        <v>5.4661023584980475</v>
+        <v>4.9303675113531815</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>0.4832940411714223</v>
+        <v>0.4882764539670039</v>
       </c>
       <c r="C458" t="n">
-        <v>0.5028124605753941</v>
+        <v>0.504026831779592</v>
       </c>
       <c r="D458" t="n">
-        <v>0.5040131236937794</v>
+        <v>0.5025105057490812</v>
       </c>
       <c r="E458" t="n">
-        <v>0.4832940411714223</v>
+        <v>0.5101847653031307</v>
       </c>
       <c r="F458" t="n">
-        <v>0.5028124605753941</v>
+        <v>0.5080124458907143</v>
       </c>
       <c r="G458" t="n">
-        <v>0.5040131236937794</v>
+        <v>0.5126902768704303</v>
       </c>
       <c r="H458" t="n">
-        <v>0.4832940411714223</v>
+        <v>0.44637758446024195</v>
       </c>
       <c r="I458" t="n">
-        <v>0.5028124605753941</v>
+        <v>0.47158241706792053</v>
       </c>
       <c r="J458" t="n">
-        <v>0.5040131236937794</v>
+        <v>0.46762175848332804</v>
       </c>
       <c r="K458" t="n">
-        <v>0.4832940411714223</v>
+        <v>0.4581308068664541</v>
       </c>
       <c r="L458" t="n">
-        <v>0.5028124605753941</v>
+        <v>0.46269942414152304</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.6175967847571455</v>
       </c>
       <c r="C460" t="n">
-        <v>1.5825379486066093</v>
+        <v>1.5820165968164772</v>
       </c>
       <c r="D460" t="n">
-        <v>1.6345312858582595</v>
+        <v>1.6511080278118306</v>
       </c>
       <c r="E460" t="n">
-        <v>1.6175967847571455</v>
+        <v>1.810238759349813</v>
       </c>
       <c r="F460" t="n">
-        <v>1.5825379486066093</v>
+        <v>1.7240369129768738</v>
       </c>
       <c r="G460" t="n">
-        <v>1.6345312858582595</v>
+        <v>1.7937219823965624</v>
       </c>
       <c r="H460" t="n">
-        <v>1.6175967847571455</v>
+        <v>1.6337279431603209</v>
       </c>
       <c r="I460" t="n">
-        <v>1.5825379486066093</v>
+        <v>1.7796493278734329</v>
       </c>
       <c r="J460" t="n">
-        <v>1.6345312858582595</v>
+        <v>1.646498569870764</v>
       </c>
       <c r="K460" t="n">
-        <v>1.6175967847571455</v>
+        <v>1.5760977751077758</v>
       </c>
       <c r="L460" t="n">
-        <v>1.5825379486066093</v>
+        <v>1.6650925678076864</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4939582069479583</v>
+        <v>0.49910360493699957</v>
       </c>
       <c r="C461" t="n">
-        <v>0.513907311695609</v>
+        <v>0.5152032351393473</v>
       </c>
       <c r="D461" t="n">
-        <v>0.5151344681481667</v>
+        <v>0.5136532857573137</v>
       </c>
       <c r="E461" t="n">
-        <v>0.4939582069479583</v>
+        <v>0.5214977160539815</v>
       </c>
       <c r="F461" t="n">
-        <v>0.513907311695609</v>
+        <v>0.5192772271465133</v>
       </c>
       <c r="G461" t="n">
-        <v>0.5151344681481667</v>
+        <v>0.5240587853934732</v>
       </c>
       <c r="H461" t="n">
-        <v>0.4939582069479583</v>
+        <v>0.4562756605548546</v>
       </c>
       <c r="I461" t="n">
-        <v>0.513907311695609</v>
+        <v>0.482039390741148</v>
       </c>
       <c r="J461" t="n">
-        <v>0.5151344681481667</v>
+        <v>0.47799090762992186</v>
       </c>
       <c r="K461" t="n">
-        <v>0.4939582069479583</v>
+        <v>0.4682895015355282</v>
       </c>
       <c r="L461" t="n">
-        <v>0.513907311695609</v>
+        <v>0.4729594243488008</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>1.3739930762331642</v>
       </c>
       <c r="C466" t="n">
-        <v>1.4294834626965884</v>
+        <v>1.4183140953745352</v>
       </c>
       <c r="D466" t="n">
-        <v>1.4328969184212883</v>
+        <v>1.4140472062990799</v>
       </c>
       <c r="E466" t="n">
-        <v>1.3739930762331642</v>
+        <v>1.4356423076127156</v>
       </c>
       <c r="F466" t="n">
-        <v>1.4294834626965884</v>
+        <v>1.4295294758188055</v>
       </c>
       <c r="G466" t="n">
-        <v>1.4328969184212883</v>
+        <v>1.4426927306218995</v>
       </c>
       <c r="H466" t="n">
-        <v>1.3739930762331642</v>
+        <v>1.2560911046419267</v>
       </c>
       <c r="I466" t="n">
-        <v>1.4294834626965884</v>
+        <v>1.3270166330166915</v>
       </c>
       <c r="J466" t="n">
-        <v>1.4328969184212883</v>
+        <v>1.3158714765621038</v>
       </c>
       <c r="K466" t="n">
-        <v>1.3739930762331642</v>
+        <v>1.289164266532824</v>
       </c>
       <c r="L466" t="n">
-        <v>1.4294834626965884</v>
+        <v>1.3020201977433186</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>3.446320591027063</v>
+        <v>3.343954632877744</v>
       </c>
       <c r="C468" t="n">
-        <v>3.4028337256516057</v>
+        <v>3.3277611471009125</v>
       </c>
       <c r="D468" t="n">
-        <v>3.190425214760479</v>
+        <v>3.069492694397206</v>
       </c>
       <c r="E468" t="n">
-        <v>3.446320591027063</v>
+        <v>3.1961984966528805</v>
       </c>
       <c r="F468" t="n">
-        <v>3.4028337256516057</v>
+        <v>3.3459899049120274</v>
       </c>
       <c r="G468" t="n">
-        <v>3.190425214760479</v>
+        <v>3.0073640110685043</v>
       </c>
       <c r="H468" t="n">
-        <v>3.446320591027063</v>
+        <v>3.4145723086282813</v>
       </c>
       <c r="I468" t="n">
-        <v>3.4028337256516057</v>
+        <v>3.329776748844503</v>
       </c>
       <c r="J468" t="n">
-        <v>3.190425214760479</v>
+        <v>3.4728120107781724</v>
       </c>
       <c r="K468" t="n">
-        <v>3.446320591027063</v>
+        <v>3.3077385157820864</v>
       </c>
       <c r="L468" t="n">
-        <v>3.4028337256516057</v>
+        <v>3.3582537659442657</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>2.40200750626634</v>
+        <v>2.4262702083498384</v>
       </c>
       <c r="C471" t="n">
-        <v>2.4107633056687514</v>
+        <v>2.438076876669135</v>
       </c>
       <c r="D471" t="n">
-        <v>2.2458349171265546</v>
+        <v>2.263240193812844</v>
       </c>
       <c r="E471" t="n">
-        <v>2.40200750626634</v>
+        <v>2.4895642146367964</v>
       </c>
       <c r="F471" t="n">
-        <v>2.4107633056687514</v>
+        <v>2.4277397833121617</v>
       </c>
       <c r="G471" t="n">
-        <v>2.2458349171265546</v>
+        <v>2.5320267737037394</v>
       </c>
       <c r="H471" t="n">
-        <v>2.40200750626634</v>
+        <v>2.4395607932377783</v>
       </c>
       <c r="I471" t="n">
-        <v>2.4107633056687514</v>
+        <v>2.1926686992171067</v>
       </c>
       <c r="J471" t="n">
-        <v>2.2458349171265546</v>
+        <v>2.4116717105267713</v>
       </c>
       <c r="K471" t="n">
-        <v>2.40200750626634</v>
+        <v>2.1503210202350718</v>
       </c>
       <c r="L471" t="n">
-        <v>2.4107633056687514</v>
+        <v>2.3303478974617233</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5.883335868067064</v>
+        <v>5.942169226747735</v>
       </c>
       <c r="C473" t="n">
-        <v>5.809097900908884</v>
+        <v>5.913393587296533</v>
       </c>
       <c r="D473" t="n">
-        <v>5.446487813483426</v>
+        <v>5.454453493789641</v>
       </c>
       <c r="E473" t="n">
-        <v>5.883335868067064</v>
+        <v>5.679608258633479</v>
       </c>
       <c r="F473" t="n">
-        <v>5.809097900908884</v>
+        <v>5.945785881929379</v>
       </c>
       <c r="G473" t="n">
-        <v>5.446487813483426</v>
+        <v>5.344051532427965</v>
       </c>
       <c r="H473" t="n">
-        <v>5.883335868067064</v>
+        <v>6.0676560307801735</v>
       </c>
       <c r="I473" t="n">
-        <v>5.809097900908884</v>
+        <v>5.9169752885960625</v>
       </c>
       <c r="J473" t="n">
-        <v>5.446487813483426</v>
+        <v>6.171147316961952</v>
       </c>
       <c r="K473" t="n">
-        <v>5.883335868067064</v>
+        <v>5.877813599909308</v>
       </c>
       <c r="L473" t="n">
-        <v>5.809097900908884</v>
+        <v>5.967578623048047</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.7525728907700864</v>
+        <v>1.7706406525306029</v>
       </c>
       <c r="C475" t="n">
-        <v>1.7304583197809489</v>
+        <v>1.7620661210639608</v>
       </c>
       <c r="D475" t="n">
-        <v>1.6224412656142932</v>
+        <v>1.6253116875177689</v>
       </c>
       <c r="E475" t="n">
-        <v>1.7525728907700864</v>
+        <v>1.6924030416227525</v>
       </c>
       <c r="F475" t="n">
-        <v>1.7304583197809489</v>
+        <v>1.7717183392215134</v>
       </c>
       <c r="G475" t="n">
-        <v>1.6224412656142932</v>
+        <v>1.5924142398944052</v>
       </c>
       <c r="H475" t="n">
-        <v>1.7525728907700864</v>
+        <v>1.8080330639711613</v>
       </c>
       <c r="I475" t="n">
-        <v>1.7304583197809489</v>
+        <v>1.763133392237865</v>
       </c>
       <c r="J475" t="n">
-        <v>1.6224412656142932</v>
+        <v>1.8388712766681818</v>
       </c>
       <c r="K475" t="n">
-        <v>1.7525728907700864</v>
+        <v>1.7514640379390363</v>
       </c>
       <c r="L475" t="n">
-        <v>1.7304583197809489</v>
+        <v>1.7782121147910641</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>5.142596330364885</v>
+        <v>5.0921787192828765</v>
       </c>
       <c r="C482" t="n">
-        <v>4.6926936822464365</v>
+        <v>4.667355297854928</v>
       </c>
       <c r="D482" t="n">
-        <v>4.45512312252202</v>
+        <v>4.455316173549</v>
       </c>
       <c r="E482" t="n">
-        <v>5.142596330364885</v>
+        <v>5.015581564986893</v>
       </c>
       <c r="F482" t="n">
-        <v>4.6926936822464365</v>
+        <v>4.618225241669024</v>
       </c>
       <c r="G482" t="n">
-        <v>4.45512312252202</v>
+        <v>5.0307160881423885</v>
       </c>
       <c r="H482" t="n">
-        <v>5.142596330364885</v>
+        <v>4.654325273423401</v>
       </c>
       <c r="I482" t="n">
-        <v>4.6926936822464365</v>
+        <v>4.873510808462443</v>
       </c>
       <c r="J482" t="n">
-        <v>4.45512312252202</v>
+        <v>5.117186350932441</v>
       </c>
       <c r="K482" t="n">
-        <v>5.142596330364885</v>
+        <v>4.706886821981924</v>
       </c>
       <c r="L482" t="n">
-        <v>4.6926936822464365</v>
+        <v>5.070496694581846</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.291108830772517</v>
+        <v>1.3044192310897595</v>
       </c>
       <c r="C484" t="n">
-        <v>1.1781555199042588</v>
+        <v>1.1955959019655207</v>
       </c>
       <c r="D484" t="n">
-        <v>1.1185106580704307</v>
+        <v>1.1412796796301357</v>
       </c>
       <c r="E484" t="n">
-        <v>1.291108830772517</v>
+        <v>1.2847980028064558</v>
       </c>
       <c r="F484" t="n">
-        <v>1.1781555199042588</v>
+        <v>1.1830106818374968</v>
       </c>
       <c r="G484" t="n">
-        <v>1.1185106580704307</v>
+        <v>1.288674882261343</v>
       </c>
       <c r="H484" t="n">
-        <v>1.291108830772517</v>
+        <v>1.1922581136852919</v>
       </c>
       <c r="I484" t="n">
-        <v>1.1781555199042588</v>
+        <v>1.2484049700395186</v>
       </c>
       <c r="J484" t="n">
-        <v>1.1185106580704307</v>
+        <v>1.3108252190658247</v>
       </c>
       <c r="K484" t="n">
-        <v>1.291108830772517</v>
+        <v>1.2057223494349065</v>
       </c>
       <c r="L484" t="n">
-        <v>1.1781555199042588</v>
+        <v>1.2988651349851021</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.810657231411579</v>
+        <v>2.7828289419916623</v>
       </c>
       <c r="C485" t="n">
-        <v>2.564765458048218</v>
+        <v>2.5506668405499227</v>
       </c>
       <c r="D485" t="n">
-        <v>2.4349225987677285</v>
+        <v>2.434789404882032</v>
       </c>
       <c r="E485" t="n">
-        <v>2.810657231411579</v>
+        <v>2.740969300058458</v>
       </c>
       <c r="F485" t="n">
-        <v>2.564765458048218</v>
+        <v>2.5238177156835704</v>
       </c>
       <c r="G485" t="n">
-        <v>2.4349225987677285</v>
+        <v>2.7492401780818216</v>
       </c>
       <c r="H485" t="n">
-        <v>2.810657231411579</v>
+        <v>2.5435460517673922</v>
       </c>
       <c r="I485" t="n">
-        <v>2.564765458048218</v>
+        <v>2.663328935322287</v>
       </c>
       <c r="J485" t="n">
-        <v>2.4349225987677285</v>
+        <v>2.796495383207</v>
       </c>
       <c r="K485" t="n">
-        <v>2.810657231411579</v>
+        <v>2.5722704557264815</v>
       </c>
       <c r="L485" t="n">
-        <v>2.564765458048218</v>
+        <v>2.7709799144564493</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.6150665695770785</v>
+        <v>1.5504639067939952</v>
       </c>
       <c r="C486" t="n">
-        <v>1.4737716516287456</v>
+        <v>1.421113894157846</v>
       </c>
       <c r="D486" t="n">
-        <v>1.399161037791319</v>
+        <v>1.3565523327539595</v>
       </c>
       <c r="E486" t="n">
-        <v>1.6150665695770785</v>
+        <v>1.5271416454111941</v>
       </c>
       <c r="F486" t="n">
-        <v>1.4737716516287456</v>
+        <v>1.4061548004075521</v>
       </c>
       <c r="G486" t="n">
-        <v>1.399161037791319</v>
+        <v>1.5317497970870722</v>
       </c>
       <c r="H486" t="n">
-        <v>1.6150665695770785</v>
+        <v>1.4171465191501262</v>
       </c>
       <c r="I486" t="n">
-        <v>1.4737716516287456</v>
+        <v>1.4838840159474156</v>
       </c>
       <c r="J486" t="n">
-        <v>1.399161037791319</v>
+        <v>1.5580782173680179</v>
       </c>
       <c r="K486" t="n">
-        <v>1.6150665695770785</v>
+        <v>1.4331504318990227</v>
       </c>
       <c r="L486" t="n">
-        <v>1.4737716516287456</v>
+        <v>1.5438621752801613</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>1.7239611490102644</v>
       </c>
       <c r="C491" t="n">
-        <v>1.573139533552454</v>
+        <v>1.5801368423420692</v>
       </c>
       <c r="D491" t="n">
-        <v>1.4934983583944461</v>
+        <v>1.508350828432279</v>
       </c>
       <c r="E491" t="n">
-        <v>1.7239611490102644</v>
+        <v>1.6980291215990946</v>
       </c>
       <c r="F491" t="n">
-        <v>1.573139533552454</v>
+        <v>1.5635038228071387</v>
       </c>
       <c r="G491" t="n">
-        <v>1.4934983583944461</v>
+        <v>1.7031529264314091</v>
       </c>
       <c r="H491" t="n">
-        <v>1.7239611490102644</v>
+        <v>1.5757255172238946</v>
       </c>
       <c r="I491" t="n">
-        <v>1.573139533552454</v>
+        <v>1.6499309541622023</v>
       </c>
       <c r="J491" t="n">
-        <v>1.4934983583944461</v>
+        <v>1.7324275025632836</v>
       </c>
       <c r="K491" t="n">
-        <v>1.7239611490102644</v>
+        <v>1.593520271226455</v>
       </c>
       <c r="L491" t="n">
-        <v>1.573139533552454</v>
+        <v>1.7166206823304695</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.4227264221326654</v>
+        <v>1.4084991579113386</v>
       </c>
       <c r="C494" t="n">
-        <v>1.3799442463827745</v>
+        <v>1.3644848465948398</v>
       </c>
       <c r="D494" t="n">
-        <v>1.2915183098584344</v>
+        <v>1.280243064454193</v>
       </c>
       <c r="E494" t="n">
-        <v>1.4227264221326654</v>
+        <v>1.306765456750145</v>
       </c>
       <c r="F494" t="n">
-        <v>1.3799442463827745</v>
+        <v>1.412762170849176</v>
       </c>
       <c r="G494" t="n">
-        <v>1.2915183098584344</v>
+        <v>1.4136178710538985</v>
       </c>
       <c r="H494" t="n">
-        <v>1.4227264221326654</v>
+        <v>1.3569087825098243</v>
       </c>
       <c r="I494" t="n">
-        <v>1.3799442463827745</v>
+        <v>1.2520832107302897</v>
       </c>
       <c r="J494" t="n">
-        <v>1.2915183098584344</v>
+        <v>1.4496168366716278</v>
       </c>
       <c r="K494" t="n">
-        <v>1.4227264221326654</v>
+        <v>1.4205009773075512</v>
       </c>
       <c r="L494" t="n">
-        <v>1.3799442463827745</v>
+        <v>1.2767413047394371</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>3.853065962746163</v>
       </c>
       <c r="C496" t="n">
-        <v>3.7372021236905635</v>
+        <v>3.732661173112636</v>
       </c>
       <c r="D496" t="n">
-        <v>3.4977246240493027</v>
+        <v>3.502210809273912</v>
       </c>
       <c r="E496" t="n">
-        <v>3.853065962746163</v>
+        <v>3.57476500743025</v>
       </c>
       <c r="F496" t="n">
-        <v>3.7372021236905635</v>
+        <v>3.8647277872898753</v>
       </c>
       <c r="G496" t="n">
-        <v>3.4977246240493027</v>
+        <v>3.867068625986591</v>
       </c>
       <c r="H496" t="n">
-        <v>3.853065962746163</v>
+        <v>3.7119362230879274</v>
       </c>
       <c r="I496" t="n">
-        <v>3.7372021236905635</v>
+        <v>3.425177199924526</v>
       </c>
       <c r="J496" t="n">
-        <v>3.4977246240493027</v>
+        <v>3.9655467744019792</v>
       </c>
       <c r="K496" t="n">
-        <v>3.853065962746163</v>
+        <v>3.885897932539563</v>
       </c>
       <c r="L496" t="n">
-        <v>3.7372021236905635</v>
+        <v>3.492631455895633</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>2.818454050611356</v>
+        <v>2.7620849695991287</v>
       </c>
       <c r="C505" t="n">
-        <v>2.7337015678708596</v>
+        <v>2.6757723388448182</v>
       </c>
       <c r="D505" t="n">
-        <v>2.5585277360652046</v>
+        <v>2.5105731202609958</v>
       </c>
       <c r="E505" t="n">
-        <v>2.818454050611356</v>
+        <v>2.5625838727751074</v>
       </c>
       <c r="F505" t="n">
-        <v>2.7337015678708596</v>
+        <v>2.770444792815685</v>
       </c>
       <c r="G505" t="n">
-        <v>2.5585277360652046</v>
+        <v>2.7721228319260893</v>
       </c>
       <c r="H505" t="n">
-        <v>2.818454050611356</v>
+        <v>2.660915579704847</v>
       </c>
       <c r="I505" t="n">
-        <v>2.7337015678708596</v>
+        <v>2.455351284820041</v>
       </c>
       <c r="J505" t="n">
-        <v>2.5585277360652046</v>
+        <v>2.8427172666443132</v>
       </c>
       <c r="K505" t="n">
-        <v>2.818454050611356</v>
+        <v>2.785620691843564</v>
       </c>
       <c r="L505" t="n">
-        <v>2.7337015678708596</v>
+        <v>2.5037061244087457</v>
       </c>
     </row>
     <row r="506">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.5259865640984422</v>
+        <v>1.5412464297394268</v>
       </c>
       <c r="C508" t="n">
-        <v>1.4800992983798726</v>
+        <v>1.4930838875093064</v>
       </c>
       <c r="D508" t="n">
-        <v>1.3852554907758114</v>
+        <v>1.4009025431117037</v>
       </c>
       <c r="E508" t="n">
-        <v>1.5259865640984422</v>
+        <v>1.429924599819854</v>
       </c>
       <c r="F508" t="n">
-        <v>1.4800992983798726</v>
+        <v>1.5459112202247247</v>
       </c>
       <c r="G508" t="n">
-        <v>1.3852554907758114</v>
+        <v>1.5468475678810565</v>
       </c>
       <c r="H508" t="n">
-        <v>1.5259865640984422</v>
+        <v>1.4847937996828982</v>
       </c>
       <c r="I508" t="n">
-        <v>1.4800992983798726</v>
+        <v>1.370088698623284</v>
       </c>
       <c r="J508" t="n">
-        <v>1.3852554907758114</v>
+        <v>1.5862393395558891</v>
       </c>
       <c r="K508" t="n">
-        <v>1.5259865640984422</v>
+        <v>1.5543793884571446</v>
       </c>
       <c r="L508" t="n">
-        <v>1.4800992983798726</v>
+        <v>1.39707075192613</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.9388839767011479</v>
+        <v>1.900106297167125</v>
       </c>
       <c r="C510" t="n">
-        <v>1.8847722055758211</v>
+        <v>1.862378553763316</v>
       </c>
       <c r="D510" t="n">
-        <v>1.7248602466380571</v>
+        <v>1.7148327736457167</v>
       </c>
       <c r="E510" t="n">
-        <v>1.9388839767011479</v>
+        <v>1.8679982831966868</v>
       </c>
       <c r="F510" t="n">
-        <v>1.8847722055758211</v>
+        <v>1.7477544644961256</v>
       </c>
       <c r="G510" t="n">
-        <v>1.7248602466380571</v>
+        <v>1.7282373856649615</v>
       </c>
       <c r="H510" t="n">
-        <v>1.9388839767011479</v>
+        <v>1.8827695609296087</v>
       </c>
       <c r="I510" t="n">
-        <v>1.8847722055758211</v>
+        <v>1.6543416121026</v>
       </c>
       <c r="J510" t="n">
-        <v>1.7248602466380571</v>
+        <v>1.697900799615129</v>
       </c>
       <c r="K510" t="n">
-        <v>1.9388839767011479</v>
+        <v>1.7330756756502526</v>
       </c>
       <c r="L510" t="n">
-        <v>1.8847722055758211</v>
+        <v>1.8096250441972213</v>
       </c>
     </row>
     <row r="511">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>0.4258826645462554</v>
+        <v>0.4303656399625318</v>
       </c>
       <c r="C514" t="n">
-        <v>0.416652335519654</v>
+        <v>0.42089944263983387</v>
       </c>
       <c r="D514" t="n">
-        <v>0.43034119866283177</v>
+        <v>0.4392813893625498</v>
       </c>
       <c r="E514" t="n">
-        <v>0.4258826645462554</v>
+        <v>0.48161851550015605</v>
       </c>
       <c r="F514" t="n">
-        <v>0.416652335519654</v>
+        <v>0.4586843002928654</v>
       </c>
       <c r="G514" t="n">
-        <v>0.43034119866283177</v>
+        <v>0.4772241859919707</v>
       </c>
       <c r="H514" t="n">
-        <v>0.4258826645462554</v>
+        <v>0.4346573746982446</v>
       </c>
       <c r="I514" t="n">
-        <v>0.416652335519654</v>
+        <v>0.47348012132339046</v>
       </c>
       <c r="J514" t="n">
-        <v>0.43034119866283177</v>
+        <v>0.438055031635222</v>
       </c>
       <c r="K514" t="n">
-        <v>0.4258826645462554</v>
+        <v>0.41932472543187915</v>
       </c>
       <c r="L514" t="n">
-        <v>0.416652335519654</v>
+        <v>0.44300201094242125</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.6678789871786844</v>
+        <v>0.6746940788845894</v>
       </c>
       <c r="C517" t="n">
-        <v>0.6534037729593394</v>
+        <v>0.6598537043515913</v>
       </c>
       <c r="D517" t="n">
-        <v>0.6748709628986946</v>
+        <v>0.6886715035914845</v>
       </c>
       <c r="E517" t="n">
-        <v>0.6678789871786844</v>
+        <v>0.7550443867159825</v>
       </c>
       <c r="F517" t="n">
-        <v>0.6534037729593394</v>
+        <v>0.7190898918228236</v>
       </c>
       <c r="G517" t="n">
-        <v>0.6748709628986946</v>
+        <v>0.7481552956163803</v>
       </c>
       <c r="H517" t="n">
-        <v>0.6678789871786844</v>
+        <v>0.6814223298076437</v>
       </c>
       <c r="I517" t="n">
-        <v>0.6534037729593394</v>
+        <v>0.7422856396116119</v>
       </c>
       <c r="J517" t="n">
-        <v>0.6748709628986946</v>
+        <v>0.6867489144709997</v>
       </c>
       <c r="K517" t="n">
-        <v>0.6678789871786844</v>
+        <v>0.6573849840880097</v>
       </c>
       <c r="L517" t="n">
-        <v>0.6534037729593394</v>
+        <v>0.6945044073287067</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>2.113763298821884</v>
+        <v>2.0719065998353123</v>
       </c>
       <c r="C518" t="n">
-        <v>2.1214683902424487</v>
+        <v>2.081988870939591</v>
       </c>
       <c r="D518" t="n">
-        <v>1.9763316353718434</v>
+        <v>1.932687578834276</v>
       </c>
       <c r="E518" t="n">
-        <v>2.113763298821884</v>
+        <v>2.1259563379496655</v>
       </c>
       <c r="F518" t="n">
-        <v>2.1214683902424487</v>
+        <v>2.073161539228671</v>
       </c>
       <c r="G518" t="n">
-        <v>1.9763316353718434</v>
+        <v>2.162217120476659</v>
       </c>
       <c r="H518" t="n">
-        <v>2.113763298821884</v>
+        <v>2.0832560573072083</v>
       </c>
       <c r="I518" t="n">
-        <v>2.1214683902424487</v>
+        <v>1.8724232501086655</v>
       </c>
       <c r="J518" t="n">
-        <v>1.9763316353718434</v>
+        <v>2.0594402538021286</v>
       </c>
       <c r="K518" t="n">
-        <v>2.113763298821884</v>
+        <v>1.8362605691060991</v>
       </c>
       <c r="L518" t="n">
-        <v>2.1214683902424487</v>
+        <v>1.9899940130522806</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.324563696099388</v>
+        <v>2.3478093330603818</v>
       </c>
       <c r="C521" t="n">
-        <v>2.2741824771757435</v>
+        <v>2.296167602496677</v>
       </c>
       <c r="D521" t="n">
-        <v>2.348899381507612</v>
+        <v>2.39644815946486</v>
       </c>
       <c r="E521" t="n">
-        <v>2.324563696099388</v>
+        <v>2.627413391469628</v>
       </c>
       <c r="F521" t="n">
-        <v>2.2741824771757435</v>
+        <v>2.5022984670653927</v>
       </c>
       <c r="G521" t="n">
-        <v>2.348899381507612</v>
+        <v>2.6034406416172966</v>
       </c>
       <c r="H521" t="n">
-        <v>2.324563696099388</v>
+        <v>2.37122238915009</v>
       </c>
       <c r="I521" t="n">
-        <v>2.2741824771757435</v>
+        <v>2.5830153354212917</v>
       </c>
       <c r="J521" t="n">
-        <v>2.348899381507612</v>
+        <v>2.3897579085467298</v>
       </c>
       <c r="K521" t="n">
-        <v>2.324563696099388</v>
+        <v>2.2875769172410214</v>
       </c>
       <c r="L521" t="n">
-        <v>2.2741824771757435</v>
+        <v>2.4167455746366855</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.0538767171084167</v>
+        <v>1.0327991827662484</v>
       </c>
       <c r="C522" t="n">
-        <v>1.0310356163494807</v>
+        <v>1.0100820326247137</v>
       </c>
       <c r="D522" t="n">
-        <v>1.0649096745144184</v>
+        <v>1.0541953581088916</v>
       </c>
       <c r="E522" t="n">
-        <v>1.0538767171084167</v>
+        <v>1.1557967528656807</v>
       </c>
       <c r="F522" t="n">
-        <v>1.0310356163494807</v>
+        <v>1.1007588118127256</v>
       </c>
       <c r="G522" t="n">
-        <v>1.0649096745144184</v>
+        <v>1.1452511620855836</v>
       </c>
       <c r="H522" t="n">
-        <v>1.0538767171084167</v>
+        <v>1.0430985647710003</v>
       </c>
       <c r="I522" t="n">
-        <v>1.0310356163494807</v>
+        <v>1.1362660885321505</v>
       </c>
       <c r="J522" t="n">
-        <v>1.0649096745144184</v>
+        <v>1.0512523228362023</v>
       </c>
       <c r="K522" t="n">
-        <v>1.0538767171084167</v>
+        <v>1.0063029980214744</v>
       </c>
       <c r="L522" t="n">
-        <v>1.0310356163494807</v>
+        <v>1.0631241725175147</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>7.028550237787939</v>
       </c>
       <c r="C523" t="n">
-        <v>6.633552945390341</v>
+        <v>6.579049928713228</v>
       </c>
       <c r="D523" t="n">
-        <v>6.75974861848316</v>
+        <v>6.849858280246425</v>
       </c>
       <c r="E523" t="n">
-        <v>7.028550237787939</v>
+        <v>6.190353322346789</v>
       </c>
       <c r="F523" t="n">
-        <v>6.633552945390341</v>
+        <v>6.318238905815021</v>
       </c>
       <c r="G523" t="n">
-        <v>6.75974861848316</v>
+        <v>6.048084379955504</v>
       </c>
       <c r="H523" t="n">
-        <v>7.028550237787939</v>
+        <v>6.207331804834847</v>
       </c>
       <c r="I523" t="n">
-        <v>6.633552945390341</v>
+        <v>6.946572057475915</v>
       </c>
       <c r="J523" t="n">
-        <v>6.75974861848316</v>
+        <v>6.61578290923551</v>
       </c>
       <c r="K523" t="n">
-        <v>7.028550237787939</v>
+        <v>6.829188817916831</v>
       </c>
       <c r="L523" t="n">
-        <v>6.633552945390341</v>
+        <v>6.3359271425562484</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>2.2418747965714023</v>
+        <v>2.219678016407329</v>
       </c>
       <c r="C524" t="n">
-        <v>2.3324156450052316</v>
+        <v>2.2912783712814426</v>
       </c>
       <c r="D524" t="n">
-        <v>2.3379852075385426</v>
+        <v>2.284385236197238</v>
       </c>
       <c r="E524" t="n">
-        <v>2.2418747965714023</v>
+        <v>2.319271999804067</v>
       </c>
       <c r="F524" t="n">
-        <v>2.3324156450052316</v>
+        <v>2.3093967547350482</v>
       </c>
       <c r="G524" t="n">
-        <v>2.3379852075385426</v>
+        <v>2.33066191815996</v>
       </c>
       <c r="H524" t="n">
-        <v>2.2418747965714023</v>
+        <v>2.0292080504671652</v>
       </c>
       <c r="I524" t="n">
-        <v>2.3324156450052316</v>
+        <v>2.143787839011037</v>
       </c>
       <c r="J524" t="n">
-        <v>2.3379852075385426</v>
+        <v>2.1257829020142</v>
       </c>
       <c r="K524" t="n">
-        <v>2.2418747965714023</v>
+        <v>2.0826375557915777</v>
       </c>
       <c r="L524" t="n">
-        <v>2.3324156450052316</v>
+        <v>2.1034062396968936</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.576074854313221</v>
       </c>
       <c r="C531" t="n">
-        <v>2.431302097764282</v>
+        <v>2.4113258799105255</v>
       </c>
       <c r="D531" t="n">
-        <v>2.4775548083773113</v>
+        <v>2.510581424954797</v>
       </c>
       <c r="E531" t="n">
-        <v>2.576074854313221</v>
+        <v>2.268862424469307</v>
       </c>
       <c r="F531" t="n">
-        <v>2.431302097764282</v>
+        <v>2.3157345139694274</v>
       </c>
       <c r="G531" t="n">
-        <v>2.4775548083773113</v>
+        <v>2.2167186063781283</v>
       </c>
       <c r="H531" t="n">
-        <v>2.576074854313221</v>
+        <v>2.2750853069019787</v>
       </c>
       <c r="I531" t="n">
-        <v>2.431302097764282</v>
+        <v>2.5460285543282293</v>
       </c>
       <c r="J531" t="n">
-        <v>2.4775548083773113</v>
+        <v>2.4247890983903027</v>
       </c>
       <c r="K531" t="n">
-        <v>2.576074854313221</v>
+        <v>2.5030057400186387</v>
       </c>
       <c r="L531" t="n">
-        <v>2.431302097764282</v>
+        <v>2.3222175325642485</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>4.917852097205204</v>
+        <v>4.771777282436733</v>
       </c>
       <c r="C532" t="n">
-        <v>4.641473868824031</v>
+        <v>4.466605477338266</v>
       </c>
       <c r="D532" t="n">
-        <v>4.7297725413214</v>
+        <v>4.650460909258314</v>
       </c>
       <c r="E532" t="n">
-        <v>4.917852097205204</v>
+        <v>4.202714123749057</v>
       </c>
       <c r="F532" t="n">
-        <v>4.641473868824031</v>
+        <v>4.289537366281208</v>
       </c>
       <c r="G532" t="n">
-        <v>4.7297725413214</v>
+        <v>4.106125825404233</v>
       </c>
       <c r="H532" t="n">
-        <v>4.917852097205204</v>
+        <v>4.214241043851467</v>
       </c>
       <c r="I532" t="n">
-        <v>4.641473868824031</v>
+        <v>4.716121193309662</v>
       </c>
       <c r="J532" t="n">
-        <v>4.7297725413214</v>
+        <v>4.491543991831632</v>
       </c>
       <c r="K532" t="n">
-        <v>4.917852097205204</v>
+        <v>4.636428133302005</v>
       </c>
       <c r="L532" t="n">
-        <v>4.641473868824031</v>
+        <v>4.301546148091483</v>
       </c>
     </row>
     <row r="533">
@@ -20360,34 +20360,34 @@
         <v>1.9090963762376176</v>
       </c>
       <c r="C534" t="n">
-        <v>1.8018071239696771</v>
+        <v>1.7870030024777541</v>
       </c>
       <c r="D534" t="n">
-        <v>1.8360844207161808</v>
+        <v>1.8605600270526577</v>
       </c>
       <c r="E534" t="n">
-        <v>1.9090963762376176</v>
+        <v>1.6814251439486285</v>
       </c>
       <c r="F534" t="n">
-        <v>1.8018071239696771</v>
+        <v>1.7161614545265373</v>
       </c>
       <c r="G534" t="n">
-        <v>1.8360844207161808</v>
+        <v>1.642782022226297</v>
       </c>
       <c r="H534" t="n">
-        <v>1.9090963762376176</v>
+        <v>1.6860368431320103</v>
       </c>
       <c r="I534" t="n">
-        <v>1.8018071239696771</v>
+        <v>1.8868294446984766</v>
       </c>
       <c r="J534" t="n">
-        <v>1.8360844207161808</v>
+        <v>1.7969804228035664</v>
       </c>
       <c r="K534" t="n">
-        <v>1.9090963762376176</v>
+        <v>1.8549457831051568</v>
       </c>
       <c r="L534" t="n">
-        <v>1.8018071239696771</v>
+        <v>1.7209659373177617</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>4.56177569746855</v>
+        <v>4.607854239867223</v>
       </c>
       <c r="C537" t="n">
-        <v>4.578404285356652</v>
+        <v>4.6302768894495125</v>
       </c>
       <c r="D537" t="n">
-        <v>4.265180320522372</v>
+        <v>4.298235574508089</v>
       </c>
       <c r="E537" t="n">
-        <v>4.56177569746855</v>
+        <v>4.728059134698742</v>
       </c>
       <c r="F537" t="n">
-        <v>4.578404285356652</v>
+        <v>4.6106451850791945</v>
       </c>
       <c r="G537" t="n">
-        <v>4.265180320522372</v>
+        <v>4.808701959293822</v>
       </c>
       <c r="H537" t="n">
-        <v>4.56177569746855</v>
+        <v>4.633095071541885</v>
       </c>
       <c r="I537" t="n">
-        <v>4.578404285356652</v>
+        <v>4.164209628235642</v>
       </c>
       <c r="J537" t="n">
-        <v>4.265180320522372</v>
+        <v>4.580129483630998</v>
       </c>
       <c r="K537" t="n">
-        <v>4.56177569746855</v>
+        <v>4.083784978304083</v>
       </c>
       <c r="L537" t="n">
-        <v>4.578404285356652</v>
+        <v>4.425683257673003</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.622776618688644</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5622392042079355</v>
+        <v>0.5597494443212923</v>
       </c>
       <c r="D547" t="n">
-        <v>0.6260442637552696</v>
+        <v>0.6197589244334458</v>
       </c>
       <c r="E547" t="n">
-        <v>0.622776618688644</v>
+        <v>0.6223978010975443</v>
       </c>
       <c r="F547" t="n">
-        <v>0.5622392042079355</v>
+        <v>0.646381544139956</v>
       </c>
       <c r="G547" t="n">
-        <v>0.6260442637552696</v>
+        <v>0.635541605643699</v>
       </c>
       <c r="H547" t="n">
-        <v>0.622776618688644</v>
+        <v>0.5489388326739629</v>
       </c>
       <c r="I547" t="n">
-        <v>0.5622392042079355</v>
+        <v>0.6250592453918843</v>
       </c>
       <c r="J547" t="n">
-        <v>0.6260442637552696</v>
+        <v>0.6193837680001723</v>
       </c>
       <c r="K547" t="n">
-        <v>0.622776618688644</v>
+        <v>0.5948965026705729</v>
       </c>
       <c r="L547" t="n">
-        <v>0.5622392042079355</v>
+        <v>0.6156570303278074</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>3.4685730611391543</v>
       </c>
       <c r="C549" t="n">
-        <v>3.0926869237768244</v>
+        <v>3.0811162091967734</v>
       </c>
       <c r="D549" t="n">
-        <v>3.5392528578877207</v>
+        <v>3.521544550588287</v>
       </c>
       <c r="E549" t="n">
-        <v>3.4685730611391543</v>
+        <v>3.370322680306667</v>
       </c>
       <c r="F549" t="n">
-        <v>3.0926869237768244</v>
+        <v>3.1622426934261814</v>
       </c>
       <c r="G549" t="n">
-        <v>3.5392528578877207</v>
+        <v>3.227753879214806</v>
       </c>
       <c r="H549" t="n">
-        <v>3.4685730611391543</v>
+        <v>3.4790394843505323</v>
       </c>
       <c r="I549" t="n">
-        <v>3.0926869237768244</v>
+        <v>3.1937775223017226</v>
       </c>
       <c r="J549" t="n">
-        <v>3.5392528578877207</v>
+        <v>3.5065501405055257</v>
       </c>
       <c r="K549" t="n">
-        <v>3.4685730611391543</v>
+        <v>3.218742842081111</v>
       </c>
       <c r="L549" t="n">
-        <v>3.0926869237768244</v>
+        <v>3.538838815737536</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>4.206723029402979</v>
+        <v>4.248790259697009</v>
       </c>
       <c r="C550" t="n">
-        <v>4.842226494186698</v>
+        <v>4.906373086479347</v>
       </c>
       <c r="D550" t="n">
-        <v>4.785739520682967</v>
+        <v>4.824092298948676</v>
       </c>
       <c r="E550" t="n">
-        <v>4.206723029402979</v>
+        <v>4.7014458829601375</v>
       </c>
       <c r="F550" t="n">
-        <v>4.842226494186698</v>
+        <v>4.151143022905632</v>
       </c>
       <c r="G550" t="n">
-        <v>4.785739520682967</v>
+        <v>4.260443554309335</v>
       </c>
       <c r="H550" t="n">
-        <v>4.206723029402979</v>
+        <v>4.767826028530791</v>
       </c>
       <c r="I550" t="n">
-        <v>4.842226494186698</v>
+        <v>4.34870582140494</v>
       </c>
       <c r="J550" t="n">
-        <v>4.785739520682967</v>
+        <v>4.385538451048347</v>
       </c>
       <c r="K550" t="n">
-        <v>4.206723029402979</v>
+        <v>4.302929970262906</v>
       </c>
       <c r="L550" t="n">
-        <v>4.842226494186698</v>
+        <v>4.687259259734267</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>5.477829953621525</v>
+        <v>5.424125738389941</v>
       </c>
       <c r="C552" t="n">
-        <v>6.305357673105487</v>
+        <v>6.263614561763314</v>
       </c>
       <c r="D552" t="n">
-        <v>6.231802548775832</v>
+        <v>6.1585725827196285</v>
       </c>
       <c r="E552" t="n">
-        <v>5.477829953621525</v>
+        <v>6.001998701444503</v>
       </c>
       <c r="F552" t="n">
-        <v>6.305357673105487</v>
+        <v>5.299466515884442</v>
       </c>
       <c r="G552" t="n">
-        <v>6.231802548775832</v>
+        <v>5.4390026636746125</v>
       </c>
       <c r="H552" t="n">
-        <v>5.477829953621525</v>
+        <v>6.086741471527376</v>
       </c>
       <c r="I552" t="n">
-        <v>6.305357673105487</v>
+        <v>5.551680768598546</v>
       </c>
       <c r="J552" t="n">
-        <v>6.231802548775832</v>
+        <v>5.598702344682565</v>
       </c>
       <c r="K552" t="n">
-        <v>5.477829953621525</v>
+        <v>5.49324202316753</v>
       </c>
       <c r="L552" t="n">
-        <v>6.305357673105487</v>
+        <v>5.9838876572467665</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.2022796930633852</v>
+        <v>3.170573953528104</v>
       </c>
       <c r="C554" t="n">
-        <v>3.114933397480813</v>
+        <v>3.044883976258725</v>
       </c>
       <c r="D554" t="n">
-        <v>3.406043785231405</v>
+        <v>3.31916445502108</v>
       </c>
       <c r="E554" t="n">
-        <v>3.2022796930633852</v>
+        <v>3.303081282969653</v>
       </c>
       <c r="F554" t="n">
-        <v>3.114933397480813</v>
+        <v>2.9256369085094005</v>
       </c>
       <c r="G554" t="n">
-        <v>3.406043785231405</v>
+        <v>3.3010818406960882</v>
       </c>
       <c r="H554" t="n">
-        <v>3.2022796930633852</v>
+        <v>3.3313299943013286</v>
       </c>
       <c r="I554" t="n">
-        <v>3.114933397480813</v>
+        <v>3.2812197346951475</v>
       </c>
       <c r="J554" t="n">
-        <v>3.406043785231405</v>
+        <v>2.9832533906316865</v>
       </c>
       <c r="K554" t="n">
-        <v>3.2022796930633852</v>
+        <v>3.4449698034723317</v>
       </c>
       <c r="L554" t="n">
-        <v>3.114933397480813</v>
+        <v>3.3871970203078776</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>0.5671447478085612</v>
       </c>
       <c r="C557" t="n">
-        <v>0.5763785570042789</v>
+        <v>0.5735495443043859</v>
       </c>
       <c r="D557" t="n">
-        <v>0.5991048560461403</v>
+        <v>0.5905559552687855</v>
       </c>
       <c r="E557" t="n">
-        <v>0.5671447478085612</v>
+        <v>0.6416653460796462</v>
       </c>
       <c r="F557" t="n">
-        <v>0.5763785570042789</v>
+        <v>0.5556653406405783</v>
       </c>
       <c r="G557" t="n">
-        <v>0.5991048560461403</v>
+        <v>0.5449336065325974</v>
       </c>
       <c r="H557" t="n">
-        <v>0.5671447478085612</v>
+        <v>0.6152369731745159</v>
       </c>
       <c r="I557" t="n">
-        <v>0.5763785570042789</v>
+        <v>0.6309044991004249</v>
       </c>
       <c r="J557" t="n">
-        <v>0.5991048560461403</v>
+        <v>0.6182326494065791</v>
       </c>
       <c r="K557" t="n">
-        <v>0.5671447478085612</v>
+        <v>0.620498621365067</v>
       </c>
       <c r="L557" t="n">
-        <v>0.5763785570042789</v>
+        <v>0.61486455399768</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>8.58554397935047</v>
+        <v>8.501371979552918</v>
       </c>
       <c r="C558" t="n">
-        <v>8.725327121578433</v>
+        <v>8.597378435884806</v>
       </c>
       <c r="D558" t="n">
-        <v>9.069362115582525</v>
+        <v>8.852300704325367</v>
       </c>
       <c r="E558" t="n">
-        <v>8.58554397935047</v>
+        <v>9.618418956518255</v>
       </c>
       <c r="F558" t="n">
-        <v>8.725327121578433</v>
+        <v>8.329298252665984</v>
       </c>
       <c r="G558" t="n">
-        <v>9.069362115582525</v>
+        <v>8.168431976481413</v>
       </c>
       <c r="H558" t="n">
-        <v>8.58554397935047</v>
+        <v>9.222263601559929</v>
       </c>
       <c r="I558" t="n">
-        <v>8.725327121578433</v>
+        <v>9.457116284953555</v>
       </c>
       <c r="J558" t="n">
-        <v>9.069362115582525</v>
+        <v>9.26716811328728</v>
       </c>
       <c r="K558" t="n">
-        <v>8.58554397935047</v>
+        <v>9.301134522372045</v>
       </c>
       <c r="L558" t="n">
-        <v>8.725327121578433</v>
+        <v>9.216681122013334</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>2.4382956900291872</v>
+        <v>2.51218343821189</v>
       </c>
       <c r="C562" t="n">
-        <v>2.377625152269591</v>
+        <v>2.4611956237395423</v>
       </c>
       <c r="D562" t="n">
-        <v>2.6311563734691448</v>
+        <v>2.7543030218772064</v>
       </c>
       <c r="E562" t="n">
-        <v>2.4382956900291872</v>
+        <v>2.407059881336623</v>
       </c>
       <c r="F562" t="n">
-        <v>2.377625152269591</v>
+        <v>2.7077607836681645</v>
       </c>
       <c r="G562" t="n">
-        <v>2.6311563734691448</v>
+        <v>2.5334611070117687</v>
       </c>
       <c r="H562" t="n">
-        <v>2.4382956900291872</v>
+        <v>2.6231457340718904</v>
       </c>
       <c r="I562" t="n">
-        <v>2.377625152269591</v>
+        <v>2.505170084934196</v>
       </c>
       <c r="J562" t="n">
-        <v>2.6311563734691448</v>
+        <v>2.4857394017946564</v>
       </c>
       <c r="K562" t="n">
-        <v>2.4382956900291872</v>
+        <v>2.7291725199259886</v>
       </c>
       <c r="L562" t="n">
-        <v>2.377625152269591</v>
+        <v>2.3980543131848933</v>
       </c>
     </row>
     <row r="563">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.0378669712329684</v>
+        <v>1.0487918867196315</v>
       </c>
       <c r="C568" t="n">
-        <v>1.1353798198182066</v>
+        <v>1.1621051912467566</v>
       </c>
       <c r="D568" t="n">
-        <v>1.121010607602919</v>
+        <v>1.142467926862496</v>
       </c>
       <c r="E568" t="n">
-        <v>1.0378669712329684</v>
+        <v>1.0117954865926446</v>
       </c>
       <c r="F568" t="n">
-        <v>1.1353798198182066</v>
+        <v>1.1390308998089784</v>
       </c>
       <c r="G568" t="n">
-        <v>1.121010607602919</v>
+        <v>1.1006217185066254</v>
       </c>
       <c r="H568" t="n">
-        <v>1.0378669712329684</v>
+        <v>1.0355959273191133</v>
       </c>
       <c r="I568" t="n">
-        <v>1.1353798198182066</v>
+        <v>1.1522028945031595</v>
       </c>
       <c r="J568" t="n">
-        <v>1.121010607602919</v>
+        <v>1.1466198395983587</v>
       </c>
       <c r="K568" t="n">
-        <v>1.0378669712329684</v>
+        <v>1.175819476238163</v>
       </c>
       <c r="L568" t="n">
-        <v>1.1353798198182066</v>
+        <v>1.1958745138500806</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.8219143626367018</v>
+        <v>0.8305660927697198</v>
       </c>
       <c r="C576" t="n">
-        <v>0.7420196316120274</v>
+        <v>0.74650989608264</v>
       </c>
       <c r="D576" t="n">
-        <v>0.8262268630287586</v>
+        <v>0.826541544558531</v>
       </c>
       <c r="E576" t="n">
-        <v>0.8219143626367018</v>
+        <v>0.8300608826557393</v>
       </c>
       <c r="F576" t="n">
-        <v>0.7420196316120274</v>
+        <v>0.8620468036921997</v>
       </c>
       <c r="G576" t="n">
-        <v>0.8262268630287586</v>
+        <v>0.8475901187548973</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8219143626367018</v>
+        <v>0.732092322900012</v>
       </c>
       <c r="I576" t="n">
-        <v>0.7420196316120274</v>
+        <v>0.8336103180750213</v>
       </c>
       <c r="J576" t="n">
-        <v>0.8262268630287586</v>
+        <v>0.8260412171480102</v>
       </c>
       <c r="K576" t="n">
-        <v>0.8219143626367018</v>
+        <v>0.7933837735685669</v>
       </c>
       <c r="L576" t="n">
-        <v>0.7420196316120274</v>
+        <v>0.8210710531206074</v>
       </c>
     </row>
     <row r="577">
@@ -21994,34 +21994,34 @@
         <v>4.939220330384783</v>
       </c>
       <c r="C577" t="n">
-        <v>4.4591001406100705</v>
+        <v>4.439353939033365</v>
       </c>
       <c r="D577" t="n">
-        <v>4.965135913053161</v>
+        <v>4.915287099160488</v>
       </c>
       <c r="E577" t="n">
-        <v>4.939220330384783</v>
+        <v>4.936215940863214</v>
       </c>
       <c r="F577" t="n">
-        <v>4.4591001406100705</v>
+        <v>5.126430196952729</v>
       </c>
       <c r="G577" t="n">
-        <v>4.965135913053161</v>
+        <v>5.040459010825716</v>
       </c>
       <c r="H577" t="n">
-        <v>4.939220330384783</v>
+        <v>4.353615343154771</v>
       </c>
       <c r="I577" t="n">
-        <v>4.4591001406100705</v>
+        <v>4.957323765679229</v>
       </c>
       <c r="J577" t="n">
-        <v>4.965135913053161</v>
+        <v>4.912311746157992</v>
       </c>
       <c r="K577" t="n">
-        <v>4.939220330384783</v>
+        <v>4.718104071813764</v>
       </c>
       <c r="L577" t="n">
-        <v>4.4591001406100705</v>
+        <v>4.882755115537988</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.808672278102226</v>
+        <v>6.876759000883249</v>
       </c>
       <c r="C578" t="n">
-        <v>6.874002905380709</v>
+        <v>6.910242917472782</v>
       </c>
       <c r="D578" t="n">
-        <v>6.8464329738792005</v>
+        <v>6.9060396100631</v>
       </c>
       <c r="E578" t="n">
-        <v>6.808672278102226</v>
+        <v>6.410801306196669</v>
       </c>
       <c r="F578" t="n">
-        <v>6.874002905380709</v>
+        <v>7.051881440902804</v>
       </c>
       <c r="G578" t="n">
-        <v>6.8464329738792005</v>
+        <v>6.935570626535646</v>
       </c>
       <c r="H578" t="n">
-        <v>6.808672278102226</v>
+        <v>6.83124495324383</v>
       </c>
       <c r="I578" t="n">
-        <v>6.874002905380709</v>
+        <v>7.172159893837225</v>
       </c>
       <c r="J578" t="n">
-        <v>6.8464329738792005</v>
+        <v>6.600889019990458</v>
       </c>
       <c r="K578" t="n">
-        <v>6.808672278102226</v>
+        <v>6.872596317172626</v>
       </c>
       <c r="L578" t="n">
-        <v>6.874002905380709</v>
+        <v>6.090949092787767</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.9179064924930715</v>
+        <v>1.9374769669062661</v>
       </c>
       <c r="C584" t="n">
-        <v>2.098103502887327</v>
+        <v>2.146805357357507</v>
       </c>
       <c r="D584" t="n">
-        <v>2.0715501909855414</v>
+        <v>2.1105286203619964</v>
       </c>
       <c r="E584" t="n">
-        <v>1.9179064924930715</v>
+        <v>1.8691319749091582</v>
       </c>
       <c r="F584" t="n">
-        <v>2.098103502887327</v>
+        <v>2.10417925702772</v>
       </c>
       <c r="G584" t="n">
-        <v>2.0715501909855414</v>
+        <v>2.033224375479395</v>
       </c>
       <c r="H584" t="n">
-        <v>1.9179064924930715</v>
+        <v>1.9130995210864847</v>
       </c>
       <c r="I584" t="n">
-        <v>2.098103502887327</v>
+        <v>2.128512431846615</v>
       </c>
       <c r="J584" t="n">
-        <v>2.0715501909855414</v>
+        <v>2.1181986218143334</v>
       </c>
       <c r="K584" t="n">
-        <v>1.9179064924930715</v>
+        <v>2.1721403276456033</v>
       </c>
       <c r="L584" t="n">
-        <v>2.098103502887327</v>
+        <v>2.2091888345377204</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>6.1195854190579375</v>
+        <v>6.0595894835769775</v>
       </c>
       <c r="C585" t="n">
-        <v>5.9487956195871305</v>
+        <v>5.939272721557056</v>
       </c>
       <c r="D585" t="n">
-        <v>5.444074912207037</v>
+        <v>5.468737542088553</v>
       </c>
       <c r="E585" t="n">
-        <v>6.1195854190579375</v>
+        <v>5.957194483842551</v>
       </c>
       <c r="F585" t="n">
-        <v>5.9487956195871305</v>
+        <v>5.573727421842193</v>
       </c>
       <c r="G585" t="n">
-        <v>5.444074912207037</v>
+        <v>5.51148591155838</v>
       </c>
       <c r="H585" t="n">
-        <v>6.1195854190579375</v>
+        <v>6.004301258522923</v>
       </c>
       <c r="I585" t="n">
-        <v>5.9487956195871305</v>
+        <v>5.275826436598024</v>
       </c>
       <c r="J585" t="n">
-        <v>5.444074912207037</v>
+        <v>5.414740135772434</v>
       </c>
       <c r="K585" t="n">
-        <v>6.1195854190579375</v>
+        <v>5.526915601548396</v>
       </c>
       <c r="L585" t="n">
-        <v>5.9487956195871305</v>
+        <v>5.7710376010982305</v>
       </c>
     </row>
     <row r="586">
@@ -22336,34 +22336,34 @@
         <v>2.546064070543235</v>
       </c>
       <c r="C586" t="n">
-        <v>2.785279660865232</v>
+        <v>2.8211452730431947</v>
       </c>
       <c r="D586" t="n">
-        <v>2.750029541189593</v>
+        <v>2.773473533849154</v>
       </c>
       <c r="E586" t="n">
-        <v>2.546064070543235</v>
+        <v>2.4562510139249367</v>
       </c>
       <c r="F586" t="n">
-        <v>2.785279660865232</v>
+        <v>2.7651297516352993</v>
       </c>
       <c r="G586" t="n">
-        <v>2.750029541189593</v>
+        <v>2.6718870046888363</v>
       </c>
       <c r="H586" t="n">
-        <v>2.546064070543235</v>
+        <v>2.5140293470376096</v>
       </c>
       <c r="I586" t="n">
-        <v>2.785279660865232</v>
+        <v>2.797106298033971</v>
       </c>
       <c r="J586" t="n">
-        <v>2.750029541189593</v>
+        <v>2.7835527840556695</v>
       </c>
       <c r="K586" t="n">
-        <v>2.546064070543235</v>
+        <v>2.8544382920986946</v>
       </c>
       <c r="L586" t="n">
-        <v>2.785279660865232</v>
+        <v>2.90312422430666</v>
       </c>
     </row>
     <row r="587">
@@ -22716,34 +22716,34 @@
         <v>0.4494639892600632</v>
       </c>
       <c r="C596" t="n">
-        <v>0.46187741620403105</v>
+        <v>0.46415561010935386</v>
       </c>
       <c r="D596" t="n">
-        <v>0.4886731068029663</v>
+        <v>0.48981313476579286</v>
       </c>
       <c r="E596" t="n">
-        <v>0.4494639892600632</v>
+        <v>0.45957261469586236</v>
       </c>
       <c r="F596" t="n">
-        <v>0.46187741620403105</v>
+        <v>0.4870935327797916</v>
       </c>
       <c r="G596" t="n">
-        <v>0.4886731068029663</v>
+        <v>0.5099214098047685</v>
       </c>
       <c r="H596" t="n">
-        <v>0.4494639892600632</v>
+        <v>0.5292488162989535</v>
       </c>
       <c r="I596" t="n">
-        <v>0.46187741620403105</v>
+        <v>0.5071433877108024</v>
       </c>
       <c r="J596" t="n">
-        <v>0.4886731068029663</v>
+        <v>0.5117903949137875</v>
       </c>
       <c r="K596" t="n">
-        <v>0.4494639892600632</v>
+        <v>0.4583155777215336</v>
       </c>
       <c r="L596" t="n">
-        <v>0.46187741620403105</v>
+        <v>0.5074505609276694</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.3231904367564887</v>
+        <v>0.3265570038060354</v>
       </c>
       <c r="C598" t="n">
-        <v>0.3161857983481804</v>
+        <v>0.3193741510220491</v>
       </c>
       <c r="D598" t="n">
-        <v>0.32657389353551786</v>
+        <v>0.3333221823900154</v>
       </c>
       <c r="E598" t="n">
-        <v>0.3231904367564887</v>
+        <v>0.36544715654561605</v>
       </c>
       <c r="F598" t="n">
-        <v>0.3161857983481804</v>
+        <v>0.3480449108566069</v>
       </c>
       <c r="G598" t="n">
-        <v>0.32657389353551786</v>
+        <v>0.36211278468903757</v>
       </c>
       <c r="H598" t="n">
-        <v>0.3231904367564887</v>
+        <v>0.3298135278086177</v>
       </c>
       <c r="I598" t="n">
-        <v>0.3161857983481804</v>
+        <v>0.35927182707835553</v>
       </c>
       <c r="J598" t="n">
-        <v>0.32657389353551786</v>
+        <v>0.3323916348094385</v>
       </c>
       <c r="K598" t="n">
-        <v>0.3231904367564887</v>
+        <v>0.31817927186460454</v>
       </c>
       <c r="L598" t="n">
-        <v>0.3161857983481804</v>
+        <v>0.3361453516270499</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.5648797576865299</v>
+        <v>1.5492309601096645</v>
       </c>
       <c r="C606" t="n">
-        <v>1.4279754584295492</v>
+        <v>1.4199838080873608</v>
       </c>
       <c r="D606" t="n">
-        <v>1.355683305584525</v>
+        <v>1.3554735867776995</v>
       </c>
       <c r="E606" t="n">
-        <v>1.5648797576865299</v>
+        <v>1.5259272448566488</v>
       </c>
       <c r="F606" t="n">
-        <v>1.4279754584295492</v>
+        <v>1.4050366099800153</v>
       </c>
       <c r="G606" t="n">
-        <v>1.355683305584525</v>
+        <v>1.5305317320774532</v>
       </c>
       <c r="H606" t="n">
-        <v>1.5648797576865299</v>
+        <v>1.4160195879817574</v>
       </c>
       <c r="I606" t="n">
-        <v>1.4279754584295492</v>
+        <v>1.482704014356036</v>
       </c>
       <c r="J606" t="n">
-        <v>1.355683305584525</v>
+        <v>1.5568392156965736</v>
       </c>
       <c r="K606" t="n">
-        <v>1.5648797576865299</v>
+        <v>1.4320107742356523</v>
       </c>
       <c r="L606" t="n">
-        <v>1.4279754584295492</v>
+        <v>1.54263447836846</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.150402126538641</v>
+        <v>2.172571220626668</v>
       </c>
       <c r="C607" t="n">
-        <v>1.9622731058848595</v>
+        <v>1.991320877674743</v>
       </c>
       <c r="D607" t="n">
-        <v>1.8629317996621884</v>
+        <v>1.9008546696900368</v>
       </c>
       <c r="E607" t="n">
-        <v>2.150402126538641</v>
+        <v>2.139891147483283</v>
       </c>
       <c r="F607" t="n">
-        <v>1.9622731058848595</v>
+        <v>1.9703596050993968</v>
       </c>
       <c r="G607" t="n">
-        <v>1.8629317996621884</v>
+        <v>2.146348271488186</v>
       </c>
       <c r="H607" t="n">
-        <v>2.150402126538641</v>
+        <v>1.9857616352277334</v>
       </c>
       <c r="I607" t="n">
-        <v>1.9622731058848595</v>
+        <v>2.0792768497665004</v>
       </c>
       <c r="J607" t="n">
-        <v>1.8629317996621884</v>
+        <v>2.183240693128122</v>
       </c>
       <c r="K607" t="n">
-        <v>2.150402126538641</v>
+        <v>2.008186949421321</v>
       </c>
       <c r="L607" t="n">
-        <v>1.9622731058848595</v>
+        <v>2.1633206138692898</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>2.919872472482099</v>
+        <v>2.949667089548243</v>
       </c>
       <c r="C608" t="n">
-        <v>2.8830285115763927</v>
+        <v>2.9353829866506262</v>
       </c>
       <c r="D608" t="n">
-        <v>2.7030667966138613</v>
+        <v>2.7075671102871737</v>
       </c>
       <c r="E608" t="n">
-        <v>2.919872472482099</v>
+        <v>2.8193329612032603</v>
       </c>
       <c r="F608" t="n">
-        <v>2.8830285115763927</v>
+        <v>2.9514623815294136</v>
       </c>
       <c r="G608" t="n">
-        <v>2.7030667966138613</v>
+        <v>2.6527640544293476</v>
       </c>
       <c r="H608" t="n">
-        <v>2.919872472482099</v>
+        <v>3.0119581960285036</v>
       </c>
       <c r="I608" t="n">
-        <v>2.8830285115763927</v>
+        <v>2.937160927675977</v>
       </c>
       <c r="J608" t="n">
-        <v>2.7030667966138613</v>
+        <v>3.063330822632827</v>
       </c>
       <c r="K608" t="n">
-        <v>2.919872472482099</v>
+        <v>2.917721234883236</v>
       </c>
       <c r="L608" t="n">
-        <v>2.8830285115763927</v>
+        <v>2.9622802039131026</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.3780353671611967</v>
+        <v>3.411815720832809</v>
       </c>
       <c r="C609" t="n">
-        <v>3.2764559626326704</v>
+        <v>3.305199597956353</v>
       </c>
       <c r="D609" t="n">
-        <v>3.066502779570383</v>
+        <v>3.101140238002853</v>
       </c>
       <c r="E609" t="n">
-        <v>3.3780353671611967</v>
+        <v>3.1653855834694493</v>
       </c>
       <c r="F609" t="n">
-        <v>3.2764559626326704</v>
+        <v>3.4221420419226956</v>
       </c>
       <c r="G609" t="n">
-        <v>3.066502779570383</v>
+        <v>3.4242148095167644</v>
       </c>
       <c r="H609" t="n">
-        <v>3.3780353671611967</v>
+        <v>3.2868480537597464</v>
       </c>
       <c r="I609" t="n">
-        <v>3.2764559626326704</v>
+        <v>3.0329284601740065</v>
       </c>
       <c r="J609" t="n">
-        <v>3.066502779570383</v>
+        <v>3.5114153137828943</v>
       </c>
       <c r="K609" t="n">
-        <v>3.3780353671611967</v>
+        <v>3.4408877979189723</v>
       </c>
       <c r="L609" t="n">
-        <v>3.2764559626326704</v>
+        <v>3.0926579050328424</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.231342243793263</v>
+        <v>1.244036493729276</v>
       </c>
       <c r="C611" t="n">
-        <v>1.1977558010404172</v>
+        <v>1.1947195811099962</v>
       </c>
       <c r="D611" t="n">
-        <v>1.3096937179003378</v>
+        <v>1.3023388734208459</v>
       </c>
       <c r="E611" t="n">
-        <v>1.231342243793263</v>
+        <v>1.2960283273619413</v>
       </c>
       <c r="F611" t="n">
-        <v>1.1977558010404172</v>
+        <v>1.1479306696306437</v>
       </c>
       <c r="G611" t="n">
-        <v>1.3096937179003378</v>
+        <v>1.29524380721137</v>
       </c>
       <c r="H611" t="n">
-        <v>1.231342243793263</v>
+        <v>1.3071122598967186</v>
       </c>
       <c r="I611" t="n">
-        <v>1.1977558010404172</v>
+        <v>1.2874505227557294</v>
       </c>
       <c r="J611" t="n">
-        <v>1.3096937179003378</v>
+        <v>1.1705376194924075</v>
       </c>
       <c r="K611" t="n">
-        <v>1.231342243793263</v>
+        <v>1.3517010541722299</v>
       </c>
       <c r="L611" t="n">
-        <v>1.1977558010404172</v>
+        <v>1.3290327765498415</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>0.862611086229099</v>
+        <v>0.8716912029262475</v>
       </c>
       <c r="C616" t="n">
-        <v>0.8864349296422049</v>
+        <v>0.9001841566601773</v>
       </c>
       <c r="D616" t="n">
-        <v>0.9378612069995047</v>
+        <v>0.9499444023445992</v>
       </c>
       <c r="E616" t="n">
-        <v>0.862611086229099</v>
+        <v>0.8912958877878063</v>
       </c>
       <c r="F616" t="n">
-        <v>0.8864349296422049</v>
+        <v>0.9446700017623396</v>
       </c>
       <c r="G616" t="n">
-        <v>0.9378612069995047</v>
+        <v>0.9889424241579877</v>
       </c>
       <c r="H616" t="n">
-        <v>0.862611086229099</v>
+        <v>1.0264260282262383</v>
       </c>
       <c r="I616" t="n">
-        <v>0.8864349296422049</v>
+        <v>0.9835547235218776</v>
       </c>
       <c r="J616" t="n">
-        <v>0.9378612069995047</v>
+        <v>0.9925671369644887</v>
       </c>
       <c r="K616" t="n">
-        <v>0.862611086229099</v>
+        <v>0.8888579882041727</v>
       </c>
       <c r="L616" t="n">
-        <v>0.8864349296422049</v>
+        <v>0.9841504557658741</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>2.9097198658121552</v>
       </c>
       <c r="C617" t="n">
-        <v>2.8466563180969664</v>
+        <v>2.845718514761105</v>
       </c>
       <c r="D617" t="n">
-        <v>2.9401815078825724</v>
+        <v>2.9699996157245643</v>
       </c>
       <c r="E617" t="n">
-        <v>2.9097198658121552</v>
+        <v>3.256242674056807</v>
       </c>
       <c r="F617" t="n">
-        <v>2.8466563180969664</v>
+        <v>3.1011834978612476</v>
       </c>
       <c r="G617" t="n">
-        <v>2.9401815078825724</v>
+        <v>3.2265324307669276</v>
       </c>
       <c r="H617" t="n">
-        <v>2.9097198658121552</v>
+        <v>2.938736461608202</v>
       </c>
       <c r="I617" t="n">
-        <v>2.8466563180969664</v>
+        <v>3.201218654913442</v>
       </c>
       <c r="J617" t="n">
-        <v>2.9401815078825724</v>
+        <v>2.961708160481742</v>
       </c>
       <c r="K617" t="n">
-        <v>2.9097198658121552</v>
+        <v>2.8350717866825783</v>
       </c>
       <c r="L617" t="n">
-        <v>2.8466563180969664</v>
+        <v>2.995154891887094</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.8358133954549976</v>
+        <v>2.8647502668371914</v>
       </c>
       <c r="C618" t="n">
-        <v>2.8630236150694213</v>
+        <v>2.878699142895273</v>
       </c>
       <c r="D618" t="n">
-        <v>2.8515407329640206</v>
+        <v>2.8769481107561594</v>
       </c>
       <c r="E618" t="n">
-        <v>2.8358133954549976</v>
+        <v>2.6706395774823988</v>
       </c>
       <c r="F618" t="n">
-        <v>2.8630236150694213</v>
+        <v>2.937703536932997</v>
       </c>
       <c r="G618" t="n">
-        <v>2.8515407329640206</v>
+        <v>2.889250270437607</v>
       </c>
       <c r="H618" t="n">
-        <v>2.8358133954549976</v>
+        <v>2.8457898263007237</v>
       </c>
       <c r="I618" t="n">
-        <v>2.8630236150694213</v>
+        <v>2.9878096596129384</v>
       </c>
       <c r="J618" t="n">
-        <v>2.8515407329640206</v>
+        <v>2.7498271466182787</v>
       </c>
       <c r="K618" t="n">
-        <v>2.8358133954549976</v>
+        <v>2.863016157895866</v>
       </c>
       <c r="L618" t="n">
-        <v>2.8630236150694213</v>
+        <v>2.5373941469541617</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.826721368196209</v>
       </c>
       <c r="C622" t="n">
-        <v>0.7802604778337728</v>
+        <v>0.773849652415485</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7951040310545822</v>
+        <v>0.8057030280511619</v>
       </c>
       <c r="E622" t="n">
-        <v>0.826721368196209</v>
+        <v>0.7281298696214702</v>
       </c>
       <c r="F622" t="n">
-        <v>0.7802604778337728</v>
+        <v>0.7431721957001841</v>
       </c>
       <c r="G622" t="n">
-        <v>0.7951040310545822</v>
+        <v>0.7113957252067086</v>
       </c>
       <c r="H622" t="n">
-        <v>0.826721368196209</v>
+        <v>0.7301269349902226</v>
       </c>
       <c r="I622" t="n">
-        <v>0.7802604778337728</v>
+        <v>0.8170788229917343</v>
       </c>
       <c r="J622" t="n">
-        <v>0.7951040310545822</v>
+        <v>0.7781703072999074</v>
       </c>
       <c r="K622" t="n">
-        <v>0.826721368196209</v>
+        <v>0.80327181740332</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7802604778337728</v>
+        <v>0.7452527447159777</v>
       </c>
     </row>
     <row r="623">
